--- a/01-25-dgs.xlsx
+++ b/01-25-dgs.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E91AD-E3BF-4CEA-A8AD-7A2D6E3FB9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAD334-CAA7-46A9-A90C-472F26CB0185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-DgsOLD" sheetId="1" r:id="rId1"/>
-    <sheet name="01-Dgs" sheetId="9" r:id="rId2"/>
+    <sheet name="2025-Dgs" sheetId="9" r:id="rId2"/>
     <sheet name="DGS_31-05-24" sheetId="2" r:id="rId3"/>
     <sheet name="2024" sheetId="3" r:id="rId4"/>
     <sheet name="02--_Tzgmrg" sheetId="4" r:id="rId5"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="455">
   <si>
     <t>Doğuş</t>
   </si>
@@ -1574,31 +1574,6 @@
     <t>DÖNEM 5 Aylık Tutar</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">DÖNEM 5 Hesabı         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>10 AYLIK</t>
-    </r>
-  </si>
-  <si>
     <t>Nakit  22104 TL</t>
   </si>
   <si>
@@ -1779,6 +1754,38 @@
   <si>
     <t>28-02-2025 31-1-2025 DÖNEMİ 10 ay</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nakit  22104 TL                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t>17-02-2025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DÖNEM 5 Hesabı         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>12 AYLIK</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1804,12 +1811,20 @@
     <numFmt numFmtId="180" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="64">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans1"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2245,6 +2260,12 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -2368,7 +2389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -2809,50 +2830,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2873,46 +2904,46 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="17" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="17" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="18" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2935,38 +2966,38 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2981,14 +3012,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2999,211 +3030,211 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="25" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="24" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="31" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="25" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="33" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="11" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="20" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="35" fillId="0" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="22" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="23" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="25" fillId="9" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="36" fillId="4" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="23" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="30" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="24" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="24" fillId="11" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="20" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="22" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="23" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="24" fillId="9" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="26" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="24" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="35" fillId="4" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="35" fillId="0" borderId="26" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="36" fillId="0" borderId="26" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="24" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="35" fillId="0" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="37" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="36" fillId="0" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="38" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="39" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="40" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="41" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3214,19 +3245,19 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="37" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="37" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="36" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="36" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="37" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="42" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -3234,24 +3265,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="42" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="43" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3263,147 +3294,152 @@
     <xf numFmtId="167" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="42" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="43" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="47" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="47" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="47" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="46" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="46" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="46" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="49" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="48" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="46" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="46" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="50" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="50" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="47" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="47" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="51" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="51" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="55" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="56" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="40" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="25">
     <cellStyle name="Accent" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Accent 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Accent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3421,6 +3457,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normal 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 4" xfId="24" xr:uid="{E54BE53E-20C6-4039-A973-2F30CB083387}"/>
     <cellStyle name="Note" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Result" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Status" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
@@ -5853,8 +5890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5921,7 +5958,7 @@
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="E7" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F7" s="293" t="s">
         <v>398</v>
@@ -6139,7 +6176,7 @@
     <row r="23" spans="1:9" ht="15">
       <c r="B23" s="295"/>
       <c r="C23" s="287" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F23" s="278">
         <f>F8</f>
@@ -6150,20 +6187,21 @@
       <c r="B24" s="295">
         <v>44407</v>
       </c>
-      <c r="C24" s="287" t="s">
-        <v>436</v>
-      </c>
-      <c r="D24" s="296">
+      <c r="C24" s="307" t="s">
+        <v>435</v>
+      </c>
+      <c r="D24" s="310">
         <v>0.25979999999999998</v>
       </c>
-      <c r="F24" s="278">
+      <c r="E24" s="283"/>
+      <c r="F24" s="311">
         <f>F23*D24</f>
         <v>6235.2</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="C25" s="287" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F25" s="3">
         <f>F23+F24</f>
@@ -6174,7 +6212,7 @@
     <row r="26" spans="1:9" ht="15">
       <c r="B26" s="295"/>
       <c r="E26" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F26" s="293" t="s">
         <v>398</v>
@@ -6432,7 +6470,7 @@
         <v>44772</v>
       </c>
       <c r="C42" s="287" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E42" s="302">
         <v>5000</v>
@@ -6449,7 +6487,7 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="287" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3">
@@ -6563,7 +6601,7 @@
     </row>
     <row r="57" spans="1:7" ht="15">
       <c r="C57" s="287" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="278">
@@ -6576,13 +6614,14 @@
       <c r="B58" s="295">
         <v>44772</v>
       </c>
-      <c r="C58" s="287" t="s">
-        <v>437</v>
-      </c>
-      <c r="D58" s="296">
+      <c r="C58" s="307" t="s">
+        <v>436</v>
+      </c>
+      <c r="D58" s="310">
         <v>0.71830000000000005</v>
       </c>
-      <c r="F58" s="278">
+      <c r="E58" s="283"/>
+      <c r="F58" s="311">
         <f>F57*D58</f>
         <v>21717.944160000003</v>
       </c>
@@ -6590,7 +6629,7 @@
     </row>
     <row r="59" spans="1:7" ht="15">
       <c r="C59" s="287" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="3">
@@ -6600,7 +6639,7 @@
     </row>
     <row r="60" spans="1:7" ht="15">
       <c r="E60" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F60" s="293" t="s">
         <v>398</v>
@@ -6611,7 +6650,7 @@
     </row>
     <row r="61" spans="1:7" ht="15">
       <c r="C61" s="287" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F61" s="293">
         <v>60000</v>
@@ -6898,7 +6937,7 @@
     </row>
     <row r="81" spans="1:7" ht="15">
       <c r="C81" s="287" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F81" s="278">
         <f>F57+F58</f>
@@ -6910,13 +6949,14 @@
       <c r="B82" s="295">
         <v>45137</v>
       </c>
-      <c r="C82" s="287" t="s">
-        <v>438</v>
-      </c>
-      <c r="D82" s="296">
+      <c r="C82" s="307" t="s">
+        <v>437</v>
+      </c>
+      <c r="D82" s="310">
         <v>0.55910000000000004</v>
       </c>
-      <c r="F82" s="278">
+      <c r="E82" s="283"/>
+      <c r="F82" s="311">
         <f>F81*D82</f>
         <v>29047.002899856005</v>
       </c>
@@ -6924,7 +6964,7 @@
     </row>
     <row r="83" spans="1:7" ht="15">
       <c r="C83" s="287" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F83" s="3">
         <f>F81+F82</f>
@@ -6933,7 +6973,7 @@
     </row>
     <row r="84" spans="1:7" ht="15">
       <c r="E84" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F84" s="293" t="s">
         <v>398</v>
@@ -7271,7 +7311,7 @@
       </c>
       <c r="G108" s="298">
         <f>F110/10</f>
-        <v>22100</v>
+        <v>26520</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15">
@@ -7285,22 +7325,22 @@
       </c>
       <c r="G109" s="292">
         <f>F116/F109</f>
-        <v>9.9981903727832062</v>
+        <v>11.997828447339849</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15">
       <c r="C110" s="287" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F110">
         <f>F116</f>
-        <v>221000</v>
+        <v>265200</v>
       </c>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" ht="15">
       <c r="C111" s="287" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F111" s="278">
         <f>F81+F82</f>
@@ -7312,30 +7352,31 @@
       <c r="B112" s="295">
         <v>45503</v>
       </c>
-      <c r="C112" s="287" t="s">
-        <v>439</v>
-      </c>
-      <c r="D112" s="296">
-        <v>0.55910000000000004</v>
-      </c>
-      <c r="F112" s="278">
+      <c r="C112" s="307" t="s">
+        <v>438</v>
+      </c>
+      <c r="D112" s="310">
+        <v>0.5383</v>
+      </c>
+      <c r="E112" s="283"/>
+      <c r="F112" s="311">
         <f>F111*D112</f>
-        <v>45287.182221165502</v>
+        <v>43602.379162320489</v>
       </c>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" ht="15">
       <c r="C113" s="287" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F113" s="3">
         <f>F111+F112</f>
-        <v>126287.32928102152</v>
+        <v>124602.5262221765</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15">
       <c r="E114" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F114" s="293" t="s">
         <v>398</v>
@@ -7346,7 +7387,7 @@
     </row>
     <row r="115" spans="1:7" ht="15">
       <c r="C115" s="287" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="F115" s="293"/>
       <c r="G115" s="3">
@@ -7359,36 +7400,36 @@
         <v>22100</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F116" s="293">
         <f>D116*C116</f>
-        <v>221000</v>
+        <v>265200</v>
       </c>
       <c r="G116" s="3">
         <f>G115+F116</f>
-        <v>251700</v>
+        <v>295900</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15">
       <c r="F117" s="293"/>
       <c r="G117" s="3">
         <f>G116+F117</f>
-        <v>251700</v>
+        <v>295900</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15">
       <c r="F118" s="293"/>
       <c r="G118" s="3">
         <f t="shared" ref="G118:G120" si="5">G117+F118</f>
-        <v>251700</v>
+        <v>295900</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15">
       <c r="F119" s="293"/>
       <c r="G119" s="3">
         <f t="shared" si="5"/>
-        <v>251700</v>
+        <v>295900</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15">
@@ -7398,7 +7439,7 @@
       <c r="F120" s="291"/>
       <c r="G120" s="3">
         <f t="shared" si="5"/>
-        <v>251700</v>
+        <v>295900</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15">
@@ -7408,7 +7449,7 @@
       <c r="F121" s="291"/>
       <c r="G121" s="3">
         <f>G120-F121-E121</f>
-        <v>251700</v>
+        <v>295900</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -7419,14 +7460,14 @@
         <v>45534</v>
       </c>
       <c r="C122" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E122" s="302">
         <v>15000</v>
       </c>
       <c r="G122" s="3">
         <f t="shared" ref="G122:G135" si="6">G121-F122-E122</f>
-        <v>236700</v>
+        <v>280900</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -7437,14 +7478,14 @@
         <v>45565</v>
       </c>
       <c r="C123" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E123" s="302">
         <v>15000</v>
       </c>
       <c r="G123" s="3">
         <f t="shared" si="6"/>
-        <v>221700</v>
+        <v>265900</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -7455,14 +7496,14 @@
         <v>45595</v>
       </c>
       <c r="C124" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E124" s="302">
         <v>15000</v>
       </c>
       <c r="G124" s="3">
         <f t="shared" si="6"/>
-        <v>206700</v>
+        <v>250900</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -7473,14 +7514,14 @@
         <v>45626</v>
       </c>
       <c r="C125" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E125" s="302">
         <v>15000</v>
       </c>
       <c r="G125" s="3">
         <f t="shared" si="6"/>
-        <v>191700</v>
+        <v>235900</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -7491,14 +7532,14 @@
         <v>45656</v>
       </c>
       <c r="C126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E126" s="302">
         <v>15000</v>
       </c>
       <c r="G126" s="3">
         <f t="shared" si="6"/>
-        <v>176700</v>
+        <v>220900</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -7509,11 +7550,14 @@
         <v>45687</v>
       </c>
       <c r="C127" t="s">
-        <v>433</v>
+        <v>453</v>
+      </c>
+      <c r="E127" s="302">
+        <v>15000</v>
       </c>
       <c r="G127" s="3">
         <f t="shared" si="6"/>
-        <v>176700</v>
+        <v>205900</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15">
@@ -7524,12 +7568,12 @@
         <v>45716</v>
       </c>
       <c r="C128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F128" s="300"/>
       <c r="G128" s="3">
         <f t="shared" si="6"/>
-        <v>176700</v>
+        <v>205900</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -7540,11 +7584,11 @@
         <v>45746</v>
       </c>
       <c r="C129" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G129" s="3">
         <f t="shared" si="6"/>
-        <v>176700</v>
+        <v>205900</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -7552,14 +7596,14 @@
         <v>9</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C130" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G130" s="3">
         <f t="shared" si="6"/>
-        <v>176700</v>
+        <v>205900</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -7570,11 +7614,11 @@
         <v>45807</v>
       </c>
       <c r="C131" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G131" s="3">
         <f t="shared" si="6"/>
-        <v>176700</v>
+        <v>205900</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -7585,11 +7629,11 @@
         <v>45838</v>
       </c>
       <c r="C132" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G132" s="3">
         <f t="shared" si="6"/>
-        <v>176700</v>
+        <v>205900</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -7600,17 +7644,17 @@
         <v>45868</v>
       </c>
       <c r="C133" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G133" s="3">
         <f t="shared" si="6"/>
-        <v>176700</v>
+        <v>205900</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="G134" s="3">
         <f t="shared" si="6"/>
-        <v>176700</v>
+        <v>205900</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -7619,34 +7663,34 @@
       </c>
       <c r="G135" s="3">
         <f t="shared" si="6"/>
-        <v>176700</v>
+        <v>205900</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="C137" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G137" s="278">
         <f>SUM(E8:E135)</f>
-        <v>114500</v>
+        <v>129500</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="C138" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G138" s="278">
         <f>SUM(F8)+F25+F59+F83+F113</f>
-        <v>313475.82050087757</v>
+        <v>311791.01744203252</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="C139" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G139" s="278">
         <f>G138-G137</f>
-        <v>198975.82050087757</v>
+        <v>182291.01744203252</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8318,7 +8362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:O24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -8338,7 +8384,7 @@
     <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.28515625" customWidth="1"/>
     <col min="17" max="17" width="6.7109375" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" customWidth="1"/>
     <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8759,6 +8805,12 @@
         <f t="shared" ref="F15:F26" si="1">F14+D15-E15</f>
         <v>0</v>
       </c>
+      <c r="I15">
+        <v>2021</v>
+      </c>
+      <c r="O15">
+        <v>24000</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="56">
@@ -8777,8 +8829,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16">
+        <v>2022</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="90">
+        <v>0.25979999999999998</v>
+      </c>
+      <c r="N16">
+        <f>O15*L16</f>
+        <v>6235.2</v>
+      </c>
+      <c r="O16">
+        <f>O15+N16</f>
+        <v>30235.200000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="B17" s="56">
         <v>44530</v>
       </c>
@@ -8795,8 +8864,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17">
+        <v>2023</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="L17" s="90">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N20" si="2">O16*L17</f>
+        <v>21717.944160000003</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17:O20" si="3">O16+N17</f>
+        <v>51953.144160000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="B18" s="94">
         <v>44560</v>
       </c>
@@ -8813,8 +8899,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18">
+        <v>2024</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="L18" s="90">
+        <v>0.55910000000000004</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>29047.002899856005</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>81000.147059856012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="B19" s="96">
         <v>44591</v>
       </c>
@@ -8831,8 +8934,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19">
+        <v>2025</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="L19" s="90">
+        <v>0.5383</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>43602.379162320489</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>124602.5262221765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="B20" s="96">
         <v>44620</v>
       </c>
@@ -8849,8 +8969,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="B21" s="96">
         <v>44650</v>
       </c>
@@ -8868,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:15">
       <c r="B22" s="96">
         <v>44681</v>
       </c>
@@ -8885,8 +9008,12 @@
         <f t="shared" si="1"/>
         <v>-2000</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="O22">
+        <f>SUM(O15:O21)</f>
+        <v>311791.01744203252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="B23" s="96">
         <v>44711</v>
       </c>
@@ -8904,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:15">
       <c r="B24" s="96">
         <v>44742</v>
       </c>
@@ -8925,7 +9052,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:15">
       <c r="B25" s="96">
         <v>44772</v>
       </c>
@@ -8945,8 +9072,9 @@
       <c r="H25">
         <v>5000</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="L25" s="308"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="B26" s="96">
         <v>44803</v>
       </c>
@@ -8961,8 +9089,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="L26" s="308"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
       <c r="C27" s="78"/>
@@ -8975,8 +9104,9 @@
       </c>
       <c r="F27" s="78"/>
       <c r="G27" s="78"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="L27" s="308"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="C28" t="s">
         <v>128</v>
       </c>
@@ -8984,8 +9114,9 @@
       <c r="G28" s="27" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="L28" s="308"/>
+    </row>
+    <row r="29" spans="1:15" ht="13.5" thickBot="1">
       <c r="C29" t="s">
         <v>70</v>
       </c>
@@ -8993,8 +9124,9 @@
         <v>2280</v>
       </c>
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="L29" s="309"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="B30" s="84" t="s">
         <v>5</v>
       </c>
@@ -9011,7 +9143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:15">
       <c r="B31" s="94">
         <v>45167</v>
       </c>
@@ -9029,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:15">
       <c r="B32" s="96">
         <v>44834</v>
       </c>
@@ -9043,7 +9175,7 @@
         <v>3000</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" ref="F32:F42" si="2">F31+D32-E32</f>
+        <f t="shared" ref="F32:F42" si="4">F31+D32-E32</f>
         <v>0</v>
       </c>
       <c r="G32" s="3"/>
@@ -9064,7 +9196,7 @@
         <v>3000</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G33" s="3"/>
@@ -9085,7 +9217,7 @@
         <v>3000</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G34" s="3"/>
@@ -9106,7 +9238,7 @@
         <v>3000</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G35" s="3"/>
@@ -9129,7 +9261,7 @@
         <v>6000</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G36" s="3"/>
@@ -9152,7 +9284,7 @@
         <v>6500</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="3"/>
@@ -9173,7 +9305,7 @@
         <v>6500</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G38" s="3"/>
@@ -9194,7 +9326,7 @@
         <v>6500</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="3"/>
@@ -9215,7 +9347,7 @@
         <v>6500</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G40" s="3"/>
@@ -9236,7 +9368,7 @@
         <v>6500</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="3"/>
@@ -9257,7 +9389,7 @@
         <v>6500</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="3"/>
@@ -9338,7 +9470,7 @@
         <v>6500</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" ref="F47:F57" si="3">D47-E47+F46</f>
+        <f t="shared" ref="F47:F57" si="5">D47-E47+F46</f>
         <v>0</v>
       </c>
       <c r="H47" s="3">
@@ -9360,7 +9492,7 @@
         <v>6500</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H48" s="3"/>
@@ -9380,7 +9512,7 @@
         <v>6500</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H49" s="3"/>
@@ -9400,7 +9532,7 @@
         <v>6500</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H50" s="3"/>
@@ -9420,7 +9552,7 @@
         <v>6500</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H51" s="3"/>
@@ -9440,7 +9572,7 @@
         <v>6500</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8500</v>
       </c>
       <c r="H52" s="3"/>
@@ -9460,7 +9592,7 @@
         <v>15000</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8500</v>
       </c>
       <c r="H53" s="3"/>
@@ -9477,7 +9609,7 @@
         <v>15000</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8500</v>
       </c>
       <c r="H54" s="3"/>
@@ -9494,7 +9626,7 @@
         <v>15000</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8500</v>
       </c>
       <c r="H55" s="3"/>
@@ -9514,7 +9646,7 @@
         <v>15000</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8500</v>
       </c>
       <c r="H56" s="3">
@@ -9533,7 +9665,7 @@
         <v>15000</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8500</v>
       </c>
       <c r="H57" s="3"/>
@@ -9613,14 +9745,14 @@
         <v>136</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" ref="D64:D74" si="4">D63</f>
+        <f t="shared" ref="D64:D74" si="6">D63</f>
         <v>22104</v>
       </c>
       <c r="E64">
         <v>15000</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" ref="F64:F74" si="5">D64-E64+F63</f>
+        <f t="shared" ref="F64:F74" si="7">D64-E64+F63</f>
         <v>14208</v>
       </c>
       <c r="H64" s="3">
@@ -9635,14 +9767,14 @@
         <v>137</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22104</v>
       </c>
       <c r="E65">
         <v>15000</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21312</v>
       </c>
       <c r="H65" s="3">
@@ -9657,14 +9789,14 @@
         <v>138</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22104</v>
       </c>
       <c r="E66">
         <v>15000</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28416</v>
       </c>
       <c r="H66" s="3">
@@ -9676,14 +9808,14 @@
         <v>45656</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22104</v>
       </c>
       <c r="E67">
         <v>15000</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>35520</v>
       </c>
     </row>
@@ -9692,14 +9824,14 @@
         <v>45687</v>
       </c>
       <c r="D68" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22104</v>
       </c>
       <c r="E68">
         <v>15000</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42624</v>
       </c>
     </row>
@@ -9708,11 +9840,11 @@
         <v>139</v>
       </c>
       <c r="D69" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22104</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>64728</v>
       </c>
     </row>
@@ -9721,11 +9853,11 @@
         <v>45746</v>
       </c>
       <c r="D70" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22104</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>86832</v>
       </c>
     </row>
@@ -9734,11 +9866,11 @@
         <v>45776</v>
       </c>
       <c r="D71" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22104</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>108936</v>
       </c>
     </row>
@@ -9747,11 +9879,11 @@
         <v>45806</v>
       </c>
       <c r="D72" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22104</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>131040</v>
       </c>
     </row>
@@ -9760,11 +9892,11 @@
         <v>45836</v>
       </c>
       <c r="D73" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22104</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>153144</v>
       </c>
     </row>
@@ -9773,11 +9905,11 @@
         <v>45866</v>
       </c>
       <c r="D74" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22104</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>175248</v>
       </c>
     </row>

--- a/01-25-dgs.xlsx
+++ b/01-25-dgs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAD334-CAA7-46A9-A90C-472F26CB0185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47242E82-16FA-4A95-8B56-60F4517D5245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="460">
   <si>
     <t>Doğuş</t>
   </si>
@@ -1752,9 +1752,6 @@
     <t>DÖNEM 3 Hesabı 12*5=   60000</t>
   </si>
   <si>
-    <t>28-02-2025 31-1-2025 DÖNEMİ 10 ay</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Nakit  22104 TL                         </t>
     </r>
@@ -1785,6 +1782,36 @@
       </rPr>
       <t>12 AYLIK</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nakit  22104 TL                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t>07-02-2025</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">28-02-2025 28-02-2026 DÖNEMİ </t>
+  </si>
+  <si>
+    <t>Yıllık peşin ödemeye geçildi</t>
+  </si>
+  <si>
+    <t>2025-2026 dönemi için ödenecek bakiye için senet yapıldı</t>
+  </si>
+  <si>
+    <t>senet</t>
+  </si>
+  <si>
+    <t>Sennedin ödenmesiyle hesap sıfırlanacak</t>
   </si>
 </sst>
 </file>
@@ -2869,7 +2896,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3427,17 +3454,19 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="40" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="40" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Accent" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5890,8 +5919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5908,7 +5937,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="301">
-        <v>45701</v>
+        <v>45727</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
@@ -6187,14 +6216,14 @@
       <c r="B24" s="295">
         <v>44407</v>
       </c>
-      <c r="C24" s="307" t="s">
+      <c r="C24" s="303" t="s">
         <v>435</v>
       </c>
-      <c r="D24" s="310">
+      <c r="D24" s="306">
         <v>0.25979999999999998</v>
       </c>
       <c r="E24" s="283"/>
-      <c r="F24" s="311">
+      <c r="F24" s="307">
         <f>F23*D24</f>
         <v>6235.2</v>
       </c>
@@ -6614,14 +6643,14 @@
       <c r="B58" s="295">
         <v>44772</v>
       </c>
-      <c r="C58" s="307" t="s">
+      <c r="C58" s="303" t="s">
         <v>436</v>
       </c>
-      <c r="D58" s="310">
+      <c r="D58" s="306">
         <v>0.71830000000000005</v>
       </c>
       <c r="E58" s="283"/>
-      <c r="F58" s="311">
+      <c r="F58" s="307">
         <f>F57*D58</f>
         <v>21717.944160000003</v>
       </c>
@@ -6949,14 +6978,14 @@
       <c r="B82" s="295">
         <v>45137</v>
       </c>
-      <c r="C82" s="307" t="s">
+      <c r="C82" s="303" t="s">
         <v>437</v>
       </c>
-      <c r="D82" s="310">
+      <c r="D82" s="306">
         <v>0.55910000000000004</v>
       </c>
       <c r="E82" s="283"/>
-      <c r="F82" s="311">
+      <c r="F82" s="307">
         <f>F81*D82</f>
         <v>29047.002899856005</v>
       </c>
@@ -7310,8 +7339,8 @@
         <v>431</v>
       </c>
       <c r="G108" s="298">
-        <f>F110/10</f>
-        <v>26520</v>
+        <f>F110/12</f>
+        <v>25000</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15">
@@ -7325,18 +7354,17 @@
       </c>
       <c r="G109" s="292">
         <f>F116/F109</f>
-        <v>11.997828447339849</v>
+        <v>13.572204125950055</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15">
       <c r="C110" s="287" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F110">
         <f>F116</f>
-        <v>265200</v>
-      </c>
-      <c r="G110" s="3"/>
+        <v>300000</v>
+      </c>
     </row>
     <row r="111" spans="1:7" ht="15">
       <c r="C111" s="287" t="s">
@@ -7352,14 +7380,14 @@
       <c r="B112" s="295">
         <v>45503</v>
       </c>
-      <c r="C112" s="307" t="s">
+      <c r="C112" s="303" t="s">
         <v>438</v>
       </c>
-      <c r="D112" s="310">
+      <c r="D112" s="306">
         <v>0.5383</v>
       </c>
       <c r="E112" s="283"/>
-      <c r="F112" s="311">
+      <c r="F112" s="307">
         <f>F111*D112</f>
         <v>43602.379162320489</v>
       </c>
@@ -7387,7 +7415,7 @@
     </row>
     <row r="115" spans="1:7" ht="15">
       <c r="C115" s="287" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F115" s="293"/>
       <c r="G115" s="3">
@@ -7397,39 +7425,39 @@
     </row>
     <row r="116" spans="1:7" ht="15">
       <c r="C116">
-        <v>22100</v>
+        <v>25000</v>
       </c>
       <c r="D116">
         <v>12</v>
       </c>
       <c r="F116" s="293">
         <f>D116*C116</f>
-        <v>265200</v>
+        <v>300000</v>
       </c>
       <c r="G116" s="3">
         <f>G115+F116</f>
-        <v>295900</v>
+        <v>330700</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15">
       <c r="F117" s="293"/>
       <c r="G117" s="3">
         <f>G116+F117</f>
-        <v>295900</v>
+        <v>330700</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15">
       <c r="F118" s="293"/>
       <c r="G118" s="3">
         <f t="shared" ref="G118:G120" si="5">G117+F118</f>
-        <v>295900</v>
+        <v>330700</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15">
       <c r="F119" s="293"/>
       <c r="G119" s="3">
         <f t="shared" si="5"/>
-        <v>295900</v>
+        <v>330700</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15">
@@ -7439,7 +7467,7 @@
       <c r="F120" s="291"/>
       <c r="G120" s="3">
         <f t="shared" si="5"/>
-        <v>295900</v>
+        <v>330700</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15">
@@ -7449,7 +7477,7 @@
       <c r="F121" s="291"/>
       <c r="G121" s="3">
         <f>G120-F121-E121</f>
-        <v>295900</v>
+        <v>330700</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -7467,7 +7495,7 @@
       </c>
       <c r="G122" s="3">
         <f t="shared" ref="G122:G135" si="6">G121-F122-E122</f>
-        <v>280900</v>
+        <v>315700</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -7485,7 +7513,7 @@
       </c>
       <c r="G123" s="3">
         <f t="shared" si="6"/>
-        <v>265900</v>
+        <v>300700</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -7503,7 +7531,7 @@
       </c>
       <c r="G124" s="3">
         <f t="shared" si="6"/>
-        <v>250900</v>
+        <v>285700</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -7521,7 +7549,7 @@
       </c>
       <c r="G125" s="3">
         <f t="shared" si="6"/>
-        <v>235900</v>
+        <v>270700</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -7539,7 +7567,7 @@
       </c>
       <c r="G126" s="3">
         <f t="shared" si="6"/>
-        <v>220900</v>
+        <v>255700</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -7550,14 +7578,14 @@
         <v>45687</v>
       </c>
       <c r="C127" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E127" s="302">
         <v>15000</v>
       </c>
       <c r="G127" s="3">
         <f t="shared" si="6"/>
-        <v>205900</v>
+        <v>240700</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15">
@@ -7568,12 +7596,15 @@
         <v>45716</v>
       </c>
       <c r="C128" t="s">
-        <v>432</v>
+        <v>454</v>
+      </c>
+      <c r="E128" s="302">
+        <v>15000</v>
       </c>
       <c r="F128" s="300"/>
       <c r="G128" s="3">
         <f t="shared" si="6"/>
-        <v>205900</v>
+        <v>225700</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -7588,7 +7619,7 @@
       </c>
       <c r="G129" s="3">
         <f t="shared" si="6"/>
-        <v>205900</v>
+        <v>225700</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -7601,9 +7632,12 @@
       <c r="C130" t="s">
         <v>432</v>
       </c>
+      <c r="E130" s="302">
+        <v>150000</v>
+      </c>
       <c r="G130" s="3">
         <f t="shared" si="6"/>
-        <v>205900</v>
+        <v>75700</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -7618,7 +7652,7 @@
       </c>
       <c r="G131" s="3">
         <f t="shared" si="6"/>
-        <v>205900</v>
+        <v>75700</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -7633,7 +7667,7 @@
       </c>
       <c r="G132" s="3">
         <f t="shared" si="6"/>
-        <v>205900</v>
+        <v>75700</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -7648,13 +7682,13 @@
       </c>
       <c r="G133" s="3">
         <f t="shared" si="6"/>
-        <v>205900</v>
+        <v>75700</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="G134" s="3">
         <f t="shared" si="6"/>
-        <v>205900</v>
+        <v>75700</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -7663,7 +7697,18 @@
       </c>
       <c r="G135" s="3">
         <f t="shared" si="6"/>
-        <v>205900</v>
+        <v>75700</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15">
+      <c r="E136" s="313">
+        <f>SUM(E122:E135)</f>
+        <v>255000</v>
+      </c>
+      <c r="F136" s="313"/>
+      <c r="G136" s="292">
+        <f>E136/F109</f>
+        <v>11.536373507057545</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -7672,7 +7717,7 @@
       </c>
       <c r="G137" s="278">
         <f>SUM(E8:E135)</f>
-        <v>129500</v>
+        <v>294500</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7690,22 +7735,41 @@
       </c>
       <c r="G139" s="278">
         <f>G138-G137</f>
-        <v>182291.01744203252</v>
+        <v>17291.01744203252</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="G140" s="3"/>
     </row>
     <row r="141" spans="1:7">
+      <c r="C141" t="s">
+        <v>456</v>
+      </c>
       <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="G142" s="3"/>
+      <c r="B142" s="312">
+        <v>45728</v>
+      </c>
+      <c r="C142" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="G143" s="3"/>
+      <c r="B143" s="312">
+        <v>45777</v>
+      </c>
+      <c r="C143" t="s">
+        <v>458</v>
+      </c>
+      <c r="G143" s="3">
+        <v>150000</v>
+      </c>
     </row>
     <row r="144" spans="1:7">
+      <c r="C144" t="s">
+        <v>459</v>
+      </c>
       <c r="G144" s="3"/>
     </row>
     <row r="145" spans="7:7">
@@ -8874,11 +8938,11 @@
         <v>0.71830000000000005</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:N20" si="2">O16*L17</f>
+        <f t="shared" ref="N17:N19" si="2">O16*L17</f>
         <v>21717.944160000003</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:O20" si="3">O16+N17</f>
+        <f t="shared" ref="O17:O19" si="3">O16+N17</f>
         <v>51953.144160000003</v>
       </c>
     </row>
@@ -9072,7 +9136,7 @@
       <c r="H25">
         <v>5000</v>
       </c>
-      <c r="L25" s="308"/>
+      <c r="L25" s="304"/>
     </row>
     <row r="26" spans="1:15">
       <c r="B26" s="96">
@@ -9089,7 +9153,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="308"/>
+      <c r="L26" s="304"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="78"/>
@@ -9104,7 +9168,7 @@
       </c>
       <c r="F27" s="78"/>
       <c r="G27" s="78"/>
-      <c r="L27" s="308"/>
+      <c r="L27" s="304"/>
     </row>
     <row r="28" spans="1:15">
       <c r="C28" t="s">
@@ -9114,7 +9178,7 @@
       <c r="G28" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="L28" s="308"/>
+      <c r="L28" s="304"/>
     </row>
     <row r="29" spans="1:15" ht="13.5" thickBot="1">
       <c r="C29" t="s">
@@ -9124,7 +9188,7 @@
         <v>2280</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="L29" s="309"/>
+      <c r="L29" s="305"/>
     </row>
     <row r="30" spans="1:15">
       <c r="B30" s="84" t="s">
@@ -10999,10 +11063,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="11.25" customHeight="1">
       <c r="D1" s="100"/>
-      <c r="E1" s="303">
+      <c r="E1" s="308">
         <v>45233</v>
       </c>
-      <c r="F1" s="303"/>
+      <c r="F1" s="308"/>
     </row>
     <row r="2" spans="1:6" ht="11.25" customHeight="1">
       <c r="B2" s="101" t="s">
@@ -13221,10 +13285,10 @@
     </row>
     <row r="157" spans="1:6" ht="16.7" customHeight="1">
       <c r="A157" s="108"/>
-      <c r="B157" s="304">
+      <c r="B157" s="309">
         <v>45233</v>
       </c>
-      <c r="C157" s="304"/>
+      <c r="C157" s="309"/>
       <c r="D157" s="100"/>
       <c r="E157" s="121" t="s">
         <v>268</v>
@@ -13612,10 +13676,10 @@
       </c>
       <c r="C3" s="133"/>
       <c r="D3" s="133"/>
-      <c r="E3" s="305">
+      <c r="E3" s="310">
         <v>45233</v>
       </c>
-      <c r="F3" s="305"/>
+      <c r="F3" s="310"/>
     </row>
     <row r="4" spans="1:7" ht="11.25" customHeight="1">
       <c r="B4" s="132"/>
@@ -14680,10 +14744,10 @@
       <c r="A1" s="179"/>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
-      <c r="D1" s="306">
+      <c r="D1" s="311">
         <v>45233</v>
       </c>
-      <c r="E1" s="306"/>
+      <c r="E1" s="311"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="179"/>

--- a/01-25-dgs.xlsx
+++ b/01-25-dgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47242E82-16FA-4A95-8B56-60F4517D5245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120ADE8-D976-4B84-AA38-8B9AB5AEBED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="570" windowWidth="16590" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-DgsOLD" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="461">
   <si>
     <t>Doğuş</t>
   </si>
@@ -1621,21 +1621,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Nakit  22104 TL                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Liberation Sans1"/>
-        <charset val="162"/>
-      </rPr>
-      <t>11-11-2024</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Nakit  22104 TL                        </t>
     </r>
     <r>
@@ -1813,6 +1798,24 @@
   <si>
     <t>Sennedin ödenmesiyle hesap sıfırlanacak</t>
   </si>
+  <si>
+    <t>banka</t>
+  </si>
+  <si>
+    <r>
+      <t>Nakit  22104 TL                         09</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t>-11-2024</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1838,7 +1841,7 @@
     <numFmt numFmtId="180" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="65">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2293,6 +2296,14 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -2416,7 +2427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2866,6 +2877,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2896,7 +2916,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3459,14 +3479,15 @@
     <xf numFmtId="2" fontId="63" fillId="0" borderId="40" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="180" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="64" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Accent" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5919,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6205,7 +6226,7 @@
     <row r="23" spans="1:9" ht="15">
       <c r="B23" s="295"/>
       <c r="C23" s="287" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F23" s="278">
         <f>F8</f>
@@ -6230,7 +6251,7 @@
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="C25" s="287" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F25" s="3">
         <f>F23+F24</f>
@@ -6499,7 +6520,7 @@
         <v>44772</v>
       </c>
       <c r="C42" s="287" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E42" s="302">
         <v>5000</v>
@@ -6516,7 +6537,7 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="287" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3">
@@ -6630,7 +6651,7 @@
     </row>
     <row r="57" spans="1:7" ht="15">
       <c r="C57" s="287" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="278">
@@ -6658,7 +6679,7 @@
     </row>
     <row r="59" spans="1:7" ht="15">
       <c r="C59" s="287" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="3">
@@ -6679,7 +6700,7 @@
     </row>
     <row r="61" spans="1:7" ht="15">
       <c r="C61" s="287" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F61" s="293">
         <v>60000</v>
@@ -6966,7 +6987,7 @@
     </row>
     <row r="81" spans="1:7" ht="15">
       <c r="C81" s="287" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F81" s="278">
         <f>F57+F58</f>
@@ -6993,7 +7014,7 @@
     </row>
     <row r="83" spans="1:7" ht="15">
       <c r="C83" s="287" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F83" s="3">
         <f>F81+F82</f>
@@ -7287,6 +7308,9 @@
       <c r="C102" t="s">
         <v>430</v>
       </c>
+      <c r="D102" s="314" t="s">
+        <v>459</v>
+      </c>
       <c r="E102" s="302">
         <v>15000</v>
       </c>
@@ -7359,7 +7383,7 @@
     </row>
     <row r="110" spans="1:7" ht="15">
       <c r="C110" s="287" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F110">
         <f>F116</f>
@@ -7368,7 +7392,7 @@
     </row>
     <row r="111" spans="1:7" ht="15">
       <c r="C111" s="287" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F111" s="278">
         <f>F81+F82</f>
@@ -7395,7 +7419,7 @@
     </row>
     <row r="113" spans="1:7" ht="15">
       <c r="C113" s="287" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F113" s="3">
         <f>F111+F112</f>
@@ -7415,7 +7439,7 @@
     </row>
     <row r="115" spans="1:7" ht="15">
       <c r="C115" s="287" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F115" s="293"/>
       <c r="G115" s="3">
@@ -7488,7 +7512,10 @@
         <v>45534</v>
       </c>
       <c r="C122" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="D122" s="314" t="s">
+        <v>459</v>
       </c>
       <c r="E122" s="302">
         <v>15000</v>
@@ -7506,7 +7533,10 @@
         <v>45565</v>
       </c>
       <c r="C123" t="s">
-        <v>441</v>
+        <v>440</v>
+      </c>
+      <c r="D123" s="314" t="s">
+        <v>459</v>
       </c>
       <c r="E123" s="302">
         <v>15000</v>
@@ -7524,7 +7554,10 @@
         <v>45595</v>
       </c>
       <c r="C124" t="s">
-        <v>440</v>
+        <v>460</v>
+      </c>
+      <c r="D124" s="314" t="s">
+        <v>459</v>
       </c>
       <c r="E124" s="302">
         <v>15000</v>
@@ -7544,6 +7577,9 @@
       <c r="C125" t="s">
         <v>439</v>
       </c>
+      <c r="D125" s="314" t="s">
+        <v>459</v>
+      </c>
       <c r="E125" s="302">
         <v>15000</v>
       </c>
@@ -7560,7 +7596,7 @@
         <v>45656</v>
       </c>
       <c r="C126" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E126" s="302">
         <v>15000</v>
@@ -7578,7 +7614,7 @@
         <v>45687</v>
       </c>
       <c r="C127" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E127" s="302">
         <v>15000</v>
@@ -7596,7 +7632,7 @@
         <v>45716</v>
       </c>
       <c r="C128" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E128" s="302">
         <v>15000</v>
@@ -7701,11 +7737,11 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="15">
-      <c r="E136" s="313">
+      <c r="E136" s="309">
         <f>SUM(E122:E135)</f>
         <v>255000</v>
       </c>
-      <c r="F136" s="313"/>
+      <c r="F136" s="309"/>
       <c r="G136" s="292">
         <f>E136/F109</f>
         <v>11.536373507057545</v>
@@ -7713,7 +7749,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="C137" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G137" s="278">
         <f>SUM(E8:E135)</f>
@@ -7722,7 +7758,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="C138" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G138" s="278">
         <f>SUM(F8)+F25+F59+F83+F113</f>
@@ -7731,7 +7767,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="C139" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G139" s="278">
         <f>G138-G137</f>
@@ -7743,24 +7779,24 @@
     </row>
     <row r="141" spans="1:7">
       <c r="C141" t="s">
+        <v>455</v>
+      </c>
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="B142" s="308">
+        <v>45728</v>
+      </c>
+      <c r="C142" t="s">
         <v>456</v>
       </c>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="B142" s="312">
-        <v>45728</v>
-      </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="143" spans="1:7">
+      <c r="B143" s="308">
+        <v>45777</v>
+      </c>
+      <c r="C143" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="B143" s="312">
-        <v>45777</v>
-      </c>
-      <c r="C143" t="s">
-        <v>458</v>
       </c>
       <c r="G143" s="3">
         <v>150000</v>
@@ -7768,7 +7804,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="C144" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G144" s="3"/>
     </row>
@@ -11063,10 +11099,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="11.25" customHeight="1">
       <c r="D1" s="100"/>
-      <c r="E1" s="308">
+      <c r="E1" s="310">
         <v>45233</v>
       </c>
-      <c r="F1" s="308"/>
+      <c r="F1" s="310"/>
     </row>
     <row r="2" spans="1:6" ht="11.25" customHeight="1">
       <c r="B2" s="101" t="s">
@@ -13285,10 +13321,10 @@
     </row>
     <row r="157" spans="1:6" ht="16.7" customHeight="1">
       <c r="A157" s="108"/>
-      <c r="B157" s="309">
+      <c r="B157" s="311">
         <v>45233</v>
       </c>
-      <c r="C157" s="309"/>
+      <c r="C157" s="311"/>
       <c r="D157" s="100"/>
       <c r="E157" s="121" t="s">
         <v>268</v>
@@ -13676,10 +13712,10 @@
       </c>
       <c r="C3" s="133"/>
       <c r="D3" s="133"/>
-      <c r="E3" s="310">
+      <c r="E3" s="312">
         <v>45233</v>
       </c>
-      <c r="F3" s="310"/>
+      <c r="F3" s="312"/>
     </row>
     <row r="4" spans="1:7" ht="11.25" customHeight="1">
       <c r="B4" s="132"/>
@@ -14744,10 +14780,10 @@
       <c r="A1" s="179"/>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
-      <c r="D1" s="311">
+      <c r="D1" s="313">
         <v>45233</v>
       </c>
-      <c r="E1" s="311"/>
+      <c r="E1" s="313"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="179"/>

--- a/01-25-dgs.xlsx
+++ b/01-25-dgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120ADE8-D976-4B84-AA38-8B9AB5AEBED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDB88AC-0807-4CB8-A281-4F6FF8773285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="570" windowWidth="16590" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9990" yWindow="1125" windowWidth="16590" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-DgsOLD" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="465">
   <si>
     <t>Doğuş</t>
   </si>
@@ -1816,6 +1816,29 @@
       <t>-11-2024</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">senet sözleşme taahhüt  imzalanmadı </t>
+  </si>
+  <si>
+    <t>boşaltacağını söyledi</t>
+  </si>
+  <si>
+    <t>toplam banka ödemesi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nakit  22104 TL                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve"> 07-02-2025</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1841,7 +1864,7 @@
     <numFmt numFmtId="180" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="66">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2304,8 +2327,14 @@
       <name val="Liberation Sans1"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2423,6 +2452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2916,7 +2951,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3481,13 +3516,14 @@
     <xf numFmtId="180" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="64" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="64" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Accent" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5940,8 +5976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6253,7 +6289,7 @@
       <c r="C25" s="287" t="s">
         <v>443</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="315">
         <f>F23+F24</f>
         <v>30235.200000000001</v>
       </c>
@@ -6682,7 +6718,7 @@
         <v>443</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="3">
+      <c r="F59" s="315">
         <f>F57+F58</f>
         <v>51953.144160000003</v>
       </c>
@@ -7016,7 +7052,7 @@
       <c r="C83" s="287" t="s">
         <v>443</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="315">
         <f>F81+F82</f>
         <v>81000.147059856012</v>
       </c>
@@ -7308,7 +7344,7 @@
       <c r="C102" t="s">
         <v>430</v>
       </c>
-      <c r="D102" s="314" t="s">
+      <c r="D102" s="310" t="s">
         <v>459</v>
       </c>
       <c r="E102" s="302">
@@ -7421,7 +7457,7 @@
       <c r="C113" s="287" t="s">
         <v>443</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="315">
         <f>F111+F112</f>
         <v>124602.5262221765</v>
       </c>
@@ -7514,7 +7550,7 @@
       <c r="C122" t="s">
         <v>441</v>
       </c>
-      <c r="D122" s="314" t="s">
+      <c r="D122" s="310" t="s">
         <v>459</v>
       </c>
       <c r="E122" s="302">
@@ -7535,7 +7571,7 @@
       <c r="C123" t="s">
         <v>440</v>
       </c>
-      <c r="D123" s="314" t="s">
+      <c r="D123" s="310" t="s">
         <v>459</v>
       </c>
       <c r="E123" s="302">
@@ -7556,7 +7592,7 @@
       <c r="C124" t="s">
         <v>460</v>
       </c>
-      <c r="D124" s="314" t="s">
+      <c r="D124" s="310" t="s">
         <v>459</v>
       </c>
       <c r="E124" s="302">
@@ -7577,7 +7613,7 @@
       <c r="C125" t="s">
         <v>439</v>
       </c>
-      <c r="D125" s="314" t="s">
+      <c r="D125" s="310" t="s">
         <v>459</v>
       </c>
       <c r="E125" s="302">
@@ -7651,11 +7687,14 @@
         <v>45746</v>
       </c>
       <c r="C129" t="s">
-        <v>432</v>
+        <v>464</v>
+      </c>
+      <c r="E129" s="302">
+        <v>15000</v>
       </c>
       <c r="G129" s="3">
         <f t="shared" si="6"/>
-        <v>225700</v>
+        <v>210700</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -7668,12 +7707,10 @@
       <c r="C130" t="s">
         <v>432</v>
       </c>
-      <c r="E130" s="302">
-        <v>150000</v>
-      </c>
+      <c r="E130" s="302"/>
       <c r="G130" s="3">
         <f t="shared" si="6"/>
-        <v>75700</v>
+        <v>210700</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -7688,7 +7725,7 @@
       </c>
       <c r="G131" s="3">
         <f t="shared" si="6"/>
-        <v>75700</v>
+        <v>210700</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -7703,7 +7740,7 @@
       </c>
       <c r="G132" s="3">
         <f t="shared" si="6"/>
-        <v>75700</v>
+        <v>210700</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -7718,13 +7755,13 @@
       </c>
       <c r="G133" s="3">
         <f t="shared" si="6"/>
-        <v>75700</v>
+        <v>210700</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="G134" s="3">
         <f t="shared" si="6"/>
-        <v>75700</v>
+        <v>210700</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -7733,18 +7770,21 @@
       </c>
       <c r="G135" s="3">
         <f t="shared" si="6"/>
-        <v>75700</v>
+        <v>210700</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15">
+      <c r="D136" s="83" t="s">
+        <v>463</v>
+      </c>
       <c r="E136" s="309">
         <f>SUM(E122:E135)</f>
-        <v>255000</v>
+        <v>120000</v>
       </c>
       <c r="F136" s="309"/>
       <c r="G136" s="292">
         <f>E136/F109</f>
-        <v>11.536373507057545</v>
+        <v>5.4288816503800215</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -7753,7 +7793,7 @@
       </c>
       <c r="G137" s="278">
         <f>SUM(E8:E135)</f>
-        <v>294500</v>
+        <v>159500</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7771,7 +7811,7 @@
       </c>
       <c r="G139" s="278">
         <f>G138-G137</f>
-        <v>17291.01744203252</v>
+        <v>152291.01744203252</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -7808,13 +7848,22 @@
       </c>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="7:7">
+    <row r="145" spans="2:7">
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="7:7">
+    <row r="146" spans="2:7">
+      <c r="B146" s="308">
+        <v>45740</v>
+      </c>
+      <c r="C146" t="s">
+        <v>461</v>
+      </c>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="7:7">
+    <row r="147" spans="2:7">
+      <c r="C147" t="s">
+        <v>462</v>
+      </c>
       <c r="G147" s="3"/>
     </row>
   </sheetData>
@@ -11099,10 +11148,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="11.25" customHeight="1">
       <c r="D1" s="100"/>
-      <c r="E1" s="310">
+      <c r="E1" s="311">
         <v>45233</v>
       </c>
-      <c r="F1" s="310"/>
+      <c r="F1" s="311"/>
     </row>
     <row r="2" spans="1:6" ht="11.25" customHeight="1">
       <c r="B2" s="101" t="s">
@@ -13321,10 +13370,10 @@
     </row>
     <row r="157" spans="1:6" ht="16.7" customHeight="1">
       <c r="A157" s="108"/>
-      <c r="B157" s="311">
+      <c r="B157" s="312">
         <v>45233</v>
       </c>
-      <c r="C157" s="311"/>
+      <c r="C157" s="312"/>
       <c r="D157" s="100"/>
       <c r="E157" s="121" t="s">
         <v>268</v>
@@ -13712,10 +13761,10 @@
       </c>
       <c r="C3" s="133"/>
       <c r="D3" s="133"/>
-      <c r="E3" s="312">
+      <c r="E3" s="313">
         <v>45233</v>
       </c>
-      <c r="F3" s="312"/>
+      <c r="F3" s="313"/>
     </row>
     <row r="4" spans="1:7" ht="11.25" customHeight="1">
       <c r="B4" s="132"/>
@@ -14780,10 +14829,10 @@
       <c r="A1" s="179"/>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
-      <c r="D1" s="313">
+      <c r="D1" s="314">
         <v>45233</v>
       </c>
-      <c r="E1" s="313"/>
+      <c r="E1" s="314"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="179"/>

--- a/01-25-dgs.xlsx
+++ b/01-25-dgs.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDB88AC-0807-4CB8-A281-4F6FF8773285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97BA3D3-2047-48AD-BF4E-90B668395EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1125" windowWidth="16590" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="01-DgsOLD" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-Dgs Adem Son (2)" sheetId="10" r:id="rId1"/>
     <sheet name="2025-Dgs" sheetId="9" r:id="rId2"/>
-    <sheet name="DGS_31-05-24" sheetId="2" r:id="rId3"/>
-    <sheet name="2024" sheetId="3" r:id="rId4"/>
-    <sheet name="02--_Tzgmrg" sheetId="4" r:id="rId5"/>
-    <sheet name="01-03-HAKAN" sheetId="5" r:id="rId6"/>
-    <sheet name="01-01-DGS" sheetId="6" r:id="rId7"/>
-    <sheet name="01-02-DGS" sheetId="7" r:id="rId8"/>
-    <sheet name="1203-YZD" sheetId="8" r:id="rId9"/>
+    <sheet name="01-DgsOLD" sheetId="1" r:id="rId3"/>
+    <sheet name="DGS_31-05-24" sheetId="2" r:id="rId4"/>
+    <sheet name="2024" sheetId="3" r:id="rId5"/>
+    <sheet name="02--_Tzgmrg" sheetId="4" r:id="rId6"/>
+    <sheet name="01-03-HAKAN" sheetId="5" r:id="rId7"/>
+    <sheet name="01-01-DGS" sheetId="6" r:id="rId8"/>
+    <sheet name="01-02-DGS" sheetId="7" r:id="rId9"/>
+    <sheet name="1203-YZD" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="505">
   <si>
     <t>Doğuş</t>
   </si>
@@ -1602,31 +1603,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Liberation Sans1"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Liberation Sans1"/>
-        <charset val="162"/>
-      </rPr>
-      <t>11-12-2024</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nakit  22104 TL                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Liberation Sans1"/>
         <charset val="162"/>
@@ -1647,21 +1623,6 @@
         <charset val="162"/>
       </rPr>
       <t xml:space="preserve"> 09-09-2024</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nakit  22104 TL                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Liberation Sans1"/>
-        <charset val="162"/>
-      </rPr>
-      <t>14-01-2025</t>
     </r>
   </si>
   <si>
@@ -1738,21 +1699,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Nakit  22104 TL                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Liberation Sans1"/>
-        <charset val="162"/>
-      </rPr>
-      <t>17-02-2025</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">DÖNEM 5 Hesabı         </t>
     </r>
     <r>
@@ -1769,21 +1715,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Nakit  22104 TL                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Liberation Sans1"/>
-        <charset val="162"/>
-      </rPr>
-      <t>07-02-2025</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">28-02-2025 28-02-2026 DÖNEMİ </t>
   </si>
   <si>
@@ -1826,25 +1757,204 @@
     <t>toplam banka ödemesi</t>
   </si>
   <si>
+    <t>son ödeme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakit  22104 TL                    </t>
+  </si>
+  <si>
+    <t>anahtarı teslim etti 2 adet</t>
+  </si>
+  <si>
+    <t>1 anahtarı vermedi</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Nakit  22104 TL                        </t>
+      <t xml:space="preserve">Nakit  22104 TL  elden alınan    </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Liberation Sans1"/>
         <charset val="162"/>
       </rPr>
-      <t xml:space="preserve"> 07-02-2025</t>
+      <t>14-01-2025</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nakit  22104 TL  elden alınan    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t>17-02-2025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nakit  22104 TL  elden alınan    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t>05-03-2025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nakit  22104 TL kira bedeli      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Liberation Sans1"/>
+        <charset val="162"/>
+      </rPr>
+      <t>11-12-2024</t>
+    </r>
+  </si>
+  <si>
+    <t>bankaya yatış trh</t>
+  </si>
+  <si>
+    <t>altın</t>
+  </si>
+  <si>
+    <t>gr altın</t>
+  </si>
+  <si>
+    <t>6 aylık kapanış</t>
+  </si>
+  <si>
+    <t>toplam alınan</t>
+  </si>
+  <si>
+    <t>aylık kira  ortalama gram altın</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> en düşük</t>
+  </si>
+  <si>
+    <t>doğuş temmuz kira bedeli</t>
+  </si>
+  <si>
+    <t>ilk kiraya göre</t>
+  </si>
+  <si>
+    <t>sonraki 6 ay tahmini (+ enflasyon</t>
+  </si>
+  <si>
+    <t>tahmini enflasyon / 2</t>
+  </si>
+  <si>
+    <t>en yüksek</t>
+  </si>
+  <si>
+    <t>HESAP SIFIRLAMA</t>
+  </si>
+  <si>
+    <t>aylık ta noksan ödeme 15000-6500=8500</t>
+  </si>
+  <si>
+    <t>yıllık tüfe</t>
+  </si>
+  <si>
+    <t>5. dönem için toplam ödeme</t>
+  </si>
+  <si>
+    <t>mart nisan mayıs bedeli  3*15000</t>
+  </si>
+  <si>
+    <t>elektrik</t>
+  </si>
+  <si>
+    <t>ferhat duvar tamiri</t>
+  </si>
+  <si>
+    <t>mart 2025 kira bedeli ödemesi</t>
+  </si>
+  <si>
+    <t>nisan 2025 ödemesi</t>
+  </si>
+  <si>
+    <t>mayıs 2025  ödemesi</t>
+  </si>
+  <si>
+    <t>haziran 2025 ödemesi</t>
+  </si>
+  <si>
+    <t>temmuz 2025 ödemesi</t>
+  </si>
+  <si>
+    <t>ağustos 2025 ödemesi</t>
+  </si>
+  <si>
+    <t>mart bedeli</t>
+  </si>
+  <si>
+    <t>nisan bedeli</t>
+  </si>
+  <si>
+    <t>mayıs bedeli</t>
+  </si>
+  <si>
+    <t>haziran 2025 iade</t>
+  </si>
+  <si>
+    <t>eylül 2025 ödemesi</t>
+  </si>
+  <si>
+    <t>elektrik gecikme</t>
+  </si>
+  <si>
+    <t>noksan ödeme gecikme</t>
+  </si>
+  <si>
+    <t>mart 9 günlük gecikme</t>
+  </si>
+  <si>
+    <t>nisan 9 günlük gecikme</t>
+  </si>
+  <si>
+    <t>mayıs  9 günlük gecikme</t>
+  </si>
+  <si>
+    <t>nisan 14 günlük gecikme</t>
+  </si>
+  <si>
+    <t>ağustos 17  günlük gecikme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="18">
+  <numFmts count="24">
     <numFmt numFmtId="164" formatCode="&quot;-&quot;#,##0.00;[Red]&quot;-&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="d&quot;.&quot;mm&quot;.&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
@@ -1863,8 +1973,14 @@
     <numFmt numFmtId="179" formatCode="0.0000%"/>
     <numFmt numFmtId="180" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="183" formatCode="#,##0.00\ &quot;Tl/gr&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0\ &quot;Tl/gr&quot;"/>
+    <numFmt numFmtId="186" formatCode="#,##0.000\ &quot;Gr/ay&quot;"/>
+    <numFmt numFmtId="188" formatCode="#,##0\ &quot;Dönem&quot;"/>
+    <numFmt numFmtId="190" formatCode="#,##0\ &quot;TL/ay&quot;"/>
+    <numFmt numFmtId="192" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="68">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2328,13 +2444,33 @@
       <charset val="162"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Liberation Sans1"/>
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2461,8 +2597,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -2921,6 +3069,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2951,7 +3240,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3517,13 +3806,75 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="64" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="186" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="55" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="56" fillId="20" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="192" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Accent" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3861,11 +4212,3137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44515376-190E-446B-B19E-14E8B629D485}">
+  <dimension ref="B2:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="354" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="317" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="278" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18">
+      <c r="B2" s="355">
+        <v>45831</v>
+      </c>
+      <c r="C2" s="353"/>
+      <c r="D2" s="356" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="354">
+        <v>45350</v>
+      </c>
+      <c r="D3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H3" s="3">
+        <f>H2+F3-G3</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="354">
+        <v>45544</v>
+      </c>
+      <c r="D4" t="s">
+        <v>487</v>
+      </c>
+      <c r="G4" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H19" si="0">H3+F4-G4</f>
+        <v>-6500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="354">
+        <v>45544</v>
+      </c>
+      <c r="D5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="296">
+        <f>50/365*(B4-B3)%</f>
+        <v>0.26575342465753421</v>
+      </c>
+      <c r="F5" s="3">
+        <f>F3*E5</f>
+        <v>2258.9041095890407</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>-4241.0958904109593</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="354">
+        <v>45909</v>
+      </c>
+      <c r="D6" t="s">
+        <v>500</v>
+      </c>
+      <c r="E6" s="296">
+        <f>50/365*9%</f>
+        <v>1.2328767123287671E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <f>G4*E6</f>
+        <v>184.93150684931507</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>-4056.1643835616442</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="354">
+        <v>45574</v>
+      </c>
+      <c r="D7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>-19056.164383561645</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="354">
+        <v>45909</v>
+      </c>
+      <c r="D8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E8" s="296">
+        <f>50/365*9%</f>
+        <v>1.2328767123287671E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <f>G7*E8</f>
+        <v>184.93150684931507</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>-18871.232876712329</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="354">
+        <v>45605</v>
+      </c>
+      <c r="D9" t="s">
+        <v>489</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>-33871.232876712325</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="354">
+        <v>45606</v>
+      </c>
+      <c r="D10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E10" s="296">
+        <f>50/365*9%</f>
+        <v>1.2328767123287671E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f>G9*E10</f>
+        <v>184.93150684931507</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>-33686.301369863009</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="354">
+        <v>45637</v>
+      </c>
+      <c r="D11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G11" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>-48686.301369863009</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="354">
+        <v>45638</v>
+      </c>
+      <c r="D12" t="s">
+        <v>501</v>
+      </c>
+      <c r="E12" s="296">
+        <f>50/365*12%</f>
+        <v>1.643835616438356E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <f>G11*E12</f>
+        <v>246.57534246575341</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>-48439.726027397257</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="354">
+        <v>45671</v>
+      </c>
+      <c r="D13" t="s">
+        <v>491</v>
+      </c>
+      <c r="G13" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>-63439.726027397257</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="354">
+        <v>45672</v>
+      </c>
+      <c r="D14" t="s">
+        <v>503</v>
+      </c>
+      <c r="E14" s="296">
+        <f>50/365*14%</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <f>G13*E14</f>
+        <v>287.67123287671234</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>-63152.054794520547</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="354">
+        <v>45705</v>
+      </c>
+      <c r="D15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E15" s="296"/>
+      <c r="G15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>-78152.054794520547</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="354">
+        <v>45706</v>
+      </c>
+      <c r="D16" t="s">
+        <v>504</v>
+      </c>
+      <c r="E16" s="296">
+        <f>50/365*17%</f>
+        <v>2.3287671232876714E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <f>G15*E16</f>
+        <v>349.3150684931507</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>-77802.739726027401</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="354">
+        <v>45716</v>
+      </c>
+      <c r="D17" t="s">
+        <v>493</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>-62802.739726027401</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="354">
+        <v>45721</v>
+      </c>
+      <c r="D18" t="s">
+        <v>497</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>-77802.739726027401</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="354">
+        <v>45722</v>
+      </c>
+      <c r="D19" t="s">
+        <v>485</v>
+      </c>
+      <c r="F19" s="3">
+        <v>455</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>-77347.739726027401</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="354">
+        <v>45746</v>
+      </c>
+      <c r="D20" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" ref="H20:H31" si="1">H19+F20-G20</f>
+        <v>-62347.739726027401</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="354">
+        <v>45750</v>
+      </c>
+      <c r="D21" t="s">
+        <v>485</v>
+      </c>
+      <c r="F21" s="3">
+        <v>315</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>-62032.739726027401</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="354">
+        <v>45777</v>
+      </c>
+      <c r="D22" t="s">
+        <v>495</v>
+      </c>
+      <c r="F22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>-47032.739726027401</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="354">
+        <v>45782</v>
+      </c>
+      <c r="D23" t="s">
+        <v>485</v>
+      </c>
+      <c r="F23" s="3">
+        <v>495</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>-46537.739726027401</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="354">
+        <v>45818</v>
+      </c>
+      <c r="D24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F24" s="3">
+        <v>435</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>-46102.739726027401</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="360">
+        <v>45833</v>
+      </c>
+      <c r="C25" s="361"/>
+      <c r="D25" s="283" t="s">
+        <v>485</v>
+      </c>
+      <c r="E25" s="283"/>
+      <c r="F25" s="281">
+        <v>25</v>
+      </c>
+      <c r="G25" s="281"/>
+      <c r="H25" s="281">
+        <f t="shared" si="1"/>
+        <v>-46077.739726027401</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="D26" s="357" t="s">
+        <v>498</v>
+      </c>
+      <c r="E26" s="357"/>
+      <c r="F26" s="358">
+        <v>300</v>
+      </c>
+      <c r="G26" s="359"/>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>-45777.739726027401</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="D27" s="357"/>
+      <c r="E27" s="357"/>
+      <c r="F27" s="359"/>
+      <c r="G27" s="359"/>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>-45777.739726027401</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="D28" s="357"/>
+      <c r="E28" s="357"/>
+      <c r="F28" s="359"/>
+      <c r="G28" s="359"/>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>-45777.739726027401</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="D29" s="357" t="s">
+        <v>486</v>
+      </c>
+      <c r="E29" s="357"/>
+      <c r="F29" s="358">
+        <v>5000</v>
+      </c>
+      <c r="G29" s="359"/>
+      <c r="H29" s="359">
+        <f t="shared" si="1"/>
+        <v>-40777.739726027401</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="D30" s="357"/>
+      <c r="E30" s="357"/>
+      <c r="F30" s="359"/>
+      <c r="G30" s="359"/>
+      <c r="H30" s="359">
+        <f t="shared" si="1"/>
+        <v>-40777.739726027401</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="354">
+        <v>45838</v>
+      </c>
+      <c r="D31" s="357" t="s">
+        <v>496</v>
+      </c>
+      <c r="E31" s="357"/>
+      <c r="F31" s="358">
+        <v>40000</v>
+      </c>
+      <c r="G31" s="359"/>
+      <c r="H31" s="359">
+        <f t="shared" si="1"/>
+        <v>-777.73972602740105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="232"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="134">
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" thickBot="1">
+      <c r="C3" s="234"/>
+      <c r="D3" s="235" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="236">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickTop="1" thickBot="1">
+      <c r="B4" s="237"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="239" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="240" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickTop="1" thickBot="1">
+      <c r="C5" s="235"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+    </row>
+    <row r="6" spans="1:5" ht="18">
+      <c r="B6" s="211"/>
+      <c r="C6" s="242" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="243">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="244">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" thickBot="1">
+      <c r="B7" s="206"/>
+      <c r="C7" s="245" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="246">
+        <f>E3*0.5</f>
+        <v>225000</v>
+      </c>
+      <c r="E7" s="247">
+        <f>E3*0.5</f>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="C8" s="235"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="B9" s="249"/>
+      <c r="C9" s="250" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" s="251">
+        <f>'01-02-DGS'!E33</f>
+        <v>-126562.54329979846</v>
+      </c>
+      <c r="E9" s="252">
+        <f>D9*-1</f>
+        <v>126562.54329979846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
+      <c r="C10" s="253"/>
+      <c r="D10" s="254" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="254" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="B11" s="211"/>
+      <c r="C11" s="242" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="255">
+        <f>SUM(D7:D9)</f>
+        <v>98437.456700201539</v>
+      </c>
+      <c r="E11" s="256">
+        <f>SUM(E7:E9)</f>
+        <v>351562.54329979845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" thickBot="1">
+      <c r="B12" s="206"/>
+      <c r="C12" s="257" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" s="258">
+        <f>D11/E3</f>
+        <v>0.21874990377822565</v>
+      </c>
+      <c r="E12" s="259">
+        <f>E11/E3</f>
+        <v>0.78125009622177433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="61.5" thickBot="1">
+      <c r="B13" s="260"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="253" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" s="254" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="B14" s="211"/>
+      <c r="C14" s="262" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="255">
+        <v>7485.3</v>
+      </c>
+      <c r="E14" s="256">
+        <f>D14*-1</f>
+        <v>-7485.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" thickBot="1">
+      <c r="B15" s="206"/>
+      <c r="C15" s="263" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" s="258">
+        <f>D18-D12</f>
+        <v>1.663400000000001E-2</v>
+      </c>
+      <c r="E15" s="264">
+        <f>E18-E12</f>
+        <v>-1.6633999999999927E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="123.75" customHeight="1" thickBot="1">
+      <c r="B16" s="260"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="254" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" s="254" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18">
+      <c r="B17" s="265"/>
+      <c r="C17" s="235" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="266">
+        <f>D11+D14</f>
+        <v>105922.75670020154</v>
+      </c>
+      <c r="E17" s="267">
+        <f>E11+E14</f>
+        <v>344077.24329979846</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18">
+      <c r="B18" s="268"/>
+      <c r="C18" s="269" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" s="270">
+        <f>D17/E3</f>
+        <v>0.23538390377822566</v>
+      </c>
+      <c r="E18" s="271">
+        <f>E17/E3</f>
+        <v>0.7646160962217744</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="13.5" thickBot="1"/>
+    <row r="20" spans="2:5" ht="23.25">
+      <c r="B20" s="272" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="273"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="213"/>
+    </row>
+    <row r="21" spans="2:5" ht="24" thickBot="1">
+      <c r="B21" s="274" t="s">
+        <v>384</v>
+      </c>
+      <c r="C21" s="275"/>
+      <c r="D21" s="276">
+        <f>D18</f>
+        <v>0.23538390377822566</v>
+      </c>
+      <c r="E21" s="277">
+        <f>E18</f>
+        <v>0.7646160962217744</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;Z&amp;F   -   &amp;F   -   &amp;A</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J187"/>
+  <sheetViews>
+    <sheetView topLeftCell="A117" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="317" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="278" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="D1" s="301">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="B2" s="287" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="318"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" thickBot="1">
+      <c r="D3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="21">
+      <c r="D4" s="288" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="322" t="s">
+        <v>469</v>
+      </c>
+      <c r="H4" s="289">
+        <f>G6/12</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="D5" s="290" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" s="323">
+        <v>45658</v>
+      </c>
+      <c r="F5" s="290"/>
+      <c r="G5" s="291">
+        <v>2324</v>
+      </c>
+      <c r="H5" s="292">
+        <f>G8/G5</f>
+        <v>10.327022375215146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="D6" s="287" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" s="324">
+        <v>45839</v>
+      </c>
+      <c r="G6" s="294">
+        <f>G8</f>
+        <v>24000</v>
+      </c>
+      <c r="H6" s="294"/>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="E7" s="325" t="s">
+        <v>470</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G7" s="293" t="s">
+        <v>398</v>
+      </c>
+      <c r="H7" s="294" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" thickBot="1">
+      <c r="B8" s="295"/>
+      <c r="C8" s="319"/>
+      <c r="D8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="326" t="s">
+        <v>471</v>
+      </c>
+      <c r="G8" s="3">
+        <v>24000</v>
+      </c>
+      <c r="H8" s="3">
+        <f>G8</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="295"/>
+      <c r="C9" s="319"/>
+      <c r="E9" s="320">
+        <v>495</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <f>H8-G9-F9</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="13">
+        <v>44250</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="321">
+        <f>G10/E9</f>
+        <v>4.0404040404040407</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="3">
+        <f>H9-G10-F10</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>44285</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ref="H11:H18" si="0">H10-G11-F11</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13">
+        <v>44316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13">
+        <v>44346</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13">
+        <v>44377</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="13">
+        <v>44407</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="13">
+        <v>44788</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="B17" s="13"/>
+      <c r="D17" s="287" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="13"/>
+      <c r="D18" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="13"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="21">
+      <c r="D20" s="288" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="289">
+        <f>G29/12</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="D21" s="290" t="s">
+        <v>403</v>
+      </c>
+      <c r="E21" s="290"/>
+      <c r="F21" s="290"/>
+      <c r="G21" s="291">
+        <v>2825</v>
+      </c>
+      <c r="H21" s="292">
+        <f>G29/G21</f>
+        <v>12.743362831858407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="B22" s="295"/>
+      <c r="C22" s="319"/>
+      <c r="D22" s="287" t="s">
+        <v>404</v>
+      </c>
+      <c r="G22">
+        <f>G29</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="B23" s="295"/>
+      <c r="C23" s="319"/>
+      <c r="D23" s="287" t="s">
+        <v>442</v>
+      </c>
+      <c r="G23" s="278">
+        <f>G8</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15">
+      <c r="B24" s="295">
+        <v>44407</v>
+      </c>
+      <c r="C24" s="319"/>
+      <c r="D24" s="303" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="306">
+        <v>0.25979999999999998</v>
+      </c>
+      <c r="F24" s="283"/>
+      <c r="G24" s="307">
+        <f>G23*E24</f>
+        <v>6235.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15">
+      <c r="D25" s="287" t="s">
+        <v>441</v>
+      </c>
+      <c r="G25" s="311">
+        <f>G23+G24</f>
+        <v>30235.200000000001</v>
+      </c>
+      <c r="J25" s="296"/>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="B26" s="295"/>
+      <c r="C26" s="319"/>
+      <c r="F26" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="293" t="s">
+        <v>398</v>
+      </c>
+      <c r="H26" s="294" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="B27" s="295"/>
+      <c r="C27" s="319"/>
+      <c r="F27" s="296"/>
+      <c r="G27" s="293"/>
+      <c r="H27" s="3">
+        <f>G27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="B28" s="295"/>
+      <c r="C28" s="319"/>
+      <c r="E28" s="296"/>
+      <c r="F28" s="296"/>
+      <c r="G28" s="293"/>
+      <c r="H28" s="3">
+        <f>H27+G28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="B29" s="295"/>
+      <c r="C29" s="319"/>
+      <c r="D29" t="s">
+        <v>405</v>
+      </c>
+      <c r="G29" s="293">
+        <v>36000</v>
+      </c>
+      <c r="H29" s="3">
+        <f>H28+G29</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="B30" s="295"/>
+      <c r="C30" s="319"/>
+      <c r="E30" s="320">
+        <v>783</v>
+      </c>
+      <c r="G30" s="293"/>
+      <c r="H30" s="3">
+        <f>H29-G30-F30</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="13">
+        <v>44438</v>
+      </c>
+      <c r="D31" t="s">
+        <v>406</v>
+      </c>
+      <c r="E31" s="321">
+        <f>G32/E30</f>
+        <v>2.554278416347382</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" ref="H31:H47" si="1">H30-G31-F31</f>
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="13">
+        <v>44469</v>
+      </c>
+      <c r="D32" t="s">
+        <v>406</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="13">
+        <v>44499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>406</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="13">
+        <v>44530</v>
+      </c>
+      <c r="D34" t="s">
+        <v>406</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="1"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="13">
+        <v>44560</v>
+      </c>
+      <c r="D35" t="s">
+        <v>406</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="1"/>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" s="13">
+        <v>44591</v>
+      </c>
+      <c r="D36" t="s">
+        <v>406</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="13"/>
+      <c r="E37" s="320">
+        <v>968</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" s="13">
+        <v>44620</v>
+      </c>
+      <c r="D38" t="s">
+        <v>407</v>
+      </c>
+      <c r="E38" s="321">
+        <f>G38/E37</f>
+        <v>3.0991735537190084</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H38" s="3">
+        <f>H36-G38-F38</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" s="13">
+        <v>44650</v>
+      </c>
+      <c r="D39" t="s">
+        <v>408</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" s="13">
+        <v>44681</v>
+      </c>
+      <c r="D40" s="287" t="s">
+        <v>409</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" s="13">
+        <v>44711</v>
+      </c>
+      <c r="D41" s="287" t="s">
+        <v>410</v>
+      </c>
+      <c r="E41" s="297"/>
+      <c r="F41" s="297"/>
+      <c r="G41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42" s="13">
+        <v>44742</v>
+      </c>
+      <c r="D42" s="287" t="s">
+        <v>411</v>
+      </c>
+      <c r="F42" s="302">
+        <v>4000</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" s="13">
+        <v>44772</v>
+      </c>
+      <c r="D43" s="287" t="s">
+        <v>447</v>
+      </c>
+      <c r="F43" s="302">
+        <v>5000</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="D44" s="287" t="s">
+        <v>446</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="D45" s="287" t="s">
+        <v>412</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="13"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" s="13"/>
+      <c r="D47" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="13"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" s="13"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" s="13"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" s="13"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" s="13"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="13"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" s="13"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="21">
+      <c r="D55" s="288" t="s">
+        <v>413</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="289">
+        <f>G57/12</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15">
+      <c r="D56" s="290" t="s">
+        <v>403</v>
+      </c>
+      <c r="E56" s="290"/>
+      <c r="F56" s="290"/>
+      <c r="G56" s="291">
+        <v>4253</v>
+      </c>
+      <c r="H56" s="292">
+        <f>G62/G56</f>
+        <v>14.107688690336234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15">
+      <c r="D57" s="287" t="s">
+        <v>414</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57">
+        <f>G62</f>
+        <v>60000</v>
+      </c>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="15">
+      <c r="D58" s="287" t="s">
+        <v>442</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="278">
+        <f>G23+G24</f>
+        <v>30235.200000000001</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="15">
+      <c r="B59" s="295">
+        <v>44772</v>
+      </c>
+      <c r="C59" s="319"/>
+      <c r="D59" s="303" t="s">
+        <v>436</v>
+      </c>
+      <c r="E59" s="306">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="F59" s="283"/>
+      <c r="G59" s="307">
+        <f>G58*E59</f>
+        <v>21717.944160000003</v>
+      </c>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="15">
+      <c r="D60" s="287" t="s">
+        <v>441</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="311">
+        <f>G58+G59</f>
+        <v>51953.144160000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15">
+      <c r="F61" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G61" s="293" t="s">
+        <v>398</v>
+      </c>
+      <c r="H61" s="294" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15">
+      <c r="D62" s="287" t="s">
+        <v>448</v>
+      </c>
+      <c r="G62" s="293">
+        <v>60000</v>
+      </c>
+      <c r="H62" s="3">
+        <f>G62</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15">
+      <c r="D63" s="287"/>
+      <c r="E63" s="320">
+        <v>1095</v>
+      </c>
+      <c r="G63" s="293"/>
+      <c r="H63" s="3">
+        <f>H62-G63-F63</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" s="13">
+        <v>44803</v>
+      </c>
+      <c r="D64" t="s">
+        <v>408</v>
+      </c>
+      <c r="E64" s="321">
+        <f>G64/E63</f>
+        <v>2.7397260273972601</v>
+      </c>
+      <c r="G64">
+        <v>3000</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" ref="H64:H78" si="2">H63-G64-F64</f>
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" s="13">
+        <v>44834</v>
+      </c>
+      <c r="D65" t="s">
+        <v>416</v>
+      </c>
+      <c r="G65">
+        <v>3000</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="2"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" s="13">
+        <v>44864</v>
+      </c>
+      <c r="D66" t="s">
+        <v>408</v>
+      </c>
+      <c r="G66">
+        <v>3000</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="2"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" s="13">
+        <v>44895</v>
+      </c>
+      <c r="D67" t="s">
+        <v>417</v>
+      </c>
+      <c r="G67">
+        <v>3000</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="2"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68" s="13">
+        <v>44925</v>
+      </c>
+      <c r="D68" t="s">
+        <v>408</v>
+      </c>
+      <c r="F68" s="302">
+        <v>3000</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="2"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69" s="13">
+        <v>44956</v>
+      </c>
+      <c r="D69" t="s">
+        <v>418</v>
+      </c>
+      <c r="F69" s="302">
+        <v>6000</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="2"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" s="13"/>
+      <c r="E70" s="320">
+        <v>1607</v>
+      </c>
+      <c r="F70" s="302"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="15">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71" s="13">
+        <v>44985</v>
+      </c>
+      <c r="D71" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" s="321">
+        <f>G71/E70</f>
+        <v>4.0448039825762292</v>
+      </c>
+      <c r="G71">
+        <v>6500</v>
+      </c>
+      <c r="H71" s="3">
+        <f>H69-G71-F71</f>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" s="13">
+        <v>45015</v>
+      </c>
+      <c r="D72" t="s">
+        <v>420</v>
+      </c>
+      <c r="G72">
+        <v>6500</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="2"/>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73" s="13">
+        <v>45046</v>
+      </c>
+      <c r="D73" t="s">
+        <v>420</v>
+      </c>
+      <c r="G73">
+        <v>6500</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="2"/>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15">
+      <c r="A74">
+        <v>10</v>
+      </c>
+      <c r="B74" s="13">
+        <v>45076</v>
+      </c>
+      <c r="D74" t="s">
+        <v>421</v>
+      </c>
+      <c r="G74">
+        <v>6500</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="2"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>11</v>
+      </c>
+      <c r="B75" s="13">
+        <v>45107</v>
+      </c>
+      <c r="D75" t="s">
+        <v>420</v>
+      </c>
+      <c r="G75">
+        <v>6500</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>12</v>
+      </c>
+      <c r="B76" s="13">
+        <v>45137</v>
+      </c>
+      <c r="D76" t="s">
+        <v>420</v>
+      </c>
+      <c r="G76">
+        <v>6500</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="H77" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="D78" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="21">
+      <c r="D80" s="288" t="s">
+        <v>422</v>
+      </c>
+      <c r="H80" s="298">
+        <f>(G82)/12</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15">
+      <c r="D81" s="290" t="s">
+        <v>403</v>
+      </c>
+      <c r="E81" s="290"/>
+      <c r="F81" s="290"/>
+      <c r="G81" s="291">
+        <v>17002</v>
+      </c>
+      <c r="H81" s="292">
+        <f>(G88+G89+G90)/G81</f>
+        <v>8.8930714033643099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15">
+      <c r="D82" s="287" t="s">
+        <v>423</v>
+      </c>
+      <c r="G82" s="293">
+        <f>SUM(G88:G90)</f>
+        <v>151200</v>
+      </c>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="15">
+      <c r="D83" s="287" t="s">
+        <v>442</v>
+      </c>
+      <c r="G83" s="278">
+        <f>G58+G59</f>
+        <v>51953.144160000003</v>
+      </c>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" ht="15">
+      <c r="B84" s="295">
+        <v>45137</v>
+      </c>
+      <c r="C84" s="319"/>
+      <c r="D84" s="303" t="s">
+        <v>437</v>
+      </c>
+      <c r="E84" s="306">
+        <v>0.55910000000000004</v>
+      </c>
+      <c r="F84" s="283"/>
+      <c r="G84" s="307">
+        <f>G83*E84</f>
+        <v>29047.002899856005</v>
+      </c>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="15">
+      <c r="D85" s="287" t="s">
+        <v>441</v>
+      </c>
+      <c r="G85" s="311">
+        <f>G83+G84</f>
+        <v>81000.147059856012</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15">
+      <c r="F86" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G86" s="293" t="s">
+        <v>398</v>
+      </c>
+      <c r="H86" s="294" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15">
+      <c r="D87" t="s">
+        <v>424</v>
+      </c>
+      <c r="G87" s="293"/>
+      <c r="H87" s="3">
+        <f>G87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15">
+      <c r="D88">
+        <v>6500</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="G88" s="293">
+        <f>E88*D88</f>
+        <v>39000</v>
+      </c>
+      <c r="H88" s="3">
+        <f>H87+G88</f>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15">
+      <c r="D89">
+        <v>17000</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="G89" s="293">
+        <f>E89*D89</f>
+        <v>68000</v>
+      </c>
+      <c r="H89" s="3">
+        <f>H88+G89</f>
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15">
+      <c r="D90">
+        <v>22100</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="G90" s="293">
+        <f>E90*D90</f>
+        <v>44200</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" ref="H90:H92" si="3">H89+G90</f>
+        <v>151200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="H91" s="3">
+        <f t="shared" si="3"/>
+        <v>151200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15">
+      <c r="D92" s="299" t="s">
+        <v>415</v>
+      </c>
+      <c r="E92" s="290"/>
+      <c r="F92" s="290"/>
+      <c r="G92" s="291"/>
+      <c r="H92" s="3">
+        <f t="shared" si="3"/>
+        <v>151200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15">
+      <c r="D93" s="299"/>
+      <c r="E93" s="320">
+        <v>1954</v>
+      </c>
+      <c r="F93" s="290"/>
+      <c r="G93" s="291"/>
+      <c r="H93" s="3">
+        <f>H92-G93-F93</f>
+        <v>151200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" s="13">
+        <v>45168</v>
+      </c>
+      <c r="D94" t="s">
+        <v>420</v>
+      </c>
+      <c r="E94" s="321">
+        <f>G94/E93</f>
+        <v>3.3265097236438077</v>
+      </c>
+      <c r="G94">
+        <v>6500</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" ref="H94:H108" si="4">H93-G94-F94</f>
+        <v>144700</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" s="13">
+        <v>45199</v>
+      </c>
+      <c r="D95" t="s">
+        <v>425</v>
+      </c>
+      <c r="F95" s="302">
+        <v>6500</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" si="4"/>
+        <v>138200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" s="13">
+        <v>45229</v>
+      </c>
+      <c r="D96" t="s">
+        <v>420</v>
+      </c>
+      <c r="G96">
+        <v>6500</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" si="4"/>
+        <v>131700</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" s="13">
+        <v>45260</v>
+      </c>
+      <c r="D97" t="s">
+        <v>420</v>
+      </c>
+      <c r="G97">
+        <v>6500</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" si="4"/>
+        <v>125200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" s="13">
+        <v>45290</v>
+      </c>
+      <c r="D98" t="s">
+        <v>420</v>
+      </c>
+      <c r="G98">
+        <v>6500</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="4"/>
+        <v>118700</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99" s="13">
+        <v>45321</v>
+      </c>
+      <c r="D99" t="s">
+        <v>426</v>
+      </c>
+      <c r="G99">
+        <v>6500</v>
+      </c>
+      <c r="H99" s="3">
+        <f t="shared" si="4"/>
+        <v>112200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100" s="13">
+        <v>45350</v>
+      </c>
+      <c r="D100" t="s">
+        <v>427</v>
+      </c>
+      <c r="G100" s="300">
+        <v>6500</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="4"/>
+        <v>105700</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15">
+      <c r="B101" s="13"/>
+      <c r="E101" s="320">
+        <v>2442</v>
+      </c>
+      <c r="G101" s="300"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" ht="15">
+      <c r="A102">
+        <v>8</v>
+      </c>
+      <c r="B102" s="13">
+        <v>45381</v>
+      </c>
+      <c r="D102" t="s">
+        <v>428</v>
+      </c>
+      <c r="E102" s="321">
+        <f>G102/E101</f>
+        <v>6.1425061425061429</v>
+      </c>
+      <c r="G102">
+        <v>15000</v>
+      </c>
+      <c r="H102" s="3">
+        <f>H100-G102-F102</f>
+        <v>90700</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>9</v>
+      </c>
+      <c r="B103" s="13">
+        <v>45412</v>
+      </c>
+      <c r="D103" t="s">
+        <v>429</v>
+      </c>
+      <c r="G103">
+        <v>15000</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="4"/>
+        <v>75700</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>10</v>
+      </c>
+      <c r="B104" s="13">
+        <v>45442</v>
+      </c>
+      <c r="D104" t="s">
+        <v>429</v>
+      </c>
+      <c r="G104">
+        <v>15000</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="4"/>
+        <v>60700</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15">
+      <c r="A105">
+        <v>11</v>
+      </c>
+      <c r="B105" s="13">
+        <v>45473</v>
+      </c>
+      <c r="D105" t="s">
+        <v>430</v>
+      </c>
+      <c r="E105" s="310" t="s">
+        <v>455</v>
+      </c>
+      <c r="F105" s="302">
+        <v>15000</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="4"/>
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>12</v>
+      </c>
+      <c r="B106" s="13">
+        <v>45503</v>
+      </c>
+      <c r="D106" t="s">
+        <v>429</v>
+      </c>
+      <c r="G106">
+        <v>15000</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="4"/>
+        <v>30700</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="H107" s="3">
+        <f t="shared" si="4"/>
+        <v>30700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="D108" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="4"/>
+        <v>30700</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A110" s="339"/>
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="1:8" ht="21">
+      <c r="A111" s="333"/>
+      <c r="B111" s="349"/>
+      <c r="C111" s="335"/>
+      <c r="D111" s="336" t="s">
+        <v>431</v>
+      </c>
+      <c r="E111" s="334"/>
+      <c r="F111" s="334"/>
+      <c r="G111" s="334"/>
+      <c r="H111" s="337">
+        <f>G113/12</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15">
+      <c r="A112" s="338"/>
+      <c r="B112" s="348"/>
+      <c r="C112" s="340"/>
+      <c r="D112" s="341" t="s">
+        <v>403</v>
+      </c>
+      <c r="E112" s="341"/>
+      <c r="F112" s="341"/>
+      <c r="G112" s="342">
+        <v>22104</v>
+      </c>
+      <c r="H112" s="343">
+        <f>G119/G112</f>
+        <v>13.572204125950055</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A113" s="350"/>
+      <c r="B113" s="351"/>
+      <c r="C113" s="345"/>
+      <c r="D113" s="346" t="s">
+        <v>450</v>
+      </c>
+      <c r="E113" s="344"/>
+      <c r="F113" s="344"/>
+      <c r="G113" s="344">
+        <f>G119</f>
+        <v>300000</v>
+      </c>
+      <c r="H113" s="347"/>
+    </row>
+    <row r="114" spans="1:8" ht="15">
+      <c r="D114" s="287" t="s">
+        <v>442</v>
+      </c>
+      <c r="G114" s="278">
+        <f>G83+G84</f>
+        <v>81000.147059856012</v>
+      </c>
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="1:8" ht="15">
+      <c r="B115" s="295">
+        <v>45503</v>
+      </c>
+      <c r="C115" s="319"/>
+      <c r="D115" s="303" t="s">
+        <v>438</v>
+      </c>
+      <c r="E115" s="306">
+        <v>0.5383</v>
+      </c>
+      <c r="F115" s="283"/>
+      <c r="G115" s="307">
+        <f>G114*E115</f>
+        <v>43602.379162320489</v>
+      </c>
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="1:8" ht="15">
+      <c r="D116" s="287" t="s">
+        <v>441</v>
+      </c>
+      <c r="G116" s="311">
+        <f>G114+G115</f>
+        <v>124602.5262221765</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15">
+      <c r="F117" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G117" s="293" t="s">
+        <v>398</v>
+      </c>
+      <c r="H117" s="294" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15">
+      <c r="D118" s="287" t="s">
+        <v>449</v>
+      </c>
+      <c r="G118" s="293"/>
+      <c r="H118" s="3">
+        <f>H108</f>
+        <v>30700</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15">
+      <c r="D119">
+        <v>25000</v>
+      </c>
+      <c r="E119">
+        <v>12</v>
+      </c>
+      <c r="G119" s="293">
+        <f>E119*D119</f>
+        <v>300000</v>
+      </c>
+      <c r="H119" s="3">
+        <f>H118+G119</f>
+        <v>330700</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15">
+      <c r="G120" s="293"/>
+      <c r="H120" s="3">
+        <f>H119+G120</f>
+        <v>330700</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15">
+      <c r="G121" s="293"/>
+      <c r="H121" s="3">
+        <f t="shared" ref="H121:H123" si="5">H120+G121</f>
+        <v>330700</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15">
+      <c r="G122" s="293"/>
+      <c r="H122" s="3">
+        <f t="shared" si="5"/>
+        <v>330700</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15">
+      <c r="D123" s="299"/>
+      <c r="E123" s="320">
+        <v>2981</v>
+      </c>
+      <c r="G123" s="291"/>
+      <c r="H123" s="3">
+        <f t="shared" si="5"/>
+        <v>330700</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15">
+      <c r="D124" s="316" t="s">
+        <v>468</v>
+      </c>
+      <c r="E124" s="321">
+        <f>F125/E123</f>
+        <v>5.0318685005031867</v>
+      </c>
+      <c r="F124" s="290"/>
+      <c r="G124" s="291"/>
+      <c r="H124" s="3">
+        <f>H123-G124-F124</f>
+        <v>330700</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" s="13">
+        <v>45534</v>
+      </c>
+      <c r="D125" t="s">
+        <v>440</v>
+      </c>
+      <c r="E125" s="310" t="s">
+        <v>455</v>
+      </c>
+      <c r="F125" s="302">
+        <v>15000</v>
+      </c>
+      <c r="H125" s="3">
+        <f t="shared" ref="H125:H140" si="6">H124-G125-F125</f>
+        <v>315700</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" s="13">
+        <v>45565</v>
+      </c>
+      <c r="D126" t="s">
+        <v>439</v>
+      </c>
+      <c r="E126" s="310" t="s">
+        <v>455</v>
+      </c>
+      <c r="F126" s="302">
+        <v>15000</v>
+      </c>
+      <c r="H126" s="3">
+        <f t="shared" si="6"/>
+        <v>300700</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127" s="13">
+        <v>45595</v>
+      </c>
+      <c r="D127" t="s">
+        <v>456</v>
+      </c>
+      <c r="E127" s="310" t="s">
+        <v>455</v>
+      </c>
+      <c r="F127" s="302">
+        <v>15000</v>
+      </c>
+      <c r="H127" s="3">
+        <f t="shared" si="6"/>
+        <v>285700</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" s="13">
+        <v>45626</v>
+      </c>
+      <c r="D128" t="s">
+        <v>467</v>
+      </c>
+      <c r="E128" s="310" t="s">
+        <v>455</v>
+      </c>
+      <c r="F128" s="302">
+        <v>15000</v>
+      </c>
+      <c r="H128" s="3">
+        <f t="shared" si="6"/>
+        <v>270700</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" s="13">
+        <v>45656</v>
+      </c>
+      <c r="D129" t="s">
+        <v>464</v>
+      </c>
+      <c r="E129" s="310" t="s">
+        <v>455</v>
+      </c>
+      <c r="F129" s="302">
+        <v>15000</v>
+      </c>
+      <c r="H129" s="3">
+        <f t="shared" si="6"/>
+        <v>255700</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130" s="13">
+        <v>45687</v>
+      </c>
+      <c r="D130" t="s">
+        <v>465</v>
+      </c>
+      <c r="E130" s="310" t="s">
+        <v>455</v>
+      </c>
+      <c r="F130" s="302">
+        <v>15000</v>
+      </c>
+      <c r="H130" s="3">
+        <f t="shared" si="6"/>
+        <v>240700</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="B131" s="13"/>
+      <c r="E131" s="320">
+        <v>4292</v>
+      </c>
+      <c r="F131" s="302"/>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="B132" s="13"/>
+      <c r="E132" s="321">
+        <f>F133/E131</f>
+        <v>3.4948741845293569</v>
+      </c>
+      <c r="F132" s="302"/>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8" ht="15">
+      <c r="A133">
+        <v>7</v>
+      </c>
+      <c r="B133" s="13">
+        <v>45716</v>
+      </c>
+      <c r="D133" t="s">
+        <v>466</v>
+      </c>
+      <c r="E133" s="310" t="s">
+        <v>455</v>
+      </c>
+      <c r="F133" s="302">
+        <v>15000</v>
+      </c>
+      <c r="G133" s="300"/>
+      <c r="H133" s="3">
+        <f>H130-G133-F133</f>
+        <v>225700</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>8</v>
+      </c>
+      <c r="B134" s="13">
+        <v>45746</v>
+      </c>
+      <c r="D134" t="s">
+        <v>461</v>
+      </c>
+      <c r="F134" s="302"/>
+      <c r="H134" s="3">
+        <f t="shared" si="6"/>
+        <v>225700</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>9</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D135" t="s">
+        <v>432</v>
+      </c>
+      <c r="F135" s="302"/>
+      <c r="H135" s="3">
+        <f t="shared" si="6"/>
+        <v>225700</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>10</v>
+      </c>
+      <c r="B136" s="13">
+        <v>45807</v>
+      </c>
+      <c r="D136" t="s">
+        <v>432</v>
+      </c>
+      <c r="H136" s="3">
+        <f t="shared" si="6"/>
+        <v>225700</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>11</v>
+      </c>
+      <c r="B137" s="13">
+        <v>45838</v>
+      </c>
+      <c r="D137" t="s">
+        <v>432</v>
+      </c>
+      <c r="H137" s="3">
+        <f t="shared" si="6"/>
+        <v>225700</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>12</v>
+      </c>
+      <c r="B138" s="13">
+        <v>45868</v>
+      </c>
+      <c r="D138" t="s">
+        <v>432</v>
+      </c>
+      <c r="H138" s="3">
+        <f t="shared" si="6"/>
+        <v>225700</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="H139" s="3">
+        <f t="shared" si="6"/>
+        <v>225700</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="D140" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="H140" s="3">
+        <f t="shared" si="6"/>
+        <v>225700</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15">
+      <c r="E141" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="F141" s="309">
+        <f>SUM(F125:F140)</f>
+        <v>105000</v>
+      </c>
+      <c r="G141" s="309"/>
+      <c r="H141" s="292">
+        <f>F141/G112</f>
+        <v>4.7502714440825189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="D142" t="s">
+        <v>443</v>
+      </c>
+      <c r="H142" s="278">
+        <f>SUM(F8:F140)</f>
+        <v>144500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="D143" t="s">
+        <v>444</v>
+      </c>
+      <c r="H143" s="278">
+        <f>SUM(G8)+G25+G60+G85+G116</f>
+        <v>311791.01744203252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="D144" t="s">
+        <v>445</v>
+      </c>
+      <c r="H144" s="278">
+        <f>H143-H142</f>
+        <v>167291.01744203252</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="308">
+        <v>45831</v>
+      </c>
+      <c r="D146" t="s">
+        <v>480</v>
+      </c>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="352">
+        <v>45350</v>
+      </c>
+      <c r="D147" t="s">
+        <v>481</v>
+      </c>
+      <c r="G147">
+        <v>8500</v>
+      </c>
+      <c r="H147" s="3">
+        <f t="shared" ref="H147:H152" si="7">H146-G147-F147</f>
+        <v>-8500</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="D148" t="s">
+        <v>482</v>
+      </c>
+      <c r="E148" s="332">
+        <v>0.5</v>
+      </c>
+      <c r="G148">
+        <f>G147*E148</f>
+        <v>4250</v>
+      </c>
+      <c r="H148" s="3">
+        <f t="shared" si="7"/>
+        <v>-12750</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="D149" t="s">
+        <v>483</v>
+      </c>
+      <c r="F149">
+        <v>-105000</v>
+      </c>
+      <c r="H149" s="3">
+        <f t="shared" si="7"/>
+        <v>92250</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="D150" t="s">
+        <v>484</v>
+      </c>
+      <c r="G150">
+        <v>45000</v>
+      </c>
+      <c r="H150" s="3">
+        <f t="shared" si="7"/>
+        <v>47250</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="D151" t="s">
+        <v>485</v>
+      </c>
+      <c r="H151" s="3">
+        <f t="shared" si="7"/>
+        <v>47250</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="308">
+        <v>45722</v>
+      </c>
+      <c r="G152">
+        <v>455</v>
+      </c>
+      <c r="H152" s="3">
+        <f t="shared" si="7"/>
+        <v>46795</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="308">
+        <v>45750</v>
+      </c>
+      <c r="G153">
+        <v>315</v>
+      </c>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="D155" t="s">
+        <v>451</v>
+      </c>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="B156" s="308">
+        <v>45728</v>
+      </c>
+      <c r="D156" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="308">
+        <v>45777</v>
+      </c>
+      <c r="D157" t="s">
+        <v>453</v>
+      </c>
+      <c r="H157" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="D158" t="s">
+        <v>454</v>
+      </c>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160" s="308">
+        <v>45740</v>
+      </c>
+      <c r="D160" t="s">
+        <v>457</v>
+      </c>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="2:8">
+      <c r="D161" t="s">
+        <v>458</v>
+      </c>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163" s="308">
+        <v>45807</v>
+      </c>
+      <c r="D163" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="D164" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167" s="328">
+        <v>44197</v>
+      </c>
+      <c r="C167" s="330">
+        <f>E9</f>
+        <v>495</v>
+      </c>
+      <c r="E167" s="327">
+        <f>E10</f>
+        <v>4.0404040404040407</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" s="328">
+        <v>44378</v>
+      </c>
+      <c r="C168" s="330">
+        <f>E9</f>
+        <v>495</v>
+      </c>
+      <c r="E168" s="327">
+        <f>E10</f>
+        <v>4.0404040404040407</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="328">
+        <v>44562</v>
+      </c>
+      <c r="C169" s="330">
+        <f>E30</f>
+        <v>783</v>
+      </c>
+      <c r="E169" s="327">
+        <f>E31</f>
+        <v>2.554278416347382</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" s="328">
+        <v>44743</v>
+      </c>
+      <c r="C170" s="330">
+        <f>E37</f>
+        <v>968</v>
+      </c>
+      <c r="E170" s="327">
+        <f>E38</f>
+        <v>3.0991735537190084</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" s="328">
+        <v>44927</v>
+      </c>
+      <c r="C171" s="330">
+        <f>E63</f>
+        <v>1095</v>
+      </c>
+      <c r="E171" s="327">
+        <f>E64</f>
+        <v>2.7397260273972601</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172" s="328">
+        <v>45108</v>
+      </c>
+      <c r="C172" s="330">
+        <f>E70</f>
+        <v>1607</v>
+      </c>
+      <c r="E172" s="327">
+        <f>E71</f>
+        <v>4.0448039825762292</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8">
+      <c r="B173" s="328">
+        <v>45292</v>
+      </c>
+      <c r="C173" s="330">
+        <f>E93</f>
+        <v>1954</v>
+      </c>
+      <c r="E173" s="327">
+        <f>E94</f>
+        <v>3.3265097236438077</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8">
+      <c r="B174" s="328">
+        <v>45474</v>
+      </c>
+      <c r="C174" s="330">
+        <f>E101</f>
+        <v>2442</v>
+      </c>
+      <c r="E174" s="327">
+        <f>E102</f>
+        <v>6.1425061425061429</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8">
+      <c r="B175" s="328">
+        <v>45658</v>
+      </c>
+      <c r="C175" s="330">
+        <f>E123</f>
+        <v>2981</v>
+      </c>
+      <c r="E175" s="327">
+        <f>E124</f>
+        <v>5.0318685005031867</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8">
+      <c r="B176" s="328"/>
+      <c r="C176" s="330"/>
+      <c r="E176" s="327"/>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" s="328"/>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="329">
+        <v>9</v>
+      </c>
+      <c r="C178" s="329"/>
+      <c r="D178" t="s">
+        <v>472</v>
+      </c>
+      <c r="E178" s="327">
+        <f>SUM(E167:E177)</f>
+        <v>35.019674427501101</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="329">
+        <v>9</v>
+      </c>
+      <c r="C179" s="329"/>
+      <c r="D179" t="s">
+        <v>473</v>
+      </c>
+      <c r="E179" s="327">
+        <f>E178/B179</f>
+        <v>3.8910749363890114</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="328"/>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="328"/>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" s="328"/>
+      <c r="D182" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="328">
+        <v>45839</v>
+      </c>
+      <c r="C183" s="330">
+        <v>4250</v>
+      </c>
+      <c r="D183" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="E183" s="331">
+        <f>E179*C183</f>
+        <v>16537.068479653299</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" s="328"/>
+      <c r="D184" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="E184" s="331">
+        <f>E167*C183</f>
+        <v>17171.717171717173</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" s="328">
+        <v>46023</v>
+      </c>
+      <c r="C185" s="317">
+        <f>C183+(C183*C186)</f>
+        <v>5100</v>
+      </c>
+      <c r="D185" s="83" t="s">
+        <v>477</v>
+      </c>
+      <c r="E185" s="331">
+        <f>E167*C185</f>
+        <v>20606.060606060608</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="C186" s="332">
+        <v>0.2</v>
+      </c>
+      <c r="D186" s="83" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="D187" t="s">
+        <v>479</v>
+      </c>
+      <c r="E187" s="331">
+        <f>E174*C185</f>
+        <v>31326.781326781329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView topLeftCell="A34" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4144,11 +7621,11 @@
       </c>
       <c r="D10" s="3">
         <f>D52</f>
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="E10" s="3">
         <f>C10-D10</f>
-        <v>139540</v>
+        <v>109540</v>
       </c>
       <c r="F10">
         <f>ROUND((C10-E9)/10,)</f>
@@ -4450,34 +7927,42 @@
       <c r="B45" s="19"/>
       <c r="C45">
         <f>G50/6</f>
-        <v>29208</v>
-      </c>
-      <c r="D45" s="19"/>
+        <v>24208</v>
+      </c>
+      <c r="D45" s="19">
+        <v>15000</v>
+      </c>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>29208</v>
+        <v>9208</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="3">
         <f t="shared" si="1"/>
-        <v>175248</v>
+        <v>160248</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="17">
-        <v>45746</v>
+        <v>45721</v>
+      </c>
+      <c r="B46" t="s">
+        <v>460</v>
       </c>
       <c r="C46">
         <f>C45</f>
-        <v>29208</v>
+        <v>24208</v>
+      </c>
+      <c r="D46">
+        <v>15000</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="0"/>
-        <v>58416</v>
+        <v>18416</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="1"/>
-        <v>175248</v>
+        <v>145248</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4486,15 +7971,15 @@
       </c>
       <c r="C47">
         <f>C46</f>
-        <v>29208</v>
+        <v>24208</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="0"/>
-        <v>87624</v>
+        <v>42624</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="1"/>
-        <v>175248</v>
+        <v>145248</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4503,15 +7988,15 @@
       </c>
       <c r="C48">
         <f>C47</f>
-        <v>29208</v>
+        <v>24208</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="0"/>
-        <v>116832</v>
+        <v>66832</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="1"/>
-        <v>175248</v>
+        <v>145248</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -4520,15 +8005,15 @@
       </c>
       <c r="C49">
         <f>C48</f>
-        <v>29208</v>
+        <v>24208</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="0"/>
-        <v>146040</v>
+        <v>91040</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="1"/>
-        <v>175248</v>
+        <v>145248</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -4537,15 +8022,15 @@
       </c>
       <c r="C50">
         <f>C49</f>
-        <v>29208</v>
+        <v>24208</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="0"/>
-        <v>175248</v>
+        <v>115248</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="1"/>
-        <v>175248</v>
+        <v>145248</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4554,11 +8039,11 @@
       </c>
       <c r="C52">
         <f>SUM(C39:C51)</f>
-        <v>265248</v>
+        <v>235248</v>
       </c>
       <c r="D52">
         <f>SUM(D39:D51)</f>
-        <v>90000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4567,11 +8052,11 @@
       </c>
       <c r="C53">
         <f>C52/12</f>
-        <v>22104</v>
+        <v>19604</v>
       </c>
       <c r="D53">
         <f>D52/12</f>
-        <v>7500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5972,1911 +9457,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I147"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="278" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="C1" s="301">
-        <v>45727</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="B2" s="287" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="C3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="21">
-      <c r="C4" s="288" t="s">
-        <v>395</v>
-      </c>
-      <c r="G4" s="289">
-        <f>F6/12</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="C5" s="290" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="291">
-        <v>2324</v>
-      </c>
-      <c r="G5" s="292">
-        <f>F8/F5</f>
-        <v>10.327022375215146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="C6" s="287" t="s">
-        <v>397</v>
-      </c>
-      <c r="F6" s="294">
-        <f>F8</f>
-        <v>24000</v>
-      </c>
-      <c r="G6" s="294"/>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="E7" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F7" s="293" t="s">
-        <v>398</v>
-      </c>
-      <c r="G7" s="294" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="295"/>
-      <c r="C8" t="s">
-        <v>399</v>
-      </c>
-      <c r="F8" s="3">
-        <v>24000</v>
-      </c>
-      <c r="G8" s="3">
-        <f>F8</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="295"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <f>G8-F9-E9</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="13">
-        <v>44250</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="3">
-        <f>G9-F10-E10</f>
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13">
-        <v>44285</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" ref="G11:G18" si="0">G10-F11-E11</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="13">
-        <v>44316</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="13">
-        <v>44346</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" s="13">
-        <v>44377</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="13">
-        <v>44407</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" s="13">
-        <v>44788</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="287" t="s">
-        <v>400</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="13"/>
-      <c r="C18" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="13"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="21">
-      <c r="C20" s="288" t="s">
-        <v>402</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="289">
-        <f>F29/12</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="C21" s="290" t="s">
-        <v>403</v>
-      </c>
-      <c r="D21" s="290"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="291">
-        <v>2825</v>
-      </c>
-      <c r="G21" s="292">
-        <f>F29/F21</f>
-        <v>12.743362831858407</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15">
-      <c r="B22" s="295"/>
-      <c r="C22" s="287" t="s">
-        <v>404</v>
-      </c>
-      <c r="F22">
-        <f>F29</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15">
-      <c r="B23" s="295"/>
-      <c r="C23" s="287" t="s">
-        <v>444</v>
-      </c>
-      <c r="F23" s="278">
-        <f>F8</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15">
-      <c r="B24" s="295">
-        <v>44407</v>
-      </c>
-      <c r="C24" s="303" t="s">
-        <v>435</v>
-      </c>
-      <c r="D24" s="306">
-        <v>0.25979999999999998</v>
-      </c>
-      <c r="E24" s="283"/>
-      <c r="F24" s="307">
-        <f>F23*D24</f>
-        <v>6235.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15">
-      <c r="C25" s="287" t="s">
-        <v>443</v>
-      </c>
-      <c r="F25" s="315">
-        <f>F23+F24</f>
-        <v>30235.200000000001</v>
-      </c>
-      <c r="I25" s="296"/>
-    </row>
-    <row r="26" spans="1:9" ht="15">
-      <c r="B26" s="295"/>
-      <c r="E26" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F26" s="293" t="s">
-        <v>398</v>
-      </c>
-      <c r="G26" s="294" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15">
-      <c r="B27" s="295"/>
-      <c r="E27" s="296"/>
-      <c r="F27" s="293"/>
-      <c r="G27" s="3">
-        <f>F27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15">
-      <c r="B28" s="295"/>
-      <c r="D28" s="296"/>
-      <c r="E28" s="296"/>
-      <c r="F28" s="293"/>
-      <c r="G28" s="3">
-        <f>G27+F28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15">
-      <c r="B29" s="295"/>
-      <c r="C29" t="s">
-        <v>405</v>
-      </c>
-      <c r="F29" s="293">
-        <v>36000</v>
-      </c>
-      <c r="G29" s="3">
-        <f>G28+F29</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15">
-      <c r="B30" s="295"/>
-      <c r="F30" s="293"/>
-      <c r="G30" s="3">
-        <f>G29-F30-E30</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" s="13">
-        <v>44438</v>
-      </c>
-      <c r="C31" t="s">
-        <v>406</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" ref="G31:G46" si="1">G30-F31-E31</f>
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" s="13">
-        <v>44469</v>
-      </c>
-      <c r="C32" t="s">
-        <v>406</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="1"/>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33" s="13">
-        <v>44499</v>
-      </c>
-      <c r="C33" t="s">
-        <v>406</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" s="13">
-        <v>44530</v>
-      </c>
-      <c r="C34" t="s">
-        <v>406</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="1"/>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35" s="13">
-        <v>44560</v>
-      </c>
-      <c r="C35" t="s">
-        <v>406</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="1"/>
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36" s="13">
-        <v>44591</v>
-      </c>
-      <c r="C36" t="s">
-        <v>406</v>
-      </c>
-      <c r="F36" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="1"/>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>7</v>
-      </c>
-      <c r="B37" s="13">
-        <v>44620</v>
-      </c>
-      <c r="C37" t="s">
-        <v>407</v>
-      </c>
-      <c r="F37" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="1"/>
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="B38" s="13">
-        <v>44650</v>
-      </c>
-      <c r="C38" t="s">
-        <v>408</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="1"/>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" s="13">
-        <v>44681</v>
-      </c>
-      <c r="C39" s="287" t="s">
-        <v>409</v>
-      </c>
-      <c r="F39" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="1"/>
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40" s="13">
-        <v>44711</v>
-      </c>
-      <c r="C40" s="287" t="s">
-        <v>410</v>
-      </c>
-      <c r="D40" s="297"/>
-      <c r="E40" s="297"/>
-      <c r="F40" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15">
-      <c r="A41">
-        <v>11</v>
-      </c>
-      <c r="B41" s="13">
-        <v>44742</v>
-      </c>
-      <c r="C41" s="287" t="s">
-        <v>411</v>
-      </c>
-      <c r="E41" s="302">
-        <v>4000</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15">
-      <c r="A42">
-        <v>12</v>
-      </c>
-      <c r="B42" s="13">
-        <v>44772</v>
-      </c>
-      <c r="C42" s="287" t="s">
-        <v>449</v>
-      </c>
-      <c r="E42" s="302">
-        <v>5000</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15">
-      <c r="A43">
-        <v>13</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="287" t="s">
-        <v>448</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15">
-      <c r="A44">
-        <v>14</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="287" t="s">
-        <v>412</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="B45" s="13"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" s="13"/>
-      <c r="C46" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="B47" s="13"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" s="13"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="B49" s="13"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="B50" s="13"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="B51" s="13"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="B52" s="13"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="B53" s="13"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="21">
-      <c r="C54" s="288" t="s">
-        <v>413</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="289">
-        <f>F56/12</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15">
-      <c r="C55" s="290" t="s">
-        <v>403</v>
-      </c>
-      <c r="D55" s="290"/>
-      <c r="E55" s="290"/>
-      <c r="F55" s="291">
-        <v>4253</v>
-      </c>
-      <c r="G55" s="292">
-        <f>F61/F55</f>
-        <v>14.107688690336234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15">
-      <c r="C56" s="287" t="s">
-        <v>414</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56">
-        <f>F61</f>
-        <v>60000</v>
-      </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" ht="15">
-      <c r="C57" s="287" t="s">
-        <v>444</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="278">
-        <f>F23+F24</f>
-        <v>30235.200000000001</v>
-      </c>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" ht="15">
-      <c r="B58" s="295">
-        <v>44772</v>
-      </c>
-      <c r="C58" s="303" t="s">
-        <v>436</v>
-      </c>
-      <c r="D58" s="306">
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="E58" s="283"/>
-      <c r="F58" s="307">
-        <f>F57*D58</f>
-        <v>21717.944160000003</v>
-      </c>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" ht="15">
-      <c r="C59" s="287" t="s">
-        <v>443</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="315">
-        <f>F57+F58</f>
-        <v>51953.144160000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15">
-      <c r="E60" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F60" s="293" t="s">
-        <v>398</v>
-      </c>
-      <c r="G60" s="294" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15">
-      <c r="C61" s="287" t="s">
-        <v>450</v>
-      </c>
-      <c r="F61" s="293">
-        <v>60000</v>
-      </c>
-      <c r="G61" s="3">
-        <f>F61</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15">
-      <c r="C62" s="287"/>
-      <c r="F62" s="293"/>
-      <c r="G62" s="3">
-        <f>G61-F62-E62</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" s="13">
-        <v>44803</v>
-      </c>
-      <c r="C63" t="s">
-        <v>408</v>
-      </c>
-      <c r="F63">
-        <v>3000</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" ref="G63:G76" si="2">G62-F63-E63</f>
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64" s="13">
-        <v>44834</v>
-      </c>
-      <c r="C64" t="s">
-        <v>416</v>
-      </c>
-      <c r="F64">
-        <v>3000</v>
-      </c>
-      <c r="G64" s="3">
-        <f t="shared" si="2"/>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65">
-        <v>3</v>
-      </c>
-      <c r="B65" s="13">
-        <v>44864</v>
-      </c>
-      <c r="C65" t="s">
-        <v>408</v>
-      </c>
-      <c r="F65">
-        <v>3000</v>
-      </c>
-      <c r="G65" s="3">
-        <f t="shared" si="2"/>
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15">
-      <c r="A66">
-        <v>4</v>
-      </c>
-      <c r="B66" s="13">
-        <v>44895</v>
-      </c>
-      <c r="C66" t="s">
-        <v>417</v>
-      </c>
-      <c r="F66">
-        <v>3000</v>
-      </c>
-      <c r="G66" s="3">
-        <f t="shared" si="2"/>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67">
-        <v>5</v>
-      </c>
-      <c r="B67" s="13">
-        <v>44925</v>
-      </c>
-      <c r="C67" t="s">
-        <v>408</v>
-      </c>
-      <c r="E67" s="302">
-        <v>3000</v>
-      </c>
-      <c r="G67" s="3">
-        <f t="shared" si="2"/>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15">
-      <c r="A68">
-        <v>6</v>
-      </c>
-      <c r="B68" s="13">
-        <v>44956</v>
-      </c>
-      <c r="C68" t="s">
-        <v>418</v>
-      </c>
-      <c r="E68" s="302">
-        <v>6000</v>
-      </c>
-      <c r="G68" s="3">
-        <f t="shared" si="2"/>
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15">
-      <c r="A69">
-        <v>7</v>
-      </c>
-      <c r="B69" s="13">
-        <v>44985</v>
-      </c>
-      <c r="C69" t="s">
-        <v>419</v>
-      </c>
-      <c r="F69">
-        <v>6500</v>
-      </c>
-      <c r="G69" s="3">
-        <f t="shared" si="2"/>
-        <v>32500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70">
-        <v>8</v>
-      </c>
-      <c r="B70" s="13">
-        <v>45015</v>
-      </c>
-      <c r="C70" t="s">
-        <v>420</v>
-      </c>
-      <c r="F70">
-        <v>6500</v>
-      </c>
-      <c r="G70" s="3">
-        <f t="shared" si="2"/>
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71">
-        <v>9</v>
-      </c>
-      <c r="B71" s="13">
-        <v>45046</v>
-      </c>
-      <c r="C71" t="s">
-        <v>420</v>
-      </c>
-      <c r="F71">
-        <v>6500</v>
-      </c>
-      <c r="G71" s="3">
-        <f t="shared" si="2"/>
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15">
-      <c r="A72">
-        <v>10</v>
-      </c>
-      <c r="B72" s="13">
-        <v>45076</v>
-      </c>
-      <c r="C72" t="s">
-        <v>421</v>
-      </c>
-      <c r="F72">
-        <v>6500</v>
-      </c>
-      <c r="G72" s="3">
-        <f t="shared" si="2"/>
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73">
-        <v>11</v>
-      </c>
-      <c r="B73" s="13">
-        <v>45107</v>
-      </c>
-      <c r="C73" t="s">
-        <v>420</v>
-      </c>
-      <c r="F73">
-        <v>6500</v>
-      </c>
-      <c r="G73" s="3">
-        <f t="shared" si="2"/>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74">
-        <v>12</v>
-      </c>
-      <c r="B74" s="13">
-        <v>45137</v>
-      </c>
-      <c r="C74" t="s">
-        <v>420</v>
-      </c>
-      <c r="F74">
-        <v>6500</v>
-      </c>
-      <c r="G74" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="G75" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="C76" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G76" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" ht="21">
-      <c r="C78" s="288" t="s">
-        <v>422</v>
-      </c>
-      <c r="G78" s="298">
-        <f>(F80)/12</f>
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15">
-      <c r="C79" s="290" t="s">
-        <v>403</v>
-      </c>
-      <c r="D79" s="290"/>
-      <c r="E79" s="290"/>
-      <c r="F79" s="291">
-        <v>17002</v>
-      </c>
-      <c r="G79" s="292">
-        <f>(F86+F87+F88)/F79</f>
-        <v>8.8930714033643099</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15">
-      <c r="C80" s="287" t="s">
-        <v>423</v>
-      </c>
-      <c r="F80" s="293">
-        <f>SUM(F86:F88)</f>
-        <v>151200</v>
-      </c>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" ht="15">
-      <c r="C81" s="287" t="s">
-        <v>444</v>
-      </c>
-      <c r="F81" s="278">
-        <f>F57+F58</f>
-        <v>51953.144160000003</v>
-      </c>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" ht="15">
-      <c r="B82" s="295">
-        <v>45137</v>
-      </c>
-      <c r="C82" s="303" t="s">
-        <v>437</v>
-      </c>
-      <c r="D82" s="306">
-        <v>0.55910000000000004</v>
-      </c>
-      <c r="E82" s="283"/>
-      <c r="F82" s="307">
-        <f>F81*D82</f>
-        <v>29047.002899856005</v>
-      </c>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" ht="15">
-      <c r="C83" s="287" t="s">
-        <v>443</v>
-      </c>
-      <c r="F83" s="315">
-        <f>F81+F82</f>
-        <v>81000.147059856012</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15">
-      <c r="E84" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F84" s="293" t="s">
-        <v>398</v>
-      </c>
-      <c r="G84" s="294" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15">
-      <c r="C85" t="s">
-        <v>424</v>
-      </c>
-      <c r="F85" s="293"/>
-      <c r="G85" s="3">
-        <f>F85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15">
-      <c r="C86">
-        <v>6500</v>
-      </c>
-      <c r="D86">
-        <v>6</v>
-      </c>
-      <c r="F86" s="293">
-        <f>D86*C86</f>
-        <v>39000</v>
-      </c>
-      <c r="G86" s="3">
-        <f>G85+F86</f>
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15">
-      <c r="C87">
-        <v>17000</v>
-      </c>
-      <c r="D87">
-        <v>4</v>
-      </c>
-      <c r="F87" s="293">
-        <f>D87*C87</f>
-        <v>68000</v>
-      </c>
-      <c r="G87" s="3">
-        <f>G86+F87</f>
-        <v>107000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15">
-      <c r="C88">
-        <v>22100</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="F88" s="293">
-        <f>D88*C88</f>
-        <v>44200</v>
-      </c>
-      <c r="G88" s="3">
-        <f t="shared" ref="G88:G90" si="3">G87+F88</f>
-        <v>151200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="G89" s="3">
-        <f t="shared" si="3"/>
-        <v>151200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15">
-      <c r="C90" s="299" t="s">
-        <v>415</v>
-      </c>
-      <c r="D90" s="290"/>
-      <c r="E90" s="290"/>
-      <c r="F90" s="291"/>
-      <c r="G90" s="3">
-        <f t="shared" si="3"/>
-        <v>151200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15">
-      <c r="C91" s="299"/>
-      <c r="D91" s="290"/>
-      <c r="E91" s="290"/>
-      <c r="F91" s="291"/>
-      <c r="G91" s="3">
-        <f>G90-F91-E91</f>
-        <v>151200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92" s="13">
-        <v>45168</v>
-      </c>
-      <c r="C92" t="s">
-        <v>420</v>
-      </c>
-      <c r="F92">
-        <v>6500</v>
-      </c>
-      <c r="G92" s="3">
-        <f t="shared" ref="G92:G105" si="4">G91-F92-E92</f>
-        <v>144700</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15">
-      <c r="A93">
-        <v>2</v>
-      </c>
-      <c r="B93" s="13">
-        <v>45199</v>
-      </c>
-      <c r="C93" t="s">
-        <v>425</v>
-      </c>
-      <c r="E93" s="302">
-        <v>6500</v>
-      </c>
-      <c r="G93" s="3">
-        <f t="shared" si="4"/>
-        <v>138200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94">
-        <v>3</v>
-      </c>
-      <c r="B94" s="13">
-        <v>45229</v>
-      </c>
-      <c r="C94" t="s">
-        <v>420</v>
-      </c>
-      <c r="F94">
-        <v>6500</v>
-      </c>
-      <c r="G94" s="3">
-        <f t="shared" si="4"/>
-        <v>131700</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95">
-        <v>4</v>
-      </c>
-      <c r="B95" s="13">
-        <v>45260</v>
-      </c>
-      <c r="C95" t="s">
-        <v>420</v>
-      </c>
-      <c r="F95">
-        <v>6500</v>
-      </c>
-      <c r="G95" s="3">
-        <f t="shared" si="4"/>
-        <v>125200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96">
-        <v>5</v>
-      </c>
-      <c r="B96" s="13">
-        <v>45290</v>
-      </c>
-      <c r="C96" t="s">
-        <v>420</v>
-      </c>
-      <c r="F96">
-        <v>6500</v>
-      </c>
-      <c r="G96" s="3">
-        <f t="shared" si="4"/>
-        <v>118700</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15">
-      <c r="A97">
-        <v>6</v>
-      </c>
-      <c r="B97" s="13">
-        <v>45321</v>
-      </c>
-      <c r="C97" t="s">
-        <v>426</v>
-      </c>
-      <c r="F97">
-        <v>6500</v>
-      </c>
-      <c r="G97" s="3">
-        <f t="shared" si="4"/>
-        <v>112200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15">
-      <c r="A98">
-        <v>7</v>
-      </c>
-      <c r="B98" s="13">
-        <v>45350</v>
-      </c>
-      <c r="C98" t="s">
-        <v>427</v>
-      </c>
-      <c r="F98" s="300">
-        <v>6500</v>
-      </c>
-      <c r="G98" s="3">
-        <f t="shared" si="4"/>
-        <v>105700</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15">
-      <c r="A99">
-        <v>8</v>
-      </c>
-      <c r="B99" s="13">
-        <v>45381</v>
-      </c>
-      <c r="C99" t="s">
-        <v>428</v>
-      </c>
-      <c r="F99">
-        <v>15000</v>
-      </c>
-      <c r="G99" s="3">
-        <f t="shared" si="4"/>
-        <v>90700</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100">
-        <v>9</v>
-      </c>
-      <c r="B100" s="13">
-        <v>45412</v>
-      </c>
-      <c r="C100" t="s">
-        <v>429</v>
-      </c>
-      <c r="F100">
-        <v>15000</v>
-      </c>
-      <c r="G100" s="3">
-        <f t="shared" si="4"/>
-        <v>75700</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101">
-        <v>10</v>
-      </c>
-      <c r="B101" s="13">
-        <v>45442</v>
-      </c>
-      <c r="C101" t="s">
-        <v>429</v>
-      </c>
-      <c r="F101">
-        <v>15000</v>
-      </c>
-      <c r="G101" s="3">
-        <f t="shared" si="4"/>
-        <v>60700</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15">
-      <c r="A102">
-        <v>11</v>
-      </c>
-      <c r="B102" s="13">
-        <v>45473</v>
-      </c>
-      <c r="C102" t="s">
-        <v>430</v>
-      </c>
-      <c r="D102" s="310" t="s">
-        <v>459</v>
-      </c>
-      <c r="E102" s="302">
-        <v>15000</v>
-      </c>
-      <c r="G102" s="3">
-        <f t="shared" si="4"/>
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103">
-        <v>12</v>
-      </c>
-      <c r="B103" s="13">
-        <v>45503</v>
-      </c>
-      <c r="C103" t="s">
-        <v>429</v>
-      </c>
-      <c r="F103">
-        <v>15000</v>
-      </c>
-      <c r="G103" s="3">
-        <f t="shared" si="4"/>
-        <v>30700</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="G104" s="3">
-        <f t="shared" si="4"/>
-        <v>30700</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="C105" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G105" s="3">
-        <f t="shared" si="4"/>
-        <v>30700</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="1:7" ht="21">
-      <c r="C108" s="288" t="s">
-        <v>431</v>
-      </c>
-      <c r="G108" s="298">
-        <f>F110/12</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15">
-      <c r="C109" s="290" t="s">
-        <v>403</v>
-      </c>
-      <c r="D109" s="290"/>
-      <c r="E109" s="290"/>
-      <c r="F109" s="291">
-        <v>22104</v>
-      </c>
-      <c r="G109" s="292">
-        <f>F116/F109</f>
-        <v>13.572204125950055</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15">
-      <c r="C110" s="287" t="s">
-        <v>454</v>
-      </c>
-      <c r="F110">
-        <f>F116</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15">
-      <c r="C111" s="287" t="s">
-        <v>444</v>
-      </c>
-      <c r="F111" s="278">
-        <f>F81+F82</f>
-        <v>81000.147059856012</v>
-      </c>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="1:7" ht="15">
-      <c r="B112" s="295">
-        <v>45503</v>
-      </c>
-      <c r="C112" s="303" t="s">
-        <v>438</v>
-      </c>
-      <c r="D112" s="306">
-        <v>0.5383</v>
-      </c>
-      <c r="E112" s="283"/>
-      <c r="F112" s="307">
-        <f>F111*D112</f>
-        <v>43602.379162320489</v>
-      </c>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="1:7" ht="15">
-      <c r="C113" s="287" t="s">
-        <v>443</v>
-      </c>
-      <c r="F113" s="315">
-        <f>F111+F112</f>
-        <v>124602.5262221765</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15">
-      <c r="E114" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F114" s="293" t="s">
-        <v>398</v>
-      </c>
-      <c r="G114" s="294" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15">
-      <c r="C115" s="287" t="s">
-        <v>452</v>
-      </c>
-      <c r="F115" s="293"/>
-      <c r="G115" s="3">
-        <f>G105</f>
-        <v>30700</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15">
-      <c r="C116">
-        <v>25000</v>
-      </c>
-      <c r="D116">
-        <v>12</v>
-      </c>
-      <c r="F116" s="293">
-        <f>D116*C116</f>
-        <v>300000</v>
-      </c>
-      <c r="G116" s="3">
-        <f>G115+F116</f>
-        <v>330700</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15">
-      <c r="F117" s="293"/>
-      <c r="G117" s="3">
-        <f>G116+F117</f>
-        <v>330700</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15">
-      <c r="F118" s="293"/>
-      <c r="G118" s="3">
-        <f t="shared" ref="G118:G120" si="5">G117+F118</f>
-        <v>330700</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15">
-      <c r="F119" s="293"/>
-      <c r="G119" s="3">
-        <f t="shared" si="5"/>
-        <v>330700</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15">
-      <c r="C120" s="299"/>
-      <c r="D120" s="290"/>
-      <c r="E120" s="290"/>
-      <c r="F120" s="291"/>
-      <c r="G120" s="3">
-        <f t="shared" si="5"/>
-        <v>330700</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15">
-      <c r="C121" s="299"/>
-      <c r="D121" s="290"/>
-      <c r="E121" s="290"/>
-      <c r="F121" s="291"/>
-      <c r="G121" s="3">
-        <f>G120-F121-E121</f>
-        <v>330700</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122">
-        <v>1</v>
-      </c>
-      <c r="B122" s="13">
-        <v>45534</v>
-      </c>
-      <c r="C122" t="s">
-        <v>441</v>
-      </c>
-      <c r="D122" s="310" t="s">
-        <v>459</v>
-      </c>
-      <c r="E122" s="302">
-        <v>15000</v>
-      </c>
-      <c r="G122" s="3">
-        <f t="shared" ref="G122:G135" si="6">G121-F122-E122</f>
-        <v>315700</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123">
-        <v>2</v>
-      </c>
-      <c r="B123" s="13">
-        <v>45565</v>
-      </c>
-      <c r="C123" t="s">
-        <v>440</v>
-      </c>
-      <c r="D123" s="310" t="s">
-        <v>459</v>
-      </c>
-      <c r="E123" s="302">
-        <v>15000</v>
-      </c>
-      <c r="G123" s="3">
-        <f t="shared" si="6"/>
-        <v>300700</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124">
-        <v>3</v>
-      </c>
-      <c r="B124" s="13">
-        <v>45595</v>
-      </c>
-      <c r="C124" t="s">
-        <v>460</v>
-      </c>
-      <c r="D124" s="310" t="s">
-        <v>459</v>
-      </c>
-      <c r="E124" s="302">
-        <v>15000</v>
-      </c>
-      <c r="G124" s="3">
-        <f t="shared" si="6"/>
-        <v>285700</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125">
-        <v>4</v>
-      </c>
-      <c r="B125" s="13">
-        <v>45626</v>
-      </c>
-      <c r="C125" t="s">
-        <v>439</v>
-      </c>
-      <c r="D125" s="310" t="s">
-        <v>459</v>
-      </c>
-      <c r="E125" s="302">
-        <v>15000</v>
-      </c>
-      <c r="G125" s="3">
-        <f t="shared" si="6"/>
-        <v>270700</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126">
-        <v>5</v>
-      </c>
-      <c r="B126" s="13">
-        <v>45656</v>
-      </c>
-      <c r="C126" t="s">
-        <v>442</v>
-      </c>
-      <c r="E126" s="302">
-        <v>15000</v>
-      </c>
-      <c r="G126" s="3">
-        <f t="shared" si="6"/>
-        <v>255700</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127">
-        <v>6</v>
-      </c>
-      <c r="B127" s="13">
-        <v>45687</v>
-      </c>
-      <c r="C127" t="s">
-        <v>451</v>
-      </c>
-      <c r="E127" s="302">
-        <v>15000</v>
-      </c>
-      <c r="G127" s="3">
-        <f t="shared" si="6"/>
-        <v>240700</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15">
-      <c r="A128">
-        <v>7</v>
-      </c>
-      <c r="B128" s="13">
-        <v>45716</v>
-      </c>
-      <c r="C128" t="s">
-        <v>453</v>
-      </c>
-      <c r="E128" s="302">
-        <v>15000</v>
-      </c>
-      <c r="F128" s="300"/>
-      <c r="G128" s="3">
-        <f t="shared" si="6"/>
-        <v>225700</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129">
-        <v>8</v>
-      </c>
-      <c r="B129" s="13">
-        <v>45746</v>
-      </c>
-      <c r="C129" t="s">
-        <v>464</v>
-      </c>
-      <c r="E129" s="302">
-        <v>15000</v>
-      </c>
-      <c r="G129" s="3">
-        <f t="shared" si="6"/>
-        <v>210700</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130">
-        <v>9</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="C130" t="s">
-        <v>432</v>
-      </c>
-      <c r="E130" s="302"/>
-      <c r="G130" s="3">
-        <f t="shared" si="6"/>
-        <v>210700</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131">
-        <v>10</v>
-      </c>
-      <c r="B131" s="13">
-        <v>45807</v>
-      </c>
-      <c r="C131" t="s">
-        <v>432</v>
-      </c>
-      <c r="G131" s="3">
-        <f t="shared" si="6"/>
-        <v>210700</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132">
-        <v>11</v>
-      </c>
-      <c r="B132" s="13">
-        <v>45838</v>
-      </c>
-      <c r="C132" t="s">
-        <v>432</v>
-      </c>
-      <c r="G132" s="3">
-        <f t="shared" si="6"/>
-        <v>210700</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133">
-        <v>12</v>
-      </c>
-      <c r="B133" s="13">
-        <v>45868</v>
-      </c>
-      <c r="C133" t="s">
-        <v>432</v>
-      </c>
-      <c r="G133" s="3">
-        <f t="shared" si="6"/>
-        <v>210700</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="G134" s="3">
-        <f t="shared" si="6"/>
-        <v>210700</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="C135" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G135" s="3">
-        <f t="shared" si="6"/>
-        <v>210700</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15">
-      <c r="D136" s="83" t="s">
-        <v>463</v>
-      </c>
-      <c r="E136" s="309">
-        <f>SUM(E122:E135)</f>
-        <v>120000</v>
-      </c>
-      <c r="F136" s="309"/>
-      <c r="G136" s="292">
-        <f>E136/F109</f>
-        <v>5.4288816503800215</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="C137" t="s">
-        <v>445</v>
-      </c>
-      <c r="G137" s="278">
-        <f>SUM(E8:E135)</f>
-        <v>159500</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="C138" t="s">
-        <v>446</v>
-      </c>
-      <c r="G138" s="278">
-        <f>SUM(F8)+F25+F59+F83+F113</f>
-        <v>311791.01744203252</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="C139" t="s">
-        <v>447</v>
-      </c>
-      <c r="G139" s="278">
-        <f>G138-G137</f>
-        <v>152291.01744203252</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="C141" t="s">
-        <v>455</v>
-      </c>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="B142" s="308">
-        <v>45728</v>
-      </c>
-      <c r="C142" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="B143" s="308">
-        <v>45777</v>
-      </c>
-      <c r="C143" t="s">
-        <v>457</v>
-      </c>
-      <c r="G143" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="C144" t="s">
-        <v>458</v>
-      </c>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145" spans="2:7">
-      <c r="G145" s="3"/>
-    </row>
-    <row r="146" spans="2:7">
-      <c r="B146" s="308">
-        <v>45740</v>
-      </c>
-      <c r="C146" t="s">
-        <v>461</v>
-      </c>
-      <c r="G146" s="3"/>
-    </row>
-    <row r="147" spans="2:7">
-      <c r="C147" t="s">
-        <v>462</v>
-      </c>
-      <c r="G147" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -8507,11 +10092,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I15" sqref="I15:O24"/>
     </sheetView>
   </sheetViews>
@@ -10089,7 +11674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
@@ -11128,11 +12713,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMJ183"/>
+  <dimension ref="A1:AMJ184"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A129" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -11148,10 +12735,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="11.25" customHeight="1">
       <c r="D1" s="100"/>
-      <c r="E1" s="311">
+      <c r="E1" s="312">
         <v>45233</v>
       </c>
-      <c r="F1" s="311"/>
+      <c r="F1" s="312"/>
     </row>
     <row r="2" spans="1:6" ht="11.25" customHeight="1">
       <c r="B2" s="101" t="s">
@@ -11193,77 +12780,69 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A5" s="108">
+      <c r="B5" s="101"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="107"/>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A6" s="108">
         <v>38253</v>
       </c>
-      <c r="B5" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="100">
-        <v>90</v>
-      </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="100">
-        <f t="shared" ref="F5:F24" si="0">F4+D5+E5</f>
-        <v>17165.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="11.25" customHeight="1">
       <c r="B6" s="99" t="s">
         <v>160</v>
       </c>
       <c r="D6" s="100">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E6" s="102"/>
       <c r="F6" s="100">
-        <f t="shared" si="0"/>
-        <v>17210.75</v>
+        <f>F4+D6+E6</f>
+        <v>17165.75</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1">
       <c r="B7" s="99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="100">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E7" s="102"/>
       <c r="F7" s="100">
-        <f t="shared" si="0"/>
-        <v>17215.75</v>
+        <f t="shared" ref="F7:F25" si="0">F6+D7+E7</f>
+        <v>17210.75</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1">
       <c r="B8" s="99" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D8" s="100">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E8" s="102"/>
       <c r="F8" s="100">
         <f t="shared" si="0"/>
-        <v>17251.75</v>
+        <v>17215.75</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B9" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="109">
-        <v>725</v>
+      <c r="B9" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="100">
+        <v>36</v>
       </c>
       <c r="E9" s="102"/>
       <c r="F9" s="100">
         <f t="shared" si="0"/>
-        <v>17976.75</v>
+        <v>17251.75</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1">
       <c r="B10" s="101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="101"/>
       <c r="D10" s="109">
@@ -11272,12 +12851,12 @@
       <c r="E10" s="102"/>
       <c r="F10" s="100">
         <f t="shared" si="0"/>
-        <v>18701.75</v>
+        <v>17976.75</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1">
       <c r="B11" s="101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="101"/>
       <c r="D11" s="109">
@@ -11286,80 +12865,80 @@
       <c r="E11" s="102"/>
       <c r="F11" s="100">
         <f t="shared" si="0"/>
-        <v>19426.75</v>
+        <v>18701.75</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1">
       <c r="B12" s="101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="101"/>
       <c r="D12" s="109">
-        <v>1200</v>
+        <v>725</v>
       </c>
       <c r="E12" s="102"/>
       <c r="F12" s="100">
         <f t="shared" si="0"/>
-        <v>20626.75</v>
+        <v>19426.75</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1">
       <c r="B13" s="101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="101"/>
       <c r="D13" s="109">
-        <v>725</v>
+        <v>1200</v>
       </c>
       <c r="E13" s="102"/>
       <c r="F13" s="100">
         <f t="shared" si="0"/>
-        <v>21351.75</v>
+        <v>20626.75</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B14" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="100">
-        <v>65</v>
+      <c r="B14" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="109">
+        <v>725</v>
       </c>
       <c r="E14" s="102"/>
       <c r="F14" s="100">
         <f t="shared" si="0"/>
-        <v>21416.75</v>
+        <v>21351.75</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1">
       <c r="B15" s="99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="100">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="E15" s="102"/>
       <c r="F15" s="100">
         <f t="shared" si="0"/>
-        <v>21816.75</v>
+        <v>21416.75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B16" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="109">
-        <v>725</v>
+      <c r="B16" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="100">
+        <v>400</v>
       </c>
       <c r="E16" s="102"/>
       <c r="F16" s="100">
         <f t="shared" si="0"/>
-        <v>22541.75</v>
+        <v>21816.75</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1">
       <c r="B17" s="101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="101"/>
       <c r="D17" s="109">
@@ -11368,130 +12947,138 @@
       <c r="E17" s="102"/>
       <c r="F17" s="100">
         <f t="shared" si="0"/>
-        <v>23266.75</v>
+        <v>22541.75</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1">
       <c r="B18" s="101" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C18" s="101"/>
       <c r="D18" s="109">
-        <v>4500</v>
+        <v>725</v>
       </c>
       <c r="E18" s="102"/>
       <c r="F18" s="100">
         <f t="shared" si="0"/>
-        <v>27766.75</v>
+        <v>23266.75</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="108">
-        <v>38328</v>
-      </c>
       <c r="B19" s="101" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="101">
-        <v>1</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C19" s="101"/>
       <c r="D19" s="109">
-        <v>2426</v>
+        <v>4500</v>
       </c>
       <c r="E19" s="102"/>
       <c r="F19" s="100">
         <f t="shared" si="0"/>
-        <v>30192.75</v>
+        <v>27766.75</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A20" s="108">
+        <v>38328</v>
+      </c>
       <c r="B20" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="101"/>
+        <v>171</v>
+      </c>
+      <c r="C20" s="101">
+        <v>1</v>
+      </c>
       <c r="D20" s="109">
-        <v>1520</v>
+        <v>2426</v>
       </c>
       <c r="E20" s="102"/>
       <c r="F20" s="100">
         <f t="shared" si="0"/>
-        <v>31712.75</v>
+        <v>30192.75</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B21" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="102">
-        <v>-2000</v>
-      </c>
+      <c r="B21" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="101"/>
+      <c r="D21" s="109">
+        <v>1520</v>
+      </c>
+      <c r="E21" s="102"/>
       <c r="F21" s="100">
         <f t="shared" si="0"/>
-        <v>29712.75</v>
+        <v>31712.75</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1">
       <c r="B22" s="99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" s="100"/>
       <c r="E22" s="102">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="F22" s="100">
         <f t="shared" si="0"/>
-        <v>26712.75</v>
+        <v>29712.75</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="11.25" customHeight="1">
       <c r="B23" s="99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="100"/>
       <c r="E23" s="102">
-        <v>-3750</v>
+        <v>-3000</v>
       </c>
       <c r="F23" s="100">
         <f t="shared" si="0"/>
-        <v>22962.75</v>
+        <v>26712.75</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A24" s="108">
-        <v>38352</v>
-      </c>
       <c r="B24" s="99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24" s="100"/>
       <c r="E24" s="102">
-        <v>-1960</v>
+        <v>-3750</v>
       </c>
       <c r="F24" s="100">
         <f t="shared" si="0"/>
+        <v>22962.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A25" s="108">
+        <v>38352</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="100"/>
+      <c r="E25" s="102">
+        <v>-1960</v>
+      </c>
+      <c r="F25" s="100">
+        <f t="shared" si="0"/>
         <v>21002.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A25" s="108"/>
-      <c r="C25" s="110" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="107">
-        <f>SUM(D5:D24)</f>
-        <v>14637</v>
-      </c>
-      <c r="E25" s="111">
-        <f>SUM(E5:E24)</f>
-        <v>-10710</v>
-      </c>
-      <c r="F25" s="100"/>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1">
       <c r="A26" s="108"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="102"/>
+      <c r="C26" s="110" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="107">
+        <f>SUM(D6:D25)</f>
+        <v>14637</v>
+      </c>
+      <c r="E26" s="111">
+        <f>SUM(E6:E25)</f>
+        <v>-10710</v>
+      </c>
       <c r="F26" s="100"/>
     </row>
     <row r="27" spans="1:6" ht="11.25" customHeight="1">
@@ -11501,139 +13088,128 @@
       <c r="F27" s="100"/>
     </row>
     <row r="28" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A28" s="103">
+      <c r="A28" s="108"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="100"/>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A29" s="103">
         <v>2005</v>
       </c>
-      <c r="B28" s="104"/>
-      <c r="C28" s="103" t="s">
+      <c r="B29" s="104"/>
+      <c r="C29" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="105" t="s">
+      <c r="D29" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="106" t="s">
+      <c r="E29" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="105" t="s">
+      <c r="F29" s="105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A29" s="108"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="112" t="s">
+    <row r="30" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A30" s="108"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="100">
-        <f>F24</f>
+      <c r="F30" s="100">
+        <f>F25</f>
         <v>21002.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A30" s="108">
-        <v>38366</v>
-      </c>
-      <c r="B30" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="101">
-        <v>2</v>
-      </c>
-      <c r="D30" s="109">
-        <v>677</v>
-      </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="100">
-        <f t="shared" ref="F30:F66" si="1">F29+D30+E30</f>
-        <v>21679.75</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="11.25" customHeight="1">
       <c r="A31" s="108">
-        <v>38369</v>
+        <v>38366</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C31" s="101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="109">
-        <v>2466.3200000000002</v>
+        <v>677</v>
       </c>
       <c r="E31" s="102"/>
       <c r="F31" s="100">
-        <f t="shared" si="1"/>
-        <v>24146.07</v>
+        <f t="shared" ref="F31:F67" si="1">F30+D31+E31</f>
+        <v>21679.75</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="11.25" customHeight="1">
       <c r="A32" s="108">
-        <v>38378</v>
-      </c>
-      <c r="B32" s="99" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" s="100">
-        <v>200</v>
+        <v>38369</v>
+      </c>
+      <c r="B32" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="101">
+        <v>3</v>
+      </c>
+      <c r="D32" s="109">
+        <v>2466.3200000000002</v>
       </c>
       <c r="E32" s="102"/>
       <c r="F32" s="100">
         <f t="shared" si="1"/>
-        <v>24346.07</v>
+        <v>24146.07</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A33" s="108"/>
+      <c r="A33" s="108">
+        <v>38378</v>
+      </c>
       <c r="B33" s="99" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D33" s="100">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E33" s="102"/>
       <c r="F33" s="100">
         <f t="shared" si="1"/>
-        <v>24486.07</v>
+        <v>24346.07</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="11.25" customHeight="1">
       <c r="A34" s="108"/>
       <c r="B34" s="99" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D34" s="100">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="E34" s="102"/>
       <c r="F34" s="100">
         <f t="shared" si="1"/>
-        <v>25486.07</v>
+        <v>24486.07</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A35" s="108">
-        <v>38383</v>
-      </c>
-      <c r="B35" s="101" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="109">
-        <v>760</v>
+      <c r="A35" s="108"/>
+      <c r="B35" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="100">
+        <v>1000</v>
       </c>
       <c r="E35" s="102"/>
       <c r="F35" s="100">
         <f t="shared" si="1"/>
-        <v>26246.07</v>
+        <v>25486.07</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="11.25" customHeight="1">
       <c r="A36" s="108">
-        <v>38411</v>
+        <v>38383</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="101"/>
       <c r="D36" s="109">
@@ -11642,45 +13218,43 @@
       <c r="E36" s="102"/>
       <c r="F36" s="100">
         <f t="shared" si="1"/>
-        <v>27006.07</v>
+        <v>26246.07</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="11.25" customHeight="1">
       <c r="A37" s="108">
-        <v>38421</v>
+        <v>38411</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="101">
-        <v>4</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C37" s="101"/>
       <c r="D37" s="109">
-        <v>2568.86</v>
+        <v>760</v>
       </c>
       <c r="E37" s="102"/>
       <c r="F37" s="100">
         <f t="shared" si="1"/>
-        <v>29574.93</v>
+        <v>27006.07</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
       <c r="A38" s="108">
-        <v>38422</v>
+        <v>38421</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C38" s="101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="109">
-        <v>2414.08</v>
+        <v>2568.86</v>
       </c>
       <c r="E38" s="102"/>
       <c r="F38" s="100">
         <f t="shared" si="1"/>
-        <v>31989.010000000002</v>
+        <v>29574.93</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="11.25" customHeight="1">
@@ -11688,144 +13262,144 @@
         <v>38422</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="109">
-        <v>2279.2399999999998</v>
+        <v>2414.08</v>
       </c>
       <c r="E39" s="102"/>
       <c r="F39" s="100">
         <f t="shared" si="1"/>
-        <v>34268.25</v>
+        <v>31989.010000000002</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="11.25" customHeight="1">
       <c r="A40" s="108">
-        <v>38442</v>
+        <v>38422</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="101"/>
+        <v>186</v>
+      </c>
+      <c r="C40" s="101">
+        <v>6</v>
+      </c>
       <c r="D40" s="109">
-        <v>742</v>
+        <v>2279.2399999999998</v>
       </c>
       <c r="E40" s="102"/>
       <c r="F40" s="100">
         <f t="shared" si="1"/>
-        <v>35010.25</v>
+        <v>34268.25</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A41" s="108"/>
-      <c r="B41" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="100">
-        <v>65</v>
+      <c r="A41" s="108">
+        <v>38442</v>
+      </c>
+      <c r="B41" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="101"/>
+      <c r="D41" s="109">
+        <v>742</v>
       </c>
       <c r="E41" s="102"/>
       <c r="F41" s="100">
         <f t="shared" si="1"/>
-        <v>35075.25</v>
+        <v>35010.25</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="11.25" customHeight="1">
       <c r="A42" s="108"/>
       <c r="B42" s="99" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D42" s="100">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E42" s="102"/>
       <c r="F42" s="100">
         <f t="shared" si="1"/>
-        <v>35080.25</v>
+        <v>35075.25</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A43" s="108">
-        <v>38472</v>
-      </c>
-      <c r="B43" s="101" t="s">
-        <v>189</v>
-      </c>
-      <c r="C43" s="101"/>
-      <c r="D43" s="109">
-        <v>742</v>
+      <c r="A43" s="108"/>
+      <c r="B43" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="100">
+        <v>5</v>
       </c>
       <c r="E43" s="102"/>
       <c r="F43" s="100">
         <f t="shared" si="1"/>
-        <v>35822.25</v>
+        <v>35080.25</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A44" s="108"/>
-      <c r="B44" s="99" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" s="100">
-        <v>10</v>
+      <c r="A44" s="108">
+        <v>38472</v>
+      </c>
+      <c r="B44" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="101"/>
+      <c r="D44" s="109">
+        <v>742</v>
       </c>
       <c r="E44" s="102"/>
       <c r="F44" s="100">
         <f t="shared" si="1"/>
-        <v>35832.25</v>
+        <v>35822.25</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="11.25" customHeight="1">
       <c r="A45" s="108"/>
       <c r="B45" s="99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" s="100">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E45" s="102"/>
       <c r="F45" s="100">
         <f t="shared" si="1"/>
-        <v>35835.25</v>
+        <v>35832.25</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A46" s="108">
-        <v>38503</v>
-      </c>
-      <c r="B46" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="109">
-        <v>750</v>
+      <c r="A46" s="108"/>
+      <c r="B46" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="100">
+        <v>3</v>
       </c>
       <c r="E46" s="102"/>
       <c r="F46" s="100">
         <f t="shared" si="1"/>
-        <v>36585.25</v>
+        <v>35835.25</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="11.25" customHeight="1">
       <c r="A47" s="108">
-        <v>38506</v>
+        <v>38503</v>
       </c>
       <c r="B47" s="101" t="s">
-        <v>193</v>
-      </c>
-      <c r="C47" s="101">
-        <v>7</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C47" s="101"/>
       <c r="D47" s="109">
-        <v>2547.8000000000002</v>
+        <v>750</v>
       </c>
       <c r="E47" s="102"/>
       <c r="F47" s="100">
         <f t="shared" si="1"/>
-        <v>39133.050000000003</v>
+        <v>36585.25</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="11.25" customHeight="1">
@@ -11833,51 +13407,51 @@
         <v>38506</v>
       </c>
       <c r="B48" s="101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" s="101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="109">
-        <v>2392.65</v>
+        <v>2547.8000000000002</v>
       </c>
       <c r="E48" s="102"/>
       <c r="F48" s="100">
         <f t="shared" si="1"/>
-        <v>41525.700000000004</v>
+        <v>39133.050000000003</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A49" s="108"/>
-      <c r="B49" s="99" t="s">
-        <v>195</v>
-      </c>
-      <c r="D49" s="100">
-        <v>116</v>
+      <c r="A49" s="108">
+        <v>38506</v>
+      </c>
+      <c r="B49" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="101">
+        <v>8</v>
+      </c>
+      <c r="D49" s="109">
+        <v>2392.65</v>
       </c>
       <c r="E49" s="102"/>
       <c r="F49" s="100">
         <f t="shared" si="1"/>
-        <v>41641.700000000004</v>
+        <v>41525.700000000004</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A50" s="108">
-        <v>38582</v>
-      </c>
-      <c r="B50" s="101" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="101">
-        <v>10</v>
-      </c>
-      <c r="D50" s="109">
-        <v>7455.35</v>
+      <c r="A50" s="108"/>
+      <c r="B50" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="100">
+        <v>116</v>
       </c>
       <c r="E50" s="102"/>
       <c r="F50" s="100">
         <f t="shared" si="1"/>
-        <v>49097.05</v>
+        <v>41641.700000000004</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="11.25" customHeight="1">
@@ -11888,72 +13462,72 @@
         <v>196</v>
       </c>
       <c r="C51" s="101">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="109">
-        <v>80.73</v>
+        <v>7455.35</v>
       </c>
       <c r="E51" s="102"/>
       <c r="F51" s="100">
         <f t="shared" si="1"/>
-        <v>49177.780000000006</v>
+        <v>49097.05</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A52" s="113">
+      <c r="A52" s="108">
         <v>38582</v>
       </c>
-      <c r="B52" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="114">
-        <v>9</v>
-      </c>
-      <c r="D52" s="115">
-        <v>10861.5</v>
+      <c r="B52" s="101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="101">
+        <v>11</v>
+      </c>
+      <c r="D52" s="109">
+        <v>80.73</v>
       </c>
       <c r="E52" s="102"/>
       <c r="F52" s="100">
         <f t="shared" si="1"/>
-        <v>60039.280000000006</v>
+        <v>49177.780000000006</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A53" s="108">
-        <v>38477</v>
-      </c>
-      <c r="B53" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="99">
-        <v>12</v>
-      </c>
-      <c r="D53" s="100">
-        <v>1500</v>
+      <c r="A53" s="113">
+        <v>38582</v>
+      </c>
+      <c r="B53" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="114">
+        <v>9</v>
+      </c>
+      <c r="D53" s="115">
+        <v>10861.5</v>
       </c>
       <c r="E53" s="102"/>
       <c r="F53" s="100">
         <f t="shared" si="1"/>
-        <v>61539.280000000006</v>
+        <v>60039.280000000006</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="11.25" customHeight="1">
       <c r="A54" s="108">
-        <v>38603</v>
-      </c>
-      <c r="B54" s="101" t="s">
-        <v>199</v>
-      </c>
-      <c r="C54" s="101">
-        <v>13</v>
-      </c>
-      <c r="D54" s="109">
-        <v>2494.27</v>
+        <v>38477</v>
+      </c>
+      <c r="B54" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="99">
+        <v>12</v>
+      </c>
+      <c r="D54" s="100">
+        <v>1500</v>
       </c>
       <c r="E54" s="102"/>
       <c r="F54" s="100">
         <f t="shared" si="1"/>
-        <v>64033.55</v>
+        <v>61539.280000000006</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="11.25" customHeight="1">
@@ -11961,18 +13535,18 @@
         <v>38603</v>
       </c>
       <c r="B55" s="101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C55" s="101">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="109">
-        <v>2379.15</v>
+        <v>2494.27</v>
       </c>
       <c r="E55" s="102"/>
       <c r="F55" s="100">
         <f t="shared" si="1"/>
-        <v>66412.7</v>
+        <v>64033.55</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="11.25" customHeight="1">
@@ -11980,79 +13554,79 @@
         <v>38603</v>
       </c>
       <c r="B56" s="101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C56" s="101">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="109">
-        <v>2623.01</v>
+        <v>2379.15</v>
       </c>
       <c r="E56" s="102"/>
       <c r="F56" s="100">
         <f t="shared" si="1"/>
-        <v>69035.709999999992</v>
+        <v>66412.7</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A57" s="108"/>
-      <c r="B57" s="99" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" s="100">
-        <v>3900</v>
+      <c r="A57" s="108">
+        <v>38603</v>
+      </c>
+      <c r="B57" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="101">
+        <v>15</v>
+      </c>
+      <c r="D57" s="109">
+        <v>2623.01</v>
       </c>
       <c r="E57" s="102"/>
       <c r="F57" s="100">
         <f t="shared" si="1"/>
-        <v>72935.709999999992</v>
+        <v>69035.709999999992</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="11.25" customHeight="1">
       <c r="A58" s="108"/>
       <c r="B58" s="99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D58" s="100">
-        <v>3540</v>
+        <v>3900</v>
       </c>
       <c r="E58" s="102"/>
       <c r="F58" s="100">
         <f t="shared" si="1"/>
-        <v>76475.709999999992</v>
+        <v>72935.709999999992</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="11.25" customHeight="1">
       <c r="A59" s="108"/>
       <c r="B59" s="99" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" s="100"/>
-      <c r="E59" s="102">
-        <v>-7040</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D59" s="100">
+        <v>3540</v>
+      </c>
+      <c r="E59" s="102"/>
       <c r="F59" s="100">
         <f t="shared" si="1"/>
-        <v>69435.709999999992</v>
+        <v>76475.709999999992</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A60" s="108">
-        <v>38643</v>
-      </c>
-      <c r="B60" s="101" t="s">
-        <v>205</v>
-      </c>
-      <c r="C60" s="101">
-        <v>16</v>
-      </c>
-      <c r="D60" s="109">
-        <v>2421.46</v>
-      </c>
-      <c r="E60" s="102"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="100"/>
+      <c r="E60" s="102">
+        <v>-7040</v>
+      </c>
       <c r="F60" s="100">
         <f t="shared" si="1"/>
-        <v>71857.17</v>
+        <v>69435.709999999992</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="11.25" customHeight="1">
@@ -12060,116 +13634,129 @@
         <v>38643</v>
       </c>
       <c r="B61" s="101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="101">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="109">
-        <v>2309.5</v>
+        <v>2421.46</v>
       </c>
       <c r="E61" s="102"/>
       <c r="F61" s="100">
         <f t="shared" si="1"/>
-        <v>74166.67</v>
+        <v>71857.17</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="11.25" customHeight="1">
       <c r="A62" s="108">
         <v>38643</v>
       </c>
-      <c r="B62" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" s="99">
-        <v>18</v>
-      </c>
-      <c r="D62" s="100">
-        <v>10165</v>
+      <c r="B62" s="101" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="101">
+        <v>17</v>
+      </c>
+      <c r="D62" s="109">
+        <v>2309.5</v>
       </c>
       <c r="E62" s="102"/>
       <c r="F62" s="100">
         <f t="shared" si="1"/>
-        <v>84331.67</v>
+        <v>74166.67</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A63" s="108"/>
-      <c r="B63" s="101" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" s="101"/>
-      <c r="D63" s="109">
-        <v>500</v>
+      <c r="A63" s="108">
+        <v>38643</v>
+      </c>
+      <c r="B63" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="99">
+        <v>18</v>
+      </c>
+      <c r="D63" s="100">
+        <v>10165</v>
       </c>
       <c r="E63" s="102"/>
       <c r="F63" s="100">
         <f t="shared" si="1"/>
-        <v>84831.67</v>
+        <v>84331.67</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="11.25" customHeight="1">
       <c r="A64" s="108"/>
-      <c r="B64" s="99" t="s">
-        <v>209</v>
-      </c>
-      <c r="D64" s="100">
-        <v>30</v>
+      <c r="B64" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="101"/>
+      <c r="D64" s="109">
+        <v>500</v>
       </c>
       <c r="E64" s="102"/>
       <c r="F64" s="100">
         <f t="shared" si="1"/>
-        <v>84861.67</v>
+        <v>84831.67</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="11.25" customHeight="1">
       <c r="A65" s="108"/>
-      <c r="B65" s="101" t="s">
-        <v>208</v>
-      </c>
-      <c r="C65" s="101"/>
-      <c r="D65" s="109">
-        <v>105</v>
+      <c r="B65" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="100">
+        <v>30</v>
       </c>
       <c r="E65" s="102"/>
       <c r="F65" s="100">
         <f t="shared" si="1"/>
-        <v>84966.67</v>
+        <v>84861.67</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="11.25" customHeight="1">
       <c r="A66" s="108"/>
-      <c r="B66" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="D66" s="100">
-        <v>1000</v>
+      <c r="B66" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="101"/>
+      <c r="D66" s="109">
+        <v>105</v>
       </c>
       <c r="E66" s="102"/>
       <c r="F66" s="100">
         <f t="shared" si="1"/>
-        <v>85966.67</v>
+        <v>84966.67</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="11.25" customHeight="1">
       <c r="A67" s="108"/>
-      <c r="C67" s="110" t="s">
-        <v>211</v>
-      </c>
-      <c r="D67" s="107">
-        <f>SUM(D30:D66)</f>
-        <v>72003.92</v>
-      </c>
-      <c r="E67" s="111">
-        <f>SUM(E30:E66)</f>
-        <v>-7040</v>
-      </c>
-      <c r="F67" s="100"/>
+      <c r="B67" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" s="100">
+        <v>1000</v>
+      </c>
+      <c r="E67" s="102"/>
+      <c r="F67" s="100">
+        <f t="shared" si="1"/>
+        <v>85966.67</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="11.25" customHeight="1">
       <c r="A68" s="108"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="102"/>
+      <c r="C68" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="107">
+        <f>SUM(D31:D67)</f>
+        <v>72003.92</v>
+      </c>
+      <c r="E68" s="111">
+        <f>SUM(E31:E67)</f>
+        <v>-7040</v>
+      </c>
       <c r="F68" s="100"/>
     </row>
     <row r="69" spans="1:6" ht="11.25" customHeight="1">
@@ -12185,109 +13772,96 @@
       <c r="F70" s="100"/>
     </row>
     <row r="71" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A71" s="103">
+      <c r="A71" s="108"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="100"/>
+    </row>
+    <row r="72" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A72" s="103">
         <v>2006</v>
       </c>
-      <c r="B71" s="104"/>
-      <c r="C71" s="103" t="s">
+      <c r="B72" s="104"/>
+      <c r="C72" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="D71" s="105" t="s">
+      <c r="D72" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="106" t="s">
+      <c r="E72" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="F71" s="105" t="s">
+      <c r="F72" s="105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A72" s="108"/>
-      <c r="D72" s="100"/>
-      <c r="E72" s="112" t="s">
+    <row r="73" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A73" s="108"/>
+      <c r="D73" s="100"/>
+      <c r="E73" s="112" t="s">
         <v>212</v>
       </c>
-      <c r="F72" s="109">
-        <f>F66</f>
+      <c r="F73" s="109">
+        <f>F67</f>
         <v>85966.67</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A73" s="99">
+    <row r="74" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A74" s="99">
         <v>2006</v>
       </c>
-      <c r="B73" s="99" t="s">
+      <c r="B74" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="D73" s="100">
+      <c r="D74" s="100">
         <v>3150</v>
-      </c>
-      <c r="E73" s="102"/>
-      <c r="F73" s="100">
-        <f t="shared" ref="F73:F104" si="2">F72+D73+E73</f>
-        <v>89116.67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A74" s="108"/>
-      <c r="B74" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="100">
-        <v>200</v>
       </c>
       <c r="E74" s="102"/>
       <c r="F74" s="100">
-        <f t="shared" si="2"/>
-        <v>89316.67</v>
+        <f t="shared" ref="F74:F105" si="2">F73+D74+E74</f>
+        <v>89116.67</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="11.25" customHeight="1">
       <c r="A75" s="108"/>
       <c r="B75" s="99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="100">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="E75" s="102"/>
       <c r="F75" s="100">
         <f t="shared" si="2"/>
-        <v>89365.67</v>
+        <v>89316.67</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="11.25" customHeight="1">
       <c r="A76" s="108"/>
       <c r="B76" s="99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="100">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="E76" s="102"/>
       <c r="F76" s="100">
         <f t="shared" si="2"/>
-        <v>89480.67</v>
+        <v>89365.67</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A77" s="108">
-        <v>38762</v>
-      </c>
-      <c r="B77" s="101" t="s">
-        <v>217</v>
-      </c>
-      <c r="C77" s="101">
-        <v>19</v>
-      </c>
-      <c r="D77" s="109">
-        <v>2755</v>
+      <c r="A77" s="108"/>
+      <c r="B77" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="100">
+        <v>115</v>
       </c>
       <c r="E77" s="102"/>
       <c r="F77" s="100">
         <f t="shared" si="2"/>
-        <v>92235.67</v>
+        <v>89480.67</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="11.25" customHeight="1">
@@ -12295,18 +13869,18 @@
         <v>38762</v>
       </c>
       <c r="B78" s="101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C78" s="101">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78" s="109">
-        <v>2399.2399999999998</v>
+        <v>2755</v>
       </c>
       <c r="E78" s="102"/>
       <c r="F78" s="100">
         <f t="shared" si="2"/>
-        <v>94634.91</v>
+        <v>92235.67</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="11.25" customHeight="1">
@@ -12314,18 +13888,18 @@
         <v>38762</v>
       </c>
       <c r="B79" s="101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="101">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D79" s="109">
-        <v>2298.65</v>
+        <v>2399.2399999999998</v>
       </c>
       <c r="E79" s="102"/>
       <c r="F79" s="100">
         <f t="shared" si="2"/>
-        <v>96933.56</v>
+        <v>94634.91</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="11.25" customHeight="1">
@@ -12333,18 +13907,18 @@
         <v>38762</v>
       </c>
       <c r="B80" s="101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C80" s="101">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" s="109">
-        <v>2489.14</v>
+        <v>2298.65</v>
       </c>
       <c r="E80" s="102"/>
       <c r="F80" s="100">
         <f t="shared" si="2"/>
-        <v>99422.7</v>
+        <v>96933.56</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="11.25" customHeight="1">
@@ -12352,18 +13926,18 @@
         <v>38762</v>
       </c>
       <c r="B81" s="101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C81" s="101">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D81" s="109">
-        <v>2580.3000000000002</v>
+        <v>2489.14</v>
       </c>
       <c r="E81" s="102"/>
       <c r="F81" s="100">
         <f t="shared" si="2"/>
-        <v>102003</v>
+        <v>99422.7</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="11.25" customHeight="1">
@@ -12371,229 +13945,234 @@
         <v>38762</v>
       </c>
       <c r="B82" s="101" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C82" s="101">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" s="109">
-        <v>30724.12</v>
+        <v>2580.3000000000002</v>
       </c>
       <c r="E82" s="102"/>
       <c r="F82" s="100">
         <f t="shared" si="2"/>
-        <v>132727.12</v>
+        <v>102003</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A83" s="108"/>
-      <c r="B83" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="100"/>
-      <c r="E83" s="102">
-        <v>-250</v>
-      </c>
+      <c r="A83" s="108">
+        <v>38762</v>
+      </c>
+      <c r="B83" s="101" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" s="101">
+        <v>24</v>
+      </c>
+      <c r="D83" s="109">
+        <v>30724.12</v>
+      </c>
+      <c r="E83" s="102"/>
       <c r="F83" s="100">
         <f t="shared" si="2"/>
-        <v>132477.12</v>
+        <v>132727.12</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="11.25" customHeight="1">
       <c r="A84" s="108"/>
       <c r="B84" s="99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D84" s="100"/>
       <c r="E84" s="102">
-        <v>-30</v>
+        <v>-250</v>
       </c>
       <c r="F84" s="100">
         <f t="shared" si="2"/>
-        <v>132447.12</v>
+        <v>132477.12</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="11.25" customHeight="1">
       <c r="A85" s="108"/>
       <c r="B85" s="99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D85" s="100"/>
       <c r="E85" s="102">
-        <v>-603</v>
+        <v>-30</v>
       </c>
       <c r="F85" s="100">
         <f t="shared" si="2"/>
-        <v>131844.12</v>
+        <v>132447.12</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="11.25" customHeight="1">
       <c r="A86" s="108"/>
       <c r="B86" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="100">
-        <v>208</v>
-      </c>
-      <c r="E86" s="102"/>
+        <v>225</v>
+      </c>
+      <c r="D86" s="100"/>
+      <c r="E86" s="102">
+        <v>-603</v>
+      </c>
       <c r="F86" s="100">
         <f t="shared" si="2"/>
-        <v>132052.12</v>
+        <v>131844.12</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="11.25" customHeight="1">
       <c r="A87" s="108"/>
       <c r="B87" s="99" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="D87" s="100">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E87" s="102"/>
       <c r="F87" s="100">
         <f t="shared" si="2"/>
-        <v>132268.12</v>
+        <v>132052.12</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="11.25" customHeight="1">
       <c r="A88" s="108"/>
       <c r="B88" s="99" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D88" s="100">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="E88" s="102"/>
       <c r="F88" s="100">
         <f t="shared" si="2"/>
-        <v>132432.12</v>
+        <v>132268.12</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="11.25" customHeight="1">
       <c r="A89" s="108"/>
       <c r="B89" s="99" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="D89" s="100">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="E89" s="102"/>
       <c r="F89" s="100">
         <f t="shared" si="2"/>
-        <v>132472.12</v>
+        <v>132432.12</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="11.25" customHeight="1">
       <c r="A90" s="108"/>
       <c r="B90" s="99" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="D90" s="100">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="E90" s="102"/>
       <c r="F90" s="100">
         <f t="shared" si="2"/>
-        <v>132580.12</v>
+        <v>132472.12</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="11.25" customHeight="1">
       <c r="A91" s="108"/>
       <c r="B91" s="99" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" s="100"/>
-      <c r="E91" s="102">
-        <v>-8908</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D91" s="100">
+        <v>108</v>
+      </c>
+      <c r="E91" s="102"/>
       <c r="F91" s="100">
         <f t="shared" si="2"/>
-        <v>123672.12</v>
+        <v>132580.12</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="11.25" customHeight="1">
       <c r="A92" s="108"/>
-      <c r="B92" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="C92" s="101"/>
-      <c r="D92" s="109">
-        <v>28</v>
-      </c>
-      <c r="E92" s="102"/>
+      <c r="B92" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" s="100"/>
+      <c r="E92" s="102">
+        <v>-8908</v>
+      </c>
       <c r="F92" s="100">
         <f t="shared" si="2"/>
-        <v>123700.12</v>
+        <v>123672.12</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="11.25" customHeight="1">
       <c r="A93" s="108"/>
-      <c r="B93" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="D93" s="100">
-        <v>5000</v>
+      <c r="B93" s="101" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" s="101"/>
+      <c r="D93" s="109">
+        <v>28</v>
       </c>
       <c r="E93" s="102"/>
       <c r="F93" s="100">
         <f t="shared" si="2"/>
-        <v>128700.12</v>
+        <v>123700.12</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="11.25" customHeight="1">
       <c r="A94" s="108"/>
       <c r="B94" s="99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D94" s="100">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="E94" s="102"/>
       <c r="F94" s="100">
         <f t="shared" si="2"/>
-        <v>129200.12</v>
+        <v>128700.12</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="11.25" customHeight="1">
       <c r="A95" s="108"/>
       <c r="B95" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="D95" s="100"/>
-      <c r="E95" s="102">
-        <v>-2500</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D95" s="100">
+        <v>500</v>
+      </c>
+      <c r="E95" s="102"/>
       <c r="F95" s="100">
         <f t="shared" si="2"/>
-        <v>126700.12</v>
+        <v>129200.12</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="11.25" customHeight="1">
       <c r="A96" s="108"/>
       <c r="B96" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="100">
-        <v>2500</v>
-      </c>
-      <c r="E96" s="102"/>
+        <v>231</v>
+      </c>
+      <c r="D96" s="100"/>
+      <c r="E96" s="102">
+        <v>-2500</v>
+      </c>
       <c r="F96" s="100">
         <f t="shared" si="2"/>
-        <v>129200.12</v>
+        <v>126700.12</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="11.25" customHeight="1">
       <c r="A97" s="108"/>
       <c r="B97" s="99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D97" s="100">
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="E97" s="102"/>
       <c r="F97" s="100">
         <f t="shared" si="2"/>
-        <v>129260.12</v>
+        <v>129200.12</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="11.25" customHeight="1">
@@ -12602,43 +14181,40 @@
         <v>233</v>
       </c>
       <c r="D98" s="100">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E98" s="102"/>
       <c r="F98" s="100">
         <f t="shared" si="2"/>
-        <v>129332.12</v>
+        <v>129260.12</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="11.25" customHeight="1">
       <c r="A99" s="108"/>
       <c r="B99" s="99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D99" s="100">
-        <v>7708</v>
+        <v>72</v>
       </c>
       <c r="E99" s="102"/>
       <c r="F99" s="100">
         <f t="shared" si="2"/>
-        <v>137040.12</v>
+        <v>129332.12</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A100" s="108">
-        <v>39007</v>
-      </c>
-      <c r="B100" s="101" t="s">
-        <v>235</v>
-      </c>
-      <c r="C100" s="101"/>
-      <c r="D100" s="109">
-        <v>172</v>
+      <c r="A100" s="108"/>
+      <c r="B100" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" s="100">
+        <v>7708</v>
       </c>
       <c r="E100" s="102"/>
       <c r="F100" s="100">
         <f t="shared" si="2"/>
-        <v>137212.12</v>
+        <v>137040.12</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="11.25" customHeight="1">
@@ -12650,26 +14226,29 @@
       </c>
       <c r="C101" s="101"/>
       <c r="D101" s="109">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="E101" s="102"/>
       <c r="F101" s="100">
         <f t="shared" si="2"/>
-        <v>137422.12</v>
+        <v>137212.12</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A102" s="108"/>
-      <c r="B102" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="D102" s="100"/>
-      <c r="E102" s="102">
-        <v>-25</v>
-      </c>
+      <c r="A102" s="108">
+        <v>39007</v>
+      </c>
+      <c r="B102" s="101" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="101"/>
+      <c r="D102" s="109">
+        <v>210</v>
+      </c>
+      <c r="E102" s="102"/>
       <c r="F102" s="100">
         <f t="shared" si="2"/>
-        <v>137397.12</v>
+        <v>137422.12</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="11.25" customHeight="1">
@@ -12679,69 +14258,69 @@
       </c>
       <c r="D103" s="100"/>
       <c r="E103" s="102">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="F103" s="100">
         <f t="shared" si="2"/>
-        <v>137384.12</v>
+        <v>137397.12</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="11.25" customHeight="1">
       <c r="A104" s="108"/>
       <c r="B104" s="99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D104" s="100"/>
       <c r="E104" s="102">
-        <v>-1000</v>
+        <v>-13</v>
       </c>
       <c r="F104" s="100">
         <f t="shared" si="2"/>
-        <v>136384.12</v>
+        <v>137384.12</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A105" s="108">
-        <v>39001</v>
-      </c>
+      <c r="A105" s="108"/>
       <c r="B105" s="99" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="D105" s="100"/>
       <c r="E105" s="102">
-        <v>-1274</v>
+        <v>-1000</v>
       </c>
       <c r="F105" s="100">
-        <f t="shared" ref="F105:F121" si="3">F104+D105+E105</f>
-        <v>135110.12</v>
+        <f t="shared" si="2"/>
+        <v>136384.12</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A106" s="108"/>
+      <c r="A106" s="108">
+        <v>39001</v>
+      </c>
       <c r="B106" s="99" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="D106" s="100"/>
       <c r="E106" s="102">
-        <v>-1000</v>
+        <v>-1274</v>
       </c>
       <c r="F106" s="100">
-        <f t="shared" si="3"/>
-        <v>134110.12</v>
+        <f t="shared" ref="F106:F122" si="3">F105+D106+E106</f>
+        <v>135110.12</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="11.25" customHeight="1">
       <c r="A107" s="108"/>
       <c r="B107" s="99" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D107" s="100"/>
       <c r="E107" s="102">
-        <v>-80</v>
+        <v>-1000</v>
       </c>
       <c r="F107" s="100">
         <f t="shared" si="3"/>
-        <v>134030.12</v>
+        <v>134110.12</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="11.25" customHeight="1">
@@ -12749,41 +14328,41 @@
       <c r="B108" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="D108" s="100">
-        <v>70</v>
-      </c>
-      <c r="E108" s="102"/>
+      <c r="D108" s="100"/>
+      <c r="E108" s="102">
+        <v>-80</v>
+      </c>
       <c r="F108" s="100">
         <f t="shared" si="3"/>
-        <v>134100.12</v>
+        <v>134030.12</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="11.25" customHeight="1">
       <c r="A109" s="108"/>
       <c r="B109" s="99" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D109" s="100">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E109" s="102"/>
       <c r="F109" s="100">
         <f t="shared" si="3"/>
-        <v>134160.12</v>
+        <v>134100.12</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="11.25" customHeight="1">
       <c r="A110" s="108"/>
       <c r="B110" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="D110" s="100"/>
-      <c r="E110" s="102">
-        <v>-34</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D110" s="100">
+        <v>60</v>
+      </c>
+      <c r="E110" s="102"/>
       <c r="F110" s="100">
         <f t="shared" si="3"/>
-        <v>134126.12</v>
+        <v>134160.12</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="11.25" customHeight="1">
@@ -12793,328 +14372,335 @@
       </c>
       <c r="D111" s="100"/>
       <c r="E111" s="102">
-        <v>-16</v>
+        <v>-34</v>
       </c>
       <c r="F111" s="100">
         <f t="shared" si="3"/>
-        <v>134110.12</v>
+        <v>134126.12</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="11.25" customHeight="1">
       <c r="A112" s="108"/>
       <c r="B112" s="99" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D112" s="100"/>
       <c r="E112" s="102">
-        <v>-50</v>
+        <v>-16</v>
       </c>
       <c r="F112" s="100">
         <f t="shared" si="3"/>
-        <v>134060.12</v>
+        <v>134110.12</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="11.25" customHeight="1">
       <c r="A113" s="108"/>
       <c r="B113" s="99" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D113" s="100"/>
       <c r="E113" s="102">
-        <v>-218</v>
+        <v>-50</v>
       </c>
       <c r="F113" s="100">
         <f t="shared" si="3"/>
-        <v>133842.12</v>
+        <v>134060.12</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="11.25" customHeight="1">
       <c r="A114" s="108"/>
-      <c r="B114" s="101" t="s">
-        <v>241</v>
-      </c>
-      <c r="C114" s="101"/>
-      <c r="D114" s="109">
-        <v>405</v>
-      </c>
-      <c r="E114" s="102"/>
+      <c r="B114" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="D114" s="100"/>
+      <c r="E114" s="102">
+        <v>-218</v>
+      </c>
       <c r="F114" s="100">
         <f t="shared" si="3"/>
-        <v>134247.12</v>
+        <v>133842.12</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="11.25" customHeight="1">
       <c r="A115" s="108"/>
       <c r="B115" s="101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C115" s="101"/>
       <c r="D115" s="109">
-        <v>900</v>
+        <v>405</v>
       </c>
       <c r="E115" s="102"/>
       <c r="F115" s="100">
         <f t="shared" si="3"/>
-        <v>135147.12</v>
+        <v>134247.12</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="11.25" customHeight="1">
       <c r="A116" s="108"/>
       <c r="B116" s="101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C116" s="101"/>
       <c r="D116" s="109">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="E116" s="102"/>
       <c r="F116" s="100">
         <f t="shared" si="3"/>
-        <v>136197.12</v>
+        <v>135147.12</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="11.25" customHeight="1">
       <c r="A117" s="108"/>
       <c r="B117" s="101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C117" s="101"/>
       <c r="D117" s="109">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="E117" s="102"/>
       <c r="F117" s="100">
         <f t="shared" si="3"/>
-        <v>137397.12</v>
+        <v>136197.12</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="11.25" customHeight="1">
       <c r="A118" s="108"/>
       <c r="B118" s="101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C118" s="101"/>
       <c r="D118" s="109">
-        <v>3365</v>
+        <v>1200</v>
       </c>
       <c r="E118" s="102"/>
       <c r="F118" s="100">
         <f t="shared" si="3"/>
-        <v>140762.12</v>
+        <v>137397.12</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="11.25" customHeight="1">
       <c r="A119" s="108"/>
       <c r="B119" s="101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C119" s="101"/>
       <c r="D119" s="109">
-        <v>3000</v>
+        <v>3365</v>
       </c>
       <c r="E119" s="102"/>
       <c r="F119" s="100">
         <f t="shared" si="3"/>
-        <v>143762.12</v>
+        <v>140762.12</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="11.25" customHeight="1">
       <c r="A120" s="108"/>
-      <c r="B120" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="D120" s="100"/>
-      <c r="E120" s="102">
-        <v>-204</v>
-      </c>
+      <c r="B120" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="101"/>
+      <c r="D120" s="109">
+        <v>3000</v>
+      </c>
+      <c r="E120" s="102"/>
       <c r="F120" s="100">
         <f t="shared" si="3"/>
-        <v>143558.12</v>
+        <v>143762.12</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="11.25" customHeight="1">
       <c r="A121" s="108"/>
       <c r="B121" s="99" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D121" s="100"/>
       <c r="E121" s="102">
-        <v>-25</v>
+        <v>-204</v>
       </c>
       <c r="F121" s="100">
         <f t="shared" si="3"/>
-        <v>143533.12</v>
+        <v>143558.12</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="11.25" customHeight="1">
       <c r="A122" s="108"/>
-      <c r="C122" s="110" t="s">
-        <v>248</v>
-      </c>
-      <c r="D122" s="107">
-        <f>SUM(D73:D121)</f>
-        <v>73796.45</v>
-      </c>
-      <c r="E122" s="111">
-        <f>SUM(E73:E121)</f>
-        <v>-16230</v>
-      </c>
-      <c r="F122" s="100"/>
+      <c r="B122" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="D122" s="100"/>
+      <c r="E122" s="102">
+        <v>-25</v>
+      </c>
+      <c r="F122" s="100">
+        <f t="shared" si="3"/>
+        <v>143533.12</v>
+      </c>
     </row>
     <row r="123" spans="1:6" ht="11.25" customHeight="1">
       <c r="A123" s="108"/>
-      <c r="C123" s="101"/>
-      <c r="D123" s="107"/>
-      <c r="E123" s="111"/>
+      <c r="C123" s="110" t="s">
+        <v>248</v>
+      </c>
+      <c r="D123" s="107">
+        <f>SUM(D74:D122)</f>
+        <v>73796.45</v>
+      </c>
+      <c r="E123" s="111">
+        <f>SUM(E74:E122)</f>
+        <v>-16230</v>
+      </c>
       <c r="F123" s="100"/>
     </row>
     <row r="124" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A124" s="116">
+      <c r="A124" s="108"/>
+      <c r="C124" s="101"/>
+      <c r="D124" s="107"/>
+      <c r="E124" s="111"/>
+      <c r="F124" s="100"/>
+    </row>
+    <row r="125" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A125" s="116">
         <v>2007</v>
       </c>
-      <c r="B124" s="104"/>
-      <c r="C124" s="103" t="s">
+      <c r="B125" s="104"/>
+      <c r="C125" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="D124" s="105" t="s">
+      <c r="D125" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="E124" s="106" t="s">
+      <c r="E125" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="F124" s="105" t="s">
+      <c r="F125" s="105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A125" s="108"/>
-      <c r="D125" s="100"/>
-      <c r="E125" s="102"/>
-      <c r="F125" s="100">
-        <f>F121</f>
+    <row r="126" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A126" s="108"/>
+      <c r="D126" s="100"/>
+      <c r="E126" s="102"/>
+      <c r="F126" s="100">
+        <f>F122</f>
         <v>143533.12</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A126" s="108">
+    <row r="127" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A127" s="108">
         <v>39092</v>
       </c>
-      <c r="B126" s="99" t="s">
+      <c r="B127" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="D126" s="100"/>
-      <c r="E126" s="102">
+      <c r="D127" s="100"/>
+      <c r="E127" s="102">
         <v>-500</v>
       </c>
-      <c r="F126" s="100">
-        <f t="shared" ref="F126:F132" si="4">F125+D126+E126</f>
+      <c r="F127" s="100">
+        <f t="shared" ref="F127:F133" si="4">F126+D127+E127</f>
         <v>143033.12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A127" s="108"/>
-      <c r="B127" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="D127" s="100">
-        <v>60</v>
-      </c>
-      <c r="E127" s="102"/>
-      <c r="F127" s="100">
-        <f t="shared" si="4"/>
-        <v>143093.12</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="11.25" customHeight="1">
       <c r="A128" s="108"/>
       <c r="B128" s="99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D128" s="100">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E128" s="102"/>
       <c r="F128" s="100">
         <f t="shared" si="4"/>
-        <v>143161.12</v>
+        <v>143093.12</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="11.25" customHeight="1">
       <c r="A129" s="108"/>
       <c r="B129" s="99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D129" s="100">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E129" s="102"/>
       <c r="F129" s="100">
         <f t="shared" si="4"/>
-        <v>143169.12</v>
+        <v>143161.12</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="11.25" customHeight="1">
       <c r="A130" s="108"/>
       <c r="B130" s="99" t="s">
-        <v>252</v>
-      </c>
-      <c r="D130" s="100"/>
-      <c r="E130" s="102">
-        <v>-20</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="D130" s="100">
+        <v>8</v>
+      </c>
+      <c r="E130" s="102"/>
       <c r="F130" s="100">
         <f t="shared" si="4"/>
-        <v>143149.12</v>
+        <v>143169.12</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="11.25" customHeight="1">
       <c r="A131" s="108"/>
       <c r="B131" s="99" t="s">
-        <v>209</v>
-      </c>
-      <c r="D131" s="100">
-        <v>8</v>
-      </c>
-      <c r="E131" s="102"/>
+        <v>252</v>
+      </c>
+      <c r="D131" s="100"/>
+      <c r="E131" s="102">
+        <v>-20</v>
+      </c>
       <c r="F131" s="100">
         <f t="shared" si="4"/>
-        <v>143157.12</v>
+        <v>143149.12</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="11.25" customHeight="1">
       <c r="A132" s="108"/>
       <c r="B132" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="D132" s="100">
+        <v>8</v>
+      </c>
+      <c r="E132" s="102"/>
+      <c r="F132" s="100">
+        <f t="shared" si="4"/>
+        <v>143157.12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A133" s="108"/>
+      <c r="B133" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="D132" s="100">
+      <c r="D133" s="100">
         <v>251</v>
       </c>
-      <c r="E132" s="102"/>
-      <c r="F132" s="109">
+      <c r="E133" s="102"/>
+      <c r="F133" s="109">
         <f t="shared" si="4"/>
         <v>143408.12</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A133" s="108"/>
-      <c r="C133" s="110" t="s">
-        <v>254</v>
-      </c>
-      <c r="D133" s="107">
-        <f>SUM(D126:D132)</f>
-        <v>395</v>
-      </c>
-      <c r="E133" s="111">
-        <f>SUM(E126:E132)</f>
-        <v>-520</v>
-      </c>
-      <c r="F133" s="100"/>
-    </row>
     <row r="134" spans="1:6" ht="11.25" customHeight="1">
       <c r="A134" s="108"/>
-      <c r="C134" s="110"/>
-      <c r="D134" s="107"/>
-      <c r="E134" s="111"/>
+      <c r="C134" s="110" t="s">
+        <v>254</v>
+      </c>
+      <c r="D134" s="107">
+        <f>SUM(D127:D133)</f>
+        <v>395</v>
+      </c>
+      <c r="E134" s="111">
+        <f>SUM(E127:E133)</f>
+        <v>-520</v>
+      </c>
       <c r="F134" s="100"/>
     </row>
     <row r="135" spans="1:6" ht="11.25" customHeight="1">
@@ -13133,8 +14719,9 @@
     </row>
     <row r="137" spans="1:6" ht="11.25" customHeight="1">
       <c r="A137" s="108"/>
-      <c r="D137" s="100"/>
-      <c r="E137" s="102"/>
+      <c r="C137" s="110"/>
+      <c r="D137" s="107"/>
+      <c r="E137" s="111"/>
       <c r="F137" s="100"/>
     </row>
     <row r="138" spans="1:6" ht="11.25" customHeight="1">
@@ -13150,265 +14737,265 @@
       <c r="F139" s="100"/>
     </row>
     <row r="140" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A140" s="117" t="s">
+      <c r="A140" s="108"/>
+      <c r="D140" s="100"/>
+      <c r="E140" s="102"/>
+      <c r="F140" s="100"/>
+    </row>
+    <row r="141" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A141" s="117" t="s">
         <v>255</v>
       </c>
-      <c r="B140" s="104"/>
-      <c r="C140" s="103" t="s">
+      <c r="B141" s="104"/>
+      <c r="C141" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="D140" s="105" t="s">
+      <c r="D141" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="E140" s="106" t="s">
+      <c r="E141" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="F140" s="105" t="s">
+      <c r="F141" s="105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A141" s="108"/>
-      <c r="D141" s="100"/>
-      <c r="E141" s="112" t="s">
+    <row r="142" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A142" s="108"/>
+      <c r="D142" s="100"/>
+      <c r="E142" s="112" t="s">
         <v>256</v>
       </c>
-      <c r="F141" s="109">
-        <f>F132</f>
+      <c r="F142" s="109">
+        <f>F133</f>
         <v>143408.12</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A142" s="99">
+    <row r="143" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A143" s="99">
         <v>2008</v>
       </c>
-      <c r="B142" s="99" t="s">
+      <c r="B143" s="99" t="s">
         <v>257</v>
-      </c>
-      <c r="D142" s="100"/>
-      <c r="E142" s="102">
-        <v>-20</v>
-      </c>
-      <c r="F142" s="100">
-        <f t="shared" ref="F142:F151" si="5">F141+D142+E142</f>
-        <v>143388.12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A143" s="108"/>
-      <c r="B143" s="99" t="s">
-        <v>258</v>
       </c>
       <c r="D143" s="100"/>
       <c r="E143" s="102">
-        <v>-180</v>
+        <v>-20</v>
       </c>
       <c r="F143" s="100">
-        <f t="shared" si="5"/>
-        <v>143208.12</v>
+        <f t="shared" ref="F143:F152" si="5">F142+D143+E143</f>
+        <v>143388.12</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="11.25" customHeight="1">
       <c r="A144" s="108"/>
       <c r="B144" s="99" t="s">
-        <v>259</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D144" s="100"/>
       <c r="E144" s="102">
-        <v>-25</v>
+        <v>-180</v>
       </c>
       <c r="F144" s="100">
         <f t="shared" si="5"/>
-        <v>143183.12</v>
+        <v>143208.12</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="11.25" customHeight="1">
       <c r="A145" s="108"/>
       <c r="B145" s="99" t="s">
-        <v>260</v>
-      </c>
-      <c r="D145" s="100"/>
+        <v>259</v>
+      </c>
       <c r="E145" s="102">
-        <v>-320</v>
+        <v>-25</v>
       </c>
       <c r="F145" s="100">
         <f t="shared" si="5"/>
-        <v>142863.12</v>
+        <v>143183.12</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="11.25" customHeight="1">
       <c r="A146" s="108"/>
       <c r="B146" s="99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D146" s="100"/>
       <c r="E146" s="102">
-        <v>-25</v>
+        <v>-320</v>
       </c>
       <c r="F146" s="100">
         <f t="shared" si="5"/>
-        <v>142838.12</v>
+        <v>142863.12</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="11.25" customHeight="1">
       <c r="A147" s="108"/>
       <c r="B147" s="99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D147" s="100"/>
       <c r="E147" s="102">
-        <v>-135</v>
+        <v>-25</v>
       </c>
       <c r="F147" s="100">
         <f t="shared" si="5"/>
-        <v>142703.12</v>
+        <v>142838.12</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="11.25" customHeight="1">
       <c r="A148" s="108"/>
       <c r="B148" s="99" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D148" s="100"/>
       <c r="E148" s="102">
-        <v>-35</v>
+        <v>-135</v>
       </c>
       <c r="F148" s="100">
         <f t="shared" si="5"/>
-        <v>142668.12</v>
+        <v>142703.12</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="11.25" customHeight="1">
       <c r="A149" s="108"/>
       <c r="B149" s="99" t="s">
-        <v>264</v>
-      </c>
-      <c r="D149" s="100">
-        <v>48</v>
-      </c>
-      <c r="E149" s="102"/>
+        <v>263</v>
+      </c>
+      <c r="D149" s="100"/>
+      <c r="E149" s="102">
+        <v>-35</v>
+      </c>
       <c r="F149" s="100">
         <f t="shared" si="5"/>
-        <v>142716.12</v>
+        <v>142668.12</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="11.25" customHeight="1">
       <c r="A150" s="108"/>
       <c r="B150" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="D150" s="100"/>
-      <c r="E150" s="102">
-        <v>-182</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D150" s="100">
+        <v>48</v>
+      </c>
+      <c r="E150" s="102"/>
       <c r="F150" s="100">
         <f t="shared" si="5"/>
-        <v>142534.12</v>
+        <v>142716.12</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="11.25" customHeight="1">
-      <c r="E151" s="102"/>
+      <c r="A151" s="108"/>
+      <c r="B151" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="D151" s="100"/>
+      <c r="E151" s="102">
+        <v>-182</v>
+      </c>
       <c r="F151" s="100">
         <f t="shared" si="5"/>
         <v>142534.12</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A152" s="108"/>
-      <c r="C152" s="118" t="s">
-        <v>266</v>
-      </c>
-      <c r="D152" s="107">
-        <f ca="1">SUM(D142:D154)</f>
-        <v>1048</v>
-      </c>
-      <c r="E152" s="111">
-        <f>SUM(E142:E150)</f>
-        <v>-922</v>
-      </c>
-      <c r="F152" s="100"/>
+      <c r="E152" s="102"/>
+      <c r="F152" s="100">
+        <f t="shared" si="5"/>
+        <v>142534.12</v>
+      </c>
     </row>
     <row r="153" spans="1:6" ht="11.25" customHeight="1">
       <c r="A153" s="108"/>
-      <c r="C153" s="119"/>
-      <c r="D153" s="107"/>
-      <c r="E153" s="111"/>
-      <c r="F153" s="100">
-        <f>F151+D153+E153</f>
-        <v>142534.12</v>
-      </c>
+      <c r="C153" s="118" t="s">
+        <v>266</v>
+      </c>
+      <c r="D153" s="107">
+        <f>SUM(D143:D151)</f>
+        <v>48</v>
+      </c>
+      <c r="E153" s="111">
+        <f>SUM(E143:E151)</f>
+        <v>-922</v>
+      </c>
+      <c r="F153" s="100"/>
     </row>
     <row r="154" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A154" s="99">
-        <v>2012</v>
-      </c>
-      <c r="B154" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="D154" s="100">
-        <v>1000</v>
-      </c>
+      <c r="A154" s="108"/>
+      <c r="C154" s="119"/>
+      <c r="D154" s="107"/>
       <c r="E154" s="111"/>
       <c r="F154" s="100">
-        <f>F153+D154+E154</f>
+        <f>F152+D154+E154</f>
+        <v>142534.12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A155" s="99">
+        <v>2012</v>
+      </c>
+      <c r="B155" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="D155" s="100">
+        <v>1000</v>
+      </c>
+      <c r="E155" s="111"/>
+      <c r="F155" s="100">
+        <f>F154+D155+E155</f>
         <v>143534.12</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A155" s="108"/>
-      <c r="C155" s="119"/>
-      <c r="D155" s="107"/>
-      <c r="E155" s="111"/>
-      <c r="F155" s="120" t="s">
+    <row r="156" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A156" s="108"/>
+      <c r="C156" s="119"/>
+      <c r="D156" s="107"/>
+      <c r="E156" s="111"/>
+      <c r="F156" s="120" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="13.7" customHeight="1">
-      <c r="A156" s="108"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
-    </row>
-    <row r="157" spans="1:6" ht="16.7" customHeight="1">
+    <row r="157" spans="1:6" ht="13.7" customHeight="1">
       <c r="A157" s="108"/>
-      <c r="B157" s="312">
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+    </row>
+    <row r="158" spans="1:6" ht="16.7" customHeight="1">
+      <c r="A158" s="108"/>
+      <c r="B158" s="313">
         <v>45233</v>
       </c>
-      <c r="C157" s="312"/>
-      <c r="D157" s="100"/>
-      <c r="E157" s="121" t="s">
+      <c r="C158" s="313"/>
+      <c r="D158" s="100"/>
+      <c r="E158" s="121" t="s">
         <v>268</v>
       </c>
-      <c r="F157" s="122">
+      <c r="F158" s="122">
         <v>119619.37</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A158" s="108"/>
-      <c r="D158" s="100"/>
-      <c r="E158" s="123" t="s">
-        <v>269</v>
-      </c>
-      <c r="F158" s="122">
-        <f>F159-F157</f>
-        <v>23914.75</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="17.25" customHeight="1">
+    <row r="159" spans="1:6" ht="11.25" customHeight="1">
       <c r="A159" s="108"/>
       <c r="D159" s="100"/>
       <c r="E159" s="123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F159" s="122">
-        <f>F154</f>
-        <v>143534.12</v>
+        <f>F160-F158</f>
+        <v>23914.75</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="17.25" customHeight="1">
       <c r="A160" s="108"/>
       <c r="D160" s="100"/>
-      <c r="E160" s="123"/>
-      <c r="F160" s="122"/>
+      <c r="E160" s="123" t="s">
+        <v>270</v>
+      </c>
+      <c r="F160" s="122">
+        <f>F155</f>
+        <v>143534.12</v>
+      </c>
     </row>
     <row r="161" spans="1:6" ht="17.25" customHeight="1">
       <c r="A161" s="108"/>
@@ -13458,28 +15045,22 @@
       <c r="E168" s="123"/>
       <c r="F168" s="122"/>
     </row>
-    <row r="169" spans="1:6" ht="11.25" customHeight="1">
+    <row r="169" spans="1:6" ht="17.25" customHeight="1">
       <c r="A169" s="108"/>
       <c r="D169" s="100"/>
-      <c r="E169" s="124"/>
-      <c r="F169" s="109"/>
+      <c r="E169" s="123"/>
+      <c r="F169" s="122"/>
     </row>
     <row r="170" spans="1:6" ht="11.25" customHeight="1">
       <c r="A170" s="108"/>
-      <c r="B170" s="101" t="s">
-        <v>271</v>
-      </c>
       <c r="D170" s="100"/>
-      <c r="E170" s="102"/>
-      <c r="F170" s="100"/>
+      <c r="E170" s="124"/>
+      <c r="F170" s="109"/>
     </row>
     <row r="171" spans="1:6" ht="11.25" customHeight="1">
       <c r="A171" s="108"/>
-      <c r="B171" s="110" t="s">
-        <v>272</v>
-      </c>
-      <c r="C171" s="110" t="s">
-        <v>272</v>
+      <c r="B171" s="101" t="s">
+        <v>271</v>
       </c>
       <c r="D171" s="100"/>
       <c r="E171" s="102"/>
@@ -13488,223 +15069,235 @@
     <row r="172" spans="1:6" ht="11.25" customHeight="1">
       <c r="A172" s="108"/>
       <c r="B172" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="C172" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="D172" s="100"/>
+      <c r="E172" s="102"/>
+      <c r="F172" s="100"/>
+    </row>
+    <row r="173" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A173" s="108"/>
+      <c r="B173" s="110" t="s">
         <v>273</v>
       </c>
-      <c r="C172" s="110" t="s">
+      <c r="C173" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="D172" s="120" t="s">
+      <c r="D173" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="E172" s="124" t="s">
+      <c r="E173" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="F172" s="120" t="s">
+      <c r="F173" s="120" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A173" s="99">
+    <row r="174" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A174" s="99">
         <v>2003</v>
       </c>
-      <c r="B173" s="100">
+      <c r="B174" s="100">
         <f>D4</f>
         <v>17075.75</v>
       </c>
-      <c r="C173" s="125">
+      <c r="C174" s="125">
         <f>E4</f>
         <v>0</v>
       </c>
-      <c r="D173" s="100">
-        <f>B173+C173</f>
+      <c r="D174" s="100">
+        <f>B174+C174</f>
         <v>17075.75</v>
       </c>
-      <c r="E173" s="126">
+      <c r="E174" s="126">
         <v>1.41</v>
       </c>
-      <c r="F173" s="125">
-        <f t="shared" ref="F173:F179" si="6">(B173+C173)/E173</f>
+      <c r="F174" s="125">
+        <f t="shared" ref="F174:F180" si="6">(B174+C174)/E174</f>
         <v>12110.460992907801</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A174" s="99">
+    <row r="175" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A175" s="99">
         <v>2004</v>
       </c>
-      <c r="B174" s="100">
-        <f>D25</f>
+      <c r="B175" s="100">
+        <f>D26</f>
         <v>14637</v>
       </c>
-      <c r="C174" s="125">
-        <f>E25</f>
+      <c r="C175" s="125">
+        <f>E26</f>
         <v>-10710</v>
       </c>
-      <c r="D174" s="100">
-        <f t="shared" ref="D174:D179" si="7">D173+B174+C174</f>
+      <c r="D175" s="100">
+        <f t="shared" ref="D175:D180" si="7">D174+B175+C175</f>
         <v>21002.75</v>
       </c>
-      <c r="E174" s="126">
+      <c r="E175" s="126">
         <v>1.49</v>
       </c>
-      <c r="F174" s="125">
+      <c r="F175" s="125">
         <f t="shared" si="6"/>
         <v>2635.5704697986575</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A175" s="99">
+    <row r="176" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A176" s="99">
         <v>2005</v>
       </c>
-      <c r="B175" s="100">
-        <f>D67</f>
+      <c r="B176" s="100">
+        <f>D68</f>
         <v>72003.92</v>
       </c>
-      <c r="C175" s="125">
-        <f>E67</f>
+      <c r="C176" s="125">
+        <f>E68</f>
         <v>-7040</v>
       </c>
-      <c r="D175" s="100">
+      <c r="D176" s="100">
         <f t="shared" si="7"/>
         <v>85966.67</v>
       </c>
-      <c r="E175" s="126">
+      <c r="E176" s="126">
         <v>1.35</v>
       </c>
-      <c r="F175" s="125">
+      <c r="F176" s="125">
         <f t="shared" si="6"/>
         <v>48121.422222222216</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A176" s="99">
+    <row r="177" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A177" s="99">
         <v>2006</v>
       </c>
-      <c r="B176" s="100">
-        <f>D122</f>
+      <c r="B177" s="100">
+        <f>D123</f>
         <v>73796.45</v>
       </c>
-      <c r="C176" s="125">
-        <f>E122</f>
+      <c r="C177" s="125">
+        <f>E123</f>
         <v>-16230</v>
       </c>
-      <c r="D176" s="100">
+      <c r="D177" s="100">
         <f t="shared" si="7"/>
         <v>143533.12</v>
       </c>
-      <c r="E176" s="126">
+      <c r="E177" s="126">
         <v>1.56</v>
       </c>
-      <c r="F176" s="125">
+      <c r="F177" s="125">
         <f t="shared" si="6"/>
         <v>36901.570512820508</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A177" s="99">
+    <row r="178" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A178" s="99">
         <v>2007</v>
       </c>
-      <c r="B177" s="100">
-        <f>D133</f>
+      <c r="B178" s="100">
+        <f>D134</f>
         <v>395</v>
       </c>
-      <c r="C177" s="125">
-        <f>E133</f>
+      <c r="C178" s="125">
+        <f>E134</f>
         <v>-520</v>
       </c>
-      <c r="D177" s="100">
+      <c r="D178" s="100">
         <f t="shared" si="7"/>
         <v>143408.12</v>
       </c>
-      <c r="E177" s="126">
+      <c r="E178" s="126">
         <v>1.31</v>
       </c>
-      <c r="F177" s="125">
+      <c r="F178" s="125">
         <f t="shared" si="6"/>
         <v>-95.419847328244273</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A178" s="99">
+    <row r="179" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A179" s="99">
         <v>2008</v>
       </c>
-      <c r="B178" s="100">
-        <f>D149</f>
+      <c r="B179" s="100">
+        <f>D150</f>
         <v>48</v>
       </c>
-      <c r="C178" s="125">
-        <f>E152</f>
+      <c r="C179" s="125">
+        <f>E153</f>
         <v>-922</v>
       </c>
-      <c r="D178" s="100">
+      <c r="D179" s="100">
         <f t="shared" si="7"/>
         <v>142534.12</v>
       </c>
-      <c r="E178" s="126">
+      <c r="E179" s="126">
         <v>1.2</v>
       </c>
-      <c r="F178" s="125">
+      <c r="F179" s="125">
         <f t="shared" si="6"/>
         <v>-728.33333333333337</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A179" s="99">
+    <row r="180" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A180" s="99">
         <v>2012</v>
       </c>
-      <c r="B179" s="100">
+      <c r="B180" s="100">
         <v>1000</v>
       </c>
-      <c r="C179" s="125">
-        <f>E151</f>
+      <c r="C180" s="125">
+        <f>E152</f>
         <v>0</v>
       </c>
-      <c r="D179" s="127">
+      <c r="D180" s="127">
         <f t="shared" si="7"/>
         <v>143534.12</v>
       </c>
-      <c r="E179" s="126">
+      <c r="E180" s="126">
         <v>1.84</v>
       </c>
-      <c r="F179" s="125">
+      <c r="F180" s="125">
         <f t="shared" si="6"/>
         <v>543.47826086956525</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B180" s="100"/>
-      <c r="D180" s="100"/>
-      <c r="E180" s="102"/>
-      <c r="F180" s="128"/>
-    </row>
-    <row r="181" spans="1:6" ht="16.5" customHeight="1">
+    <row r="181" spans="1:6" ht="11.25" customHeight="1">
       <c r="B181" s="100"/>
       <c r="D181" s="100"/>
-      <c r="E181" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="F181" s="129">
-        <f>SUM(F173:F179)</f>
-        <v>99488.749277957177</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="11.25" customHeight="1">
+      <c r="E181" s="102"/>
+      <c r="F181" s="128"/>
+    </row>
+    <row r="182" spans="1:6" ht="16.5" customHeight="1">
       <c r="B182" s="100"/>
       <c r="D182" s="100"/>
-      <c r="E182" s="102"/>
-      <c r="F182" s="130" t="s">
+      <c r="E182" s="124" t="s">
+        <v>277</v>
+      </c>
+      <c r="F182" s="129">
+        <f>SUM(F174:F180)</f>
+        <v>99488.749277957177</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B183" s="100"/>
+      <c r="D183" s="100"/>
+      <c r="E183" s="102"/>
+      <c r="F183" s="130" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="16.149999999999999" customHeight="1">
-      <c r="A183" s="108"/>
-      <c r="D183" s="100"/>
-      <c r="E183"/>
-      <c r="F183"/>
+    <row r="184" spans="1:6" ht="16.149999999999999" customHeight="1">
+      <c r="A184" s="108"/>
+      <c r="D184" s="100"/>
+      <c r="E184"/>
+      <c r="F184"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
   </mergeCells>
   <pageMargins left="0.62992125984252012" right="0.35433070866141703" top="0.78740157480315009" bottom="0.62992125984252012" header="0.39370078740157505" footer="0.23622047244094502"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13715,7 +15308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
@@ -13761,10 +15354,10 @@
       </c>
       <c r="C3" s="133"/>
       <c r="D3" s="133"/>
-      <c r="E3" s="313">
+      <c r="E3" s="314">
         <v>45233</v>
       </c>
-      <c r="F3" s="313"/>
+      <c r="F3" s="314"/>
     </row>
     <row r="4" spans="1:7" ht="11.25" customHeight="1">
       <c r="B4" s="132"/>
@@ -13958,7 +15551,7 @@
       <c r="D17" s="142"/>
       <c r="E17" s="99"/>
       <c r="F17" s="143">
-        <f>'01-03-HAKAN'!D179</f>
+        <f>'01-03-HAKAN'!D180</f>
         <v>143534.12</v>
       </c>
     </row>
@@ -14129,7 +15722,7 @@
         <v>1.4427171015989599</v>
       </c>
       <c r="F31" s="100">
-        <f>'01-03-HAKAN'!F181/2</f>
+        <f>'01-03-HAKAN'!F182/2</f>
         <v>49744.374638978588</v>
       </c>
       <c r="H31" s="155"/>
@@ -14809,7 +16402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -14829,10 +16422,10 @@
       <c r="A1" s="179"/>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
-      <c r="D1" s="314">
+      <c r="D1" s="315">
         <v>45233</v>
       </c>
-      <c r="E1" s="314"/>
+      <c r="E1" s="315"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="179"/>
@@ -14856,7 +16449,7 @@
         <v>344</v>
       </c>
       <c r="B4" s="182">
-        <f>'01-03-HAKAN'!F159</f>
+        <f>'01-03-HAKAN'!F160</f>
         <v>143534.12</v>
       </c>
       <c r="C4" s="183">
@@ -14864,7 +16457,7 @@
         <v>1.4427171015989599</v>
       </c>
       <c r="D4" s="184">
-        <f>'01-03-HAKAN'!F181</f>
+        <f>'01-03-HAKAN'!F182</f>
         <v>99488.749277957177</v>
       </c>
       <c r="E4" s="185">
@@ -15225,266 +16818,4 @@
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="232"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="134">
-        <v>45234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" thickBot="1">
-      <c r="C3" s="234"/>
-      <c r="D3" s="235" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="236">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" thickTop="1" thickBot="1">
-      <c r="B4" s="237"/>
-      <c r="C4" s="238"/>
-      <c r="D4" s="239" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" s="240" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" thickTop="1" thickBot="1">
-      <c r="C5" s="235"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-    </row>
-    <row r="6" spans="1:5" ht="18">
-      <c r="B6" s="211"/>
-      <c r="C6" s="242" t="s">
-        <v>368</v>
-      </c>
-      <c r="D6" s="243">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="244">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" thickBot="1">
-      <c r="B7" s="206"/>
-      <c r="C7" s="245" t="s">
-        <v>369</v>
-      </c>
-      <c r="D7" s="246">
-        <f>E3*0.5</f>
-        <v>225000</v>
-      </c>
-      <c r="E7" s="247">
-        <f>E3*0.5</f>
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18">
-      <c r="C8" s="235"/>
-      <c r="D8" s="248"/>
-      <c r="E8" s="248"/>
-    </row>
-    <row r="9" spans="1:5" ht="18">
-      <c r="B9" s="249"/>
-      <c r="C9" s="250" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="251">
-        <f>'01-02-DGS'!E33</f>
-        <v>-126562.54329979846</v>
-      </c>
-      <c r="E9" s="252">
-        <f>D9*-1</f>
-        <v>126562.54329979846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="80.25" customHeight="1" thickBot="1">
-      <c r="C10" s="253"/>
-      <c r="D10" s="254" t="s">
-        <v>371</v>
-      </c>
-      <c r="E10" s="254" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18">
-      <c r="B11" s="211"/>
-      <c r="C11" s="242" t="s">
-        <v>373</v>
-      </c>
-      <c r="D11" s="255">
-        <f>SUM(D7:D9)</f>
-        <v>98437.456700201539</v>
-      </c>
-      <c r="E11" s="256">
-        <f>SUM(E7:E9)</f>
-        <v>351562.54329979845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" thickBot="1">
-      <c r="B12" s="206"/>
-      <c r="C12" s="257" t="s">
-        <v>374</v>
-      </c>
-      <c r="D12" s="258">
-        <f>D11/E3</f>
-        <v>0.21874990377822565</v>
-      </c>
-      <c r="E12" s="259">
-        <f>E11/E3</f>
-        <v>0.78125009622177433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="61.5" thickBot="1">
-      <c r="B13" s="260"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="253" t="s">
-        <v>375</v>
-      </c>
-      <c r="E13" s="254" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="B14" s="211"/>
-      <c r="C14" s="262" t="s">
-        <v>377</v>
-      </c>
-      <c r="D14" s="255">
-        <v>7485.3</v>
-      </c>
-      <c r="E14" s="256">
-        <f>D14*-1</f>
-        <v>-7485.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" thickBot="1">
-      <c r="B15" s="206"/>
-      <c r="C15" s="263" t="s">
-        <v>378</v>
-      </c>
-      <c r="D15" s="258">
-        <f>D18-D12</f>
-        <v>1.663400000000001E-2</v>
-      </c>
-      <c r="E15" s="264">
-        <f>E18-E12</f>
-        <v>-1.6633999999999927E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="123.75" customHeight="1" thickBot="1">
-      <c r="B16" s="260"/>
-      <c r="C16" s="261"/>
-      <c r="D16" s="254" t="s">
-        <v>379</v>
-      </c>
-      <c r="E16" s="254" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="18">
-      <c r="B17" s="265"/>
-      <c r="C17" s="235" t="s">
-        <v>381</v>
-      </c>
-      <c r="D17" s="266">
-        <f>D11+D14</f>
-        <v>105922.75670020154</v>
-      </c>
-      <c r="E17" s="267">
-        <f>E11+E14</f>
-        <v>344077.24329979846</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="18">
-      <c r="B18" s="268"/>
-      <c r="C18" s="269" t="s">
-        <v>382</v>
-      </c>
-      <c r="D18" s="270">
-        <f>D17/E3</f>
-        <v>0.23538390377822566</v>
-      </c>
-      <c r="E18" s="271">
-        <f>E17/E3</f>
-        <v>0.7646160962217744</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="13.5" thickBot="1"/>
-    <row r="20" spans="2:5" ht="23.25">
-      <c r="B20" s="272" t="s">
-        <v>383</v>
-      </c>
-      <c r="C20" s="273"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="213"/>
-    </row>
-    <row r="21" spans="2:5" ht="24" thickBot="1">
-      <c r="B21" s="274" t="s">
-        <v>384</v>
-      </c>
-      <c r="C21" s="275"/>
-      <c r="D21" s="276">
-        <f>D18</f>
-        <v>0.23538390377822566</v>
-      </c>
-      <c r="E21" s="277">
-        <f>E18</f>
-        <v>0.7646160962217744</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" t="s">
-        <v>389</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;Z&amp;F   -   &amp;F   -   &amp;A</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/01-25-dgs.xlsx
+++ b/01-25-dgs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97BA3D3-2047-48AD-BF4E-90B668395EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96698DD4-F6B3-4351-A021-EEFAE712078B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="506">
   <si>
     <t>Doğuş</t>
   </si>
@@ -1893,9 +1893,6 @@
     <t>elektrik</t>
   </si>
   <si>
-    <t>ferhat duvar tamiri</t>
-  </si>
-  <si>
     <t>mart 2025 kira bedeli ödemesi</t>
   </si>
   <si>
@@ -1948,6 +1945,12 @@
   </si>
   <si>
     <t>ağustos 17  günlük gecikme</t>
+  </si>
+  <si>
+    <t>su kartı</t>
+  </si>
+  <si>
+    <t>elektrik tuvalet anahtar</t>
   </si>
 </sst>
 </file>
@@ -1973,12 +1976,12 @@
     <numFmt numFmtId="179" formatCode="0.0000%"/>
     <numFmt numFmtId="180" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="183" formatCode="#,##0.00\ &quot;Tl/gr&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0\ &quot;Tl/gr&quot;"/>
-    <numFmt numFmtId="186" formatCode="#,##0.000\ &quot;Gr/ay&quot;"/>
-    <numFmt numFmtId="188" formatCode="#,##0\ &quot;Dönem&quot;"/>
-    <numFmt numFmtId="190" formatCode="#,##0\ &quot;TL/ay&quot;"/>
-    <numFmt numFmtId="192" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00\ &quot;Tl/gr&quot;"/>
+    <numFmt numFmtId="183" formatCode="#,##0\ &quot;Tl/gr&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.000\ &quot;Gr/ay&quot;"/>
+    <numFmt numFmtId="185" formatCode="#,##0\ &quot;Dönem&quot;"/>
+    <numFmt numFmtId="186" formatCode="#,##0\ &quot;TL/ay&quot;"/>
+    <numFmt numFmtId="187" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="68">
     <font>
@@ -3807,20 +3810,14 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="64" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="184" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="186" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3834,22 +3831,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3858,7 +3855,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
@@ -3866,15 +3863,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="4" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="192" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="184" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="183" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Accent" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4215,15 +4218,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44515376-190E-446B-B19E-14E8B629D485}">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="354" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="317" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="350" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="313" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -4233,16 +4236,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18">
-      <c r="B2" s="355">
+      <c r="B2" s="351">
         <v>45831</v>
       </c>
-      <c r="C2" s="353"/>
-      <c r="D2" s="356" t="s">
+      <c r="C2" s="349"/>
+      <c r="D2" s="352" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="354">
+      <c r="B3" s="350">
         <v>45350</v>
       </c>
       <c r="D3" t="s">
@@ -4257,11 +4260,11 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="354">
+      <c r="B4" s="350">
         <v>45544</v>
       </c>
       <c r="D4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G4" s="3">
         <v>15000</v>
@@ -4272,11 +4275,11 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="354">
+      <c r="B5" s="350">
         <v>45544</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E5" s="296">
         <f>50/365*(B4-B3)%</f>
@@ -4292,11 +4295,11 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="354">
+      <c r="B6" s="350">
         <v>45909</v>
       </c>
       <c r="D6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E6" s="296">
         <f>50/365*9%</f>
@@ -4312,11 +4315,11 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="354">
+      <c r="B7" s="350">
         <v>45574</v>
       </c>
       <c r="D7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G7" s="3">
         <v>15000</v>
@@ -4327,11 +4330,11 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="354">
+      <c r="B8" s="350">
         <v>45909</v>
       </c>
       <c r="D8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E8" s="296">
         <f>50/365*9%</f>
@@ -4347,11 +4350,11 @@
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="354">
+      <c r="B9" s="350">
         <v>45605</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G9" s="3">
         <v>15000</v>
@@ -4362,11 +4365,11 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="354">
+      <c r="B10" s="350">
         <v>45606</v>
       </c>
       <c r="D10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E10" s="296">
         <f>50/365*9%</f>
@@ -4382,11 +4385,11 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="354">
+      <c r="B11" s="350">
         <v>45637</v>
       </c>
       <c r="D11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G11" s="3">
         <v>15000</v>
@@ -4397,11 +4400,11 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="354">
+      <c r="B12" s="350">
         <v>45638</v>
       </c>
       <c r="D12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E12" s="296">
         <f>50/365*12%</f>
@@ -4417,11 +4420,11 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="354">
+      <c r="B13" s="350">
         <v>45671</v>
       </c>
       <c r="D13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G13" s="3">
         <v>15000</v>
@@ -4432,11 +4435,11 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="354">
+      <c r="B14" s="350">
         <v>45672</v>
       </c>
       <c r="D14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E14" s="296">
         <f>50/365*14%</f>
@@ -4452,11 +4455,11 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="354">
+      <c r="B15" s="350">
         <v>45705</v>
       </c>
       <c r="D15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E15" s="296"/>
       <c r="G15" s="3">
@@ -4468,11 +4471,11 @@
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="354">
+      <c r="B16" s="350">
         <v>45706</v>
       </c>
       <c r="D16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E16" s="296">
         <f>50/365*17%</f>
@@ -4488,11 +4491,11 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="354">
+      <c r="B17" s="350">
         <v>45716</v>
       </c>
       <c r="D17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F17" s="3">
         <v>15000</v>
@@ -4503,11 +4506,11 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="354">
+      <c r="B18" s="350">
         <v>45721</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G18" s="3">
         <v>15000</v>
@@ -4518,7 +4521,7 @@
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="354">
+      <c r="B19" s="350">
         <v>45722</v>
       </c>
       <c r="D19" t="s">
@@ -4533,11 +4536,11 @@
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="354">
+      <c r="B20" s="350">
         <v>45746</v>
       </c>
       <c r="D20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F20" s="3">
         <v>15000</v>
@@ -4548,7 +4551,7 @@
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="354">
+      <c r="B21" s="350">
         <v>45750</v>
       </c>
       <c r="D21" t="s">
@@ -4563,11 +4566,11 @@
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="354">
+      <c r="B22" s="350">
         <v>45777</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F22" s="3">
         <v>15000</v>
@@ -4578,7 +4581,7 @@
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="354">
+      <c r="B23" s="350">
         <v>45782</v>
       </c>
       <c r="D23" t="s">
@@ -4593,7 +4596,7 @@
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="354">
+      <c r="B24" s="350">
         <v>45818</v>
       </c>
       <c r="D24" t="s">
@@ -4608,10 +4611,10 @@
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="360">
+      <c r="B25" s="356">
         <v>45833</v>
       </c>
-      <c r="C25" s="361"/>
+      <c r="C25" s="357"/>
       <c r="D25" s="283" t="s">
         <v>485</v>
       </c>
@@ -4626,78 +4629,82 @@
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="D26" s="357" t="s">
-        <v>498</v>
-      </c>
-      <c r="E26" s="357"/>
-      <c r="F26" s="358">
+      <c r="D26" s="353" t="s">
+        <v>497</v>
+      </c>
+      <c r="E26" s="353"/>
+      <c r="F26" s="354">
         <v>300</v>
       </c>
-      <c r="G26" s="359"/>
+      <c r="G26" s="355"/>
       <c r="H26" s="3">
         <f t="shared" si="1"/>
         <v>-45777.739726027401</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="D27" s="357"/>
-      <c r="E27" s="357"/>
-      <c r="F27" s="359"/>
-      <c r="G27" s="359"/>
+      <c r="D27" s="353" t="s">
+        <v>504</v>
+      </c>
+      <c r="E27" s="353"/>
+      <c r="F27" s="355">
+        <v>300</v>
+      </c>
+      <c r="G27" s="355"/>
       <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>-45777.739726027401</v>
+        <v>-45477.739726027401</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="D28" s="357"/>
-      <c r="E28" s="357"/>
-      <c r="F28" s="359"/>
-      <c r="G28" s="359"/>
+      <c r="D28" s="353" t="s">
+        <v>505</v>
+      </c>
+      <c r="E28" s="353"/>
+      <c r="F28" s="355">
+        <v>150</v>
+      </c>
+      <c r="G28" s="355"/>
       <c r="H28" s="3">
         <f t="shared" si="1"/>
-        <v>-45777.739726027401</v>
+        <v>-45327.739726027401</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="D29" s="357" t="s">
-        <v>486</v>
-      </c>
-      <c r="E29" s="357"/>
-      <c r="F29" s="358">
-        <v>5000</v>
-      </c>
-      <c r="G29" s="359"/>
-      <c r="H29" s="359">
+      <c r="D29" s="353"/>
+      <c r="E29" s="353"/>
+      <c r="F29" s="354"/>
+      <c r="G29" s="355"/>
+      <c r="H29" s="355">
         <f t="shared" si="1"/>
-        <v>-40777.739726027401</v>
+        <v>-45327.739726027401</v>
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="D30" s="357"/>
-      <c r="E30" s="357"/>
-      <c r="F30" s="359"/>
-      <c r="G30" s="359"/>
-      <c r="H30" s="359">
+      <c r="D30" s="353"/>
+      <c r="E30" s="353"/>
+      <c r="F30" s="355"/>
+      <c r="G30" s="355"/>
+      <c r="H30" s="355">
         <f t="shared" si="1"/>
-        <v>-40777.739726027401</v>
+        <v>-45327.739726027401</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="354">
+      <c r="B31" s="350">
         <v>45838</v>
       </c>
-      <c r="D31" s="357" t="s">
-        <v>496</v>
-      </c>
-      <c r="E31" s="357"/>
-      <c r="F31" s="358">
+      <c r="D31" s="353" t="s">
+        <v>495</v>
+      </c>
+      <c r="E31" s="353"/>
+      <c r="F31" s="354">
         <v>40000</v>
       </c>
-      <c r="G31" s="359"/>
-      <c r="H31" s="359">
+      <c r="G31" s="355"/>
+      <c r="H31" s="355">
         <f t="shared" si="1"/>
-        <v>-777.73972602740105</v>
+        <v>-5327.739726027401</v>
       </c>
     </row>
   </sheetData>
@@ -4980,7 +4987,7 @@
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="317" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="313" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
@@ -4998,7 +5005,7 @@
       <c r="B2" s="287" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="318"/>
+      <c r="C2" s="314"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1">
@@ -5011,7 +5018,7 @@
       <c r="D4" s="288" t="s">
         <v>395</v>
       </c>
-      <c r="E4" s="322" t="s">
+      <c r="E4" s="318" t="s">
         <v>469</v>
       </c>
       <c r="H4" s="289">
@@ -5023,7 +5030,7 @@
       <c r="D5" s="290" t="s">
         <v>396</v>
       </c>
-      <c r="E5" s="323">
+      <c r="E5" s="319">
         <v>45658</v>
       </c>
       <c r="F5" s="290"/>
@@ -5039,7 +5046,7 @@
       <c r="D6" s="287" t="s">
         <v>397</v>
       </c>
-      <c r="E6" s="324">
+      <c r="E6" s="320">
         <v>45839</v>
       </c>
       <c r="G6" s="294">
@@ -5049,7 +5056,7 @@
       <c r="H6" s="294"/>
     </row>
     <row r="7" spans="1:8" ht="15">
-      <c r="E7" s="325" t="s">
+      <c r="E7" s="321" t="s">
         <v>470</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -5064,11 +5071,11 @@
     </row>
     <row r="8" spans="1:8" ht="13.5" thickBot="1">
       <c r="B8" s="295"/>
-      <c r="C8" s="319"/>
+      <c r="C8" s="315"/>
       <c r="D8" t="s">
         <v>399</v>
       </c>
-      <c r="E8" s="326" t="s">
+      <c r="E8" s="322" t="s">
         <v>471</v>
       </c>
       <c r="G8" s="3">
@@ -5081,8 +5088,8 @@
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="295"/>
-      <c r="C9" s="319"/>
-      <c r="E9" s="320">
+      <c r="C9" s="315"/>
+      <c r="E9" s="316">
         <v>495</v>
       </c>
       <c r="G9" s="3"/>
@@ -5098,7 +5105,7 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="321">
+      <c r="E10" s="317">
         <f>G10/E9</f>
         <v>4.0404040404040407</v>
       </c>
@@ -5272,7 +5279,7 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="B22" s="295"/>
-      <c r="C22" s="319"/>
+      <c r="C22" s="315"/>
       <c r="D22" s="287" t="s">
         <v>404</v>
       </c>
@@ -5283,7 +5290,7 @@
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="B23" s="295"/>
-      <c r="C23" s="319"/>
+      <c r="C23" s="315"/>
       <c r="D23" s="287" t="s">
         <v>442</v>
       </c>
@@ -5296,7 +5303,7 @@
       <c r="B24" s="295">
         <v>44407</v>
       </c>
-      <c r="C24" s="319"/>
+      <c r="C24" s="315"/>
       <c r="D24" s="303" t="s">
         <v>435</v>
       </c>
@@ -5321,7 +5328,7 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="B26" s="295"/>
-      <c r="C26" s="319"/>
+      <c r="C26" s="315"/>
       <c r="F26" s="2" t="s">
         <v>434</v>
       </c>
@@ -5334,7 +5341,7 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="B27" s="295"/>
-      <c r="C27" s="319"/>
+      <c r="C27" s="315"/>
       <c r="F27" s="296"/>
       <c r="G27" s="293"/>
       <c r="H27" s="3">
@@ -5344,7 +5351,7 @@
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="B28" s="295"/>
-      <c r="C28" s="319"/>
+      <c r="C28" s="315"/>
       <c r="E28" s="296"/>
       <c r="F28" s="296"/>
       <c r="G28" s="293"/>
@@ -5355,7 +5362,7 @@
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="B29" s="295"/>
-      <c r="C29" s="319"/>
+      <c r="C29" s="315"/>
       <c r="D29" t="s">
         <v>405</v>
       </c>
@@ -5369,8 +5376,8 @@
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="B30" s="295"/>
-      <c r="C30" s="319"/>
-      <c r="E30" s="320">
+      <c r="C30" s="315"/>
+      <c r="E30" s="316">
         <v>783</v>
       </c>
       <c r="G30" s="293"/>
@@ -5389,7 +5396,7 @@
       <c r="D31" t="s">
         <v>406</v>
       </c>
-      <c r="E31" s="321">
+      <c r="E31" s="317">
         <f>G32/E30</f>
         <v>2.554278416347382</v>
       </c>
@@ -5493,7 +5500,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="B37" s="13"/>
-      <c r="E37" s="320">
+      <c r="E37" s="316">
         <v>968</v>
       </c>
       <c r="G37" s="3"/>
@@ -5509,7 +5516,7 @@
       <c r="D38" t="s">
         <v>407</v>
       </c>
-      <c r="E38" s="321">
+      <c r="E38" s="317">
         <f>G38/E37</f>
         <v>3.0991735537190084</v>
       </c>
@@ -5748,7 +5755,7 @@
       <c r="B59" s="295">
         <v>44772</v>
       </c>
-      <c r="C59" s="319"/>
+      <c r="C59" s="315"/>
       <c r="D59" s="303" t="s">
         <v>436</v>
       </c>
@@ -5797,7 +5804,7 @@
     </row>
     <row r="63" spans="1:8" ht="15">
       <c r="D63" s="287"/>
-      <c r="E63" s="320">
+      <c r="E63" s="316">
         <v>1095</v>
       </c>
       <c r="G63" s="293"/>
@@ -5816,7 +5823,7 @@
       <c r="D64" t="s">
         <v>408</v>
       </c>
-      <c r="E64" s="321">
+      <c r="E64" s="317">
         <f>G64/E63</f>
         <v>2.7397260273972601</v>
       </c>
@@ -5920,7 +5927,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="B70" s="13"/>
-      <c r="E70" s="320">
+      <c r="E70" s="316">
         <v>1607</v>
       </c>
       <c r="F70" s="302"/>
@@ -5936,7 +5943,7 @@
       <c r="D71" t="s">
         <v>419</v>
       </c>
-      <c r="E71" s="321">
+      <c r="E71" s="317">
         <f>G71/E70</f>
         <v>4.0448039825762292</v>
       </c>
@@ -6103,7 +6110,7 @@
       <c r="B84" s="295">
         <v>45137</v>
       </c>
-      <c r="C84" s="319"/>
+      <c r="C84" s="315"/>
       <c r="D84" s="303" t="s">
         <v>437</v>
       </c>
@@ -6215,7 +6222,7 @@
     </row>
     <row r="93" spans="1:8" ht="15">
       <c r="D93" s="299"/>
-      <c r="E93" s="320">
+      <c r="E93" s="316">
         <v>1954</v>
       </c>
       <c r="F93" s="290"/>
@@ -6235,7 +6242,7 @@
       <c r="D94" t="s">
         <v>420</v>
       </c>
-      <c r="E94" s="321">
+      <c r="E94" s="317">
         <f>G94/E93</f>
         <v>3.3265097236438077</v>
       </c>
@@ -6357,7 +6364,7 @@
     </row>
     <row r="101" spans="1:8" ht="15">
       <c r="B101" s="13"/>
-      <c r="E101" s="320">
+      <c r="E101" s="316">
         <v>2442</v>
       </c>
       <c r="G101" s="300"/>
@@ -6373,7 +6380,7 @@
       <c r="D102" t="s">
         <v>428</v>
       </c>
-      <c r="E102" s="321">
+      <c r="E102" s="317">
         <f>G102/E101</f>
         <v>6.1425061425061429</v>
       </c>
@@ -6479,55 +6486,55 @@
       <c r="H109" s="3"/>
     </row>
     <row r="110" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A110" s="339"/>
+      <c r="A110" s="335"/>
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="1:8" ht="21">
-      <c r="A111" s="333"/>
-      <c r="B111" s="349"/>
-      <c r="C111" s="335"/>
-      <c r="D111" s="336" t="s">
+      <c r="A111" s="329"/>
+      <c r="B111" s="345"/>
+      <c r="C111" s="331"/>
+      <c r="D111" s="332" t="s">
         <v>431</v>
       </c>
-      <c r="E111" s="334"/>
-      <c r="F111" s="334"/>
-      <c r="G111" s="334"/>
-      <c r="H111" s="337">
+      <c r="E111" s="330"/>
+      <c r="F111" s="330"/>
+      <c r="G111" s="330"/>
+      <c r="H111" s="333">
         <f>G113/12</f>
         <v>25000</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15">
-      <c r="A112" s="338"/>
-      <c r="B112" s="348"/>
-      <c r="C112" s="340"/>
-      <c r="D112" s="341" t="s">
+      <c r="A112" s="334"/>
+      <c r="B112" s="344"/>
+      <c r="C112" s="336"/>
+      <c r="D112" s="337" t="s">
         <v>403</v>
       </c>
-      <c r="E112" s="341"/>
-      <c r="F112" s="341"/>
-      <c r="G112" s="342">
+      <c r="E112" s="337"/>
+      <c r="F112" s="337"/>
+      <c r="G112" s="338">
         <v>22104</v>
       </c>
-      <c r="H112" s="343">
+      <c r="H112" s="339">
         <f>G119/G112</f>
         <v>13.572204125950055</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A113" s="350"/>
-      <c r="B113" s="351"/>
-      <c r="C113" s="345"/>
-      <c r="D113" s="346" t="s">
+      <c r="A113" s="346"/>
+      <c r="B113" s="347"/>
+      <c r="C113" s="341"/>
+      <c r="D113" s="342" t="s">
         <v>450</v>
       </c>
-      <c r="E113" s="344"/>
-      <c r="F113" s="344"/>
-      <c r="G113" s="344">
+      <c r="E113" s="340"/>
+      <c r="F113" s="340"/>
+      <c r="G113" s="340">
         <f>G119</f>
         <v>300000</v>
       </c>
-      <c r="H113" s="347"/>
+      <c r="H113" s="343"/>
     </row>
     <row r="114" spans="1:8" ht="15">
       <c r="D114" s="287" t="s">
@@ -6543,7 +6550,7 @@
       <c r="B115" s="295">
         <v>45503</v>
       </c>
-      <c r="C115" s="319"/>
+      <c r="C115" s="315"/>
       <c r="D115" s="303" t="s">
         <v>438</v>
       </c>
@@ -6626,7 +6633,7 @@
     </row>
     <row r="123" spans="1:8" ht="15">
       <c r="D123" s="299"/>
-      <c r="E123" s="320">
+      <c r="E123" s="316">
         <v>2981</v>
       </c>
       <c r="G123" s="291"/>
@@ -6636,10 +6643,10 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="15">
-      <c r="D124" s="316" t="s">
+      <c r="D124" s="312" t="s">
         <v>468</v>
       </c>
-      <c r="E124" s="321">
+      <c r="E124" s="317">
         <f>F125/E123</f>
         <v>5.0318685005031867</v>
       </c>
@@ -6778,7 +6785,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="B131" s="13"/>
-      <c r="E131" s="320">
+      <c r="E131" s="316">
         <v>4292</v>
       </c>
       <c r="F131" s="302"/>
@@ -6786,7 +6793,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="B132" s="13"/>
-      <c r="E132" s="321">
+      <c r="E132" s="317">
         <f>F133/E131</f>
         <v>3.4948741845293569</v>
       </c>
@@ -6961,7 +6968,7 @@
       <c r="H146" s="3"/>
     </row>
     <row r="147" spans="2:8">
-      <c r="B147" s="352">
+      <c r="B147" s="348">
         <v>45350</v>
       </c>
       <c r="D147" t="s">
@@ -6979,7 +6986,7 @@
       <c r="D148" t="s">
         <v>482</v>
       </c>
-      <c r="E148" s="332">
+      <c r="E148" s="328">
         <v>0.5</v>
       </c>
       <c r="G148">
@@ -7111,211 +7118,211 @@
       </c>
     </row>
     <row r="167" spans="2:8">
-      <c r="B167" s="328">
+      <c r="B167" s="324">
         <v>44197</v>
       </c>
-      <c r="C167" s="330">
+      <c r="C167" s="326">
         <f>E9</f>
         <v>495</v>
       </c>
-      <c r="E167" s="327">
+      <c r="E167" s="323">
         <f>E10</f>
         <v>4.0404040404040407</v>
       </c>
     </row>
     <row r="168" spans="2:8">
-      <c r="B168" s="328">
+      <c r="B168" s="324">
         <v>44378</v>
       </c>
-      <c r="C168" s="330">
+      <c r="C168" s="326">
         <f>E9</f>
         <v>495</v>
       </c>
-      <c r="E168" s="327">
+      <c r="E168" s="323">
         <f>E10</f>
         <v>4.0404040404040407</v>
       </c>
     </row>
     <row r="169" spans="2:8">
-      <c r="B169" s="328">
+      <c r="B169" s="324">
         <v>44562</v>
       </c>
-      <c r="C169" s="330">
+      <c r="C169" s="326">
         <f>E30</f>
         <v>783</v>
       </c>
-      <c r="E169" s="327">
+      <c r="E169" s="323">
         <f>E31</f>
         <v>2.554278416347382</v>
       </c>
     </row>
     <row r="170" spans="2:8">
-      <c r="B170" s="328">
+      <c r="B170" s="324">
         <v>44743</v>
       </c>
-      <c r="C170" s="330">
+      <c r="C170" s="326">
         <f>E37</f>
         <v>968</v>
       </c>
-      <c r="E170" s="327">
+      <c r="E170" s="323">
         <f>E38</f>
         <v>3.0991735537190084</v>
       </c>
     </row>
     <row r="171" spans="2:8">
-      <c r="B171" s="328">
+      <c r="B171" s="324">
         <v>44927</v>
       </c>
-      <c r="C171" s="330">
+      <c r="C171" s="326">
         <f>E63</f>
         <v>1095</v>
       </c>
-      <c r="E171" s="327">
+      <c r="E171" s="323">
         <f>E64</f>
         <v>2.7397260273972601</v>
       </c>
     </row>
     <row r="172" spans="2:8">
-      <c r="B172" s="328">
+      <c r="B172" s="324">
         <v>45108</v>
       </c>
-      <c r="C172" s="330">
+      <c r="C172" s="326">
         <f>E70</f>
         <v>1607</v>
       </c>
-      <c r="E172" s="327">
+      <c r="E172" s="323">
         <f>E71</f>
         <v>4.0448039825762292</v>
       </c>
     </row>
     <row r="173" spans="2:8">
-      <c r="B173" s="328">
+      <c r="B173" s="324">
         <v>45292</v>
       </c>
-      <c r="C173" s="330">
+      <c r="C173" s="326">
         <f>E93</f>
         <v>1954</v>
       </c>
-      <c r="E173" s="327">
+      <c r="E173" s="323">
         <f>E94</f>
         <v>3.3265097236438077</v>
       </c>
     </row>
     <row r="174" spans="2:8">
-      <c r="B174" s="328">
+      <c r="B174" s="324">
         <v>45474</v>
       </c>
-      <c r="C174" s="330">
+      <c r="C174" s="326">
         <f>E101</f>
         <v>2442</v>
       </c>
-      <c r="E174" s="327">
+      <c r="E174" s="323">
         <f>E102</f>
         <v>6.1425061425061429</v>
       </c>
     </row>
     <row r="175" spans="2:8">
-      <c r="B175" s="328">
+      <c r="B175" s="324">
         <v>45658</v>
       </c>
-      <c r="C175" s="330">
+      <c r="C175" s="326">
         <f>E123</f>
         <v>2981</v>
       </c>
-      <c r="E175" s="327">
+      <c r="E175" s="323">
         <f>E124</f>
         <v>5.0318685005031867</v>
       </c>
     </row>
     <row r="176" spans="2:8">
-      <c r="B176" s="328"/>
-      <c r="C176" s="330"/>
-      <c r="E176" s="327"/>
+      <c r="B176" s="324"/>
+      <c r="C176" s="326"/>
+      <c r="E176" s="323"/>
     </row>
     <row r="177" spans="2:5">
-      <c r="B177" s="328"/>
+      <c r="B177" s="324"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="329">
+      <c r="B178" s="325">
         <v>9</v>
       </c>
-      <c r="C178" s="329"/>
+      <c r="C178" s="325"/>
       <c r="D178" t="s">
         <v>472</v>
       </c>
-      <c r="E178" s="327">
+      <c r="E178" s="323">
         <f>SUM(E167:E177)</f>
         <v>35.019674427501101</v>
       </c>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="329">
+      <c r="B179" s="325">
         <v>9</v>
       </c>
-      <c r="C179" s="329"/>
+      <c r="C179" s="325"/>
       <c r="D179" t="s">
         <v>473</v>
       </c>
-      <c r="E179" s="327">
+      <c r="E179" s="323">
         <f>E178/B179</f>
         <v>3.8910749363890114</v>
       </c>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="328"/>
+      <c r="B180" s="324"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="328"/>
+      <c r="B181" s="324"/>
     </row>
     <row r="182" spans="2:5">
-      <c r="B182" s="328"/>
+      <c r="B182" s="324"/>
       <c r="D182" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="183" spans="2:5">
-      <c r="B183" s="328">
+      <c r="B183" s="324">
         <v>45839</v>
       </c>
-      <c r="C183" s="330">
+      <c r="C183" s="326">
         <v>4250</v>
       </c>
       <c r="D183" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="E183" s="331">
+      <c r="E183" s="327">
         <f>E179*C183</f>
         <v>16537.068479653299</v>
       </c>
     </row>
     <row r="184" spans="2:5">
-      <c r="B184" s="328"/>
+      <c r="B184" s="324"/>
       <c r="D184" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="E184" s="331">
+      <c r="E184" s="327">
         <f>E167*C183</f>
         <v>17171.717171717173</v>
       </c>
     </row>
     <row r="185" spans="2:5">
-      <c r="B185" s="328">
+      <c r="B185" s="324">
         <v>46023</v>
       </c>
-      <c r="C185" s="317">
+      <c r="C185" s="313">
         <f>C183+(C183*C186)</f>
         <v>5100</v>
       </c>
       <c r="D185" s="83" t="s">
         <v>477</v>
       </c>
-      <c r="E185" s="331">
+      <c r="E185" s="327">
         <f>E167*C185</f>
         <v>20606.060606060608</v>
       </c>
     </row>
     <row r="186" spans="2:5">
-      <c r="C186" s="332">
+      <c r="C186" s="328">
         <v>0.2</v>
       </c>
       <c r="D186" s="83" t="s">
@@ -7326,7 +7333,7 @@
       <c r="D187" t="s">
         <v>479</v>
       </c>
-      <c r="E187" s="331">
+      <c r="E187" s="327">
         <f>E174*C185</f>
         <v>31326.781326781329</v>
       </c>
@@ -12735,10 +12742,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="11.25" customHeight="1">
       <c r="D1" s="100"/>
-      <c r="E1" s="312">
+      <c r="E1" s="358">
         <v>45233</v>
       </c>
-      <c r="F1" s="312"/>
+      <c r="F1" s="358"/>
     </row>
     <row r="2" spans="1:6" ht="11.25" customHeight="1">
       <c r="B2" s="101" t="s">
@@ -14963,10 +14970,10 @@
     </row>
     <row r="158" spans="1:6" ht="16.7" customHeight="1">
       <c r="A158" s="108"/>
-      <c r="B158" s="313">
+      <c r="B158" s="359">
         <v>45233</v>
       </c>
-      <c r="C158" s="313"/>
+      <c r="C158" s="359"/>
       <c r="D158" s="100"/>
       <c r="E158" s="121" t="s">
         <v>268</v>
@@ -15354,10 +15361,10 @@
       </c>
       <c r="C3" s="133"/>
       <c r="D3" s="133"/>
-      <c r="E3" s="314">
+      <c r="E3" s="360">
         <v>45233</v>
       </c>
-      <c r="F3" s="314"/>
+      <c r="F3" s="360"/>
     </row>
     <row r="4" spans="1:7" ht="11.25" customHeight="1">
       <c r="B4" s="132"/>
@@ -16422,10 +16429,10 @@
       <c r="A1" s="179"/>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
-      <c r="D1" s="315">
+      <c r="D1" s="361">
         <v>45233</v>
       </c>
-      <c r="E1" s="315"/>
+      <c r="E1" s="361"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="179"/>

--- a/01-25-dgs.xlsx
+++ b/01-25-dgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96698DD4-F6B3-4351-A021-EEFAE712078B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2A16EE-232B-41B0-B2F6-8099A68E94D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="780" windowWidth="19800" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-Dgs Adem Son (2)" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="506">
   <si>
     <t>Doğuş</t>
   </si>
@@ -1893,64 +1893,64 @@
     <t>elektrik</t>
   </si>
   <si>
-    <t>mart 2025 kira bedeli ödemesi</t>
-  </si>
-  <si>
-    <t>nisan 2025 ödemesi</t>
-  </si>
-  <si>
-    <t>mayıs 2025  ödemesi</t>
-  </si>
-  <si>
-    <t>haziran 2025 ödemesi</t>
-  </si>
-  <si>
-    <t>temmuz 2025 ödemesi</t>
-  </si>
-  <si>
-    <t>ağustos 2025 ödemesi</t>
-  </si>
-  <si>
-    <t>mart bedeli</t>
-  </si>
-  <si>
-    <t>nisan bedeli</t>
-  </si>
-  <si>
-    <t>mayıs bedeli</t>
-  </si>
-  <si>
-    <t>haziran 2025 iade</t>
-  </si>
-  <si>
-    <t>eylül 2025 ödemesi</t>
-  </si>
-  <si>
     <t>elektrik gecikme</t>
   </si>
   <si>
     <t>noksan ödeme gecikme</t>
   </si>
   <si>
-    <t>mart 9 günlük gecikme</t>
-  </si>
-  <si>
-    <t>nisan 9 günlük gecikme</t>
-  </si>
-  <si>
-    <t>mayıs  9 günlük gecikme</t>
-  </si>
-  <si>
-    <t>nisan 14 günlük gecikme</t>
-  </si>
-  <si>
-    <t>ağustos 17  günlük gecikme</t>
-  </si>
-  <si>
     <t>su kartı</t>
   </si>
   <si>
     <t>elektrik tuvalet anahtar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mart bedeli                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisan bedeli                              </t>
+  </si>
+  <si>
+    <t>mayıs bedeli       oturulan son ay</t>
+  </si>
+  <si>
+    <t>mayıs 2025  ödemesi 30-10</t>
+  </si>
+  <si>
+    <t>nisan 2025 ödemesi 30-9</t>
+  </si>
+  <si>
+    <t>haziran 2025 ödemesi 30-11</t>
+  </si>
+  <si>
+    <t>temmuz 2025 ödemesi 30-12</t>
+  </si>
+  <si>
+    <t>ağustos 2025 ödemesi 30-01-25</t>
+  </si>
+  <si>
+    <t>eylül 2025 ödemesi 28-2</t>
+  </si>
+  <si>
+    <t>aralık 2025 iade ödeme</t>
+  </si>
+  <si>
+    <t>boya mlz. İşçilik</t>
+  </si>
+  <si>
+    <t>HESAP</t>
+  </si>
+  <si>
+    <t>noksan ödeme 15000-6500=8500</t>
+  </si>
+  <si>
+    <t>mart 2025 ödeme 30-8-2024</t>
+  </si>
+  <si>
+    <t>en yüksek kiraya göre olması gereken</t>
+  </si>
+  <si>
+    <t>ilk kiraya göre olması gereken</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1983,7 @@
     <numFmt numFmtId="186" formatCode="#,##0\ &quot;TL/ay&quot;"/>
     <numFmt numFmtId="187" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="69">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2472,8 +2472,14 @@
       <name val="Liberation Sans1"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Liberation Sans1"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2609,6 +2615,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3243,7 +3261,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3878,6 +3896,22 @@
     </xf>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="187" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="183" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="24" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="183" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="25" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="68" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Accent" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4216,17 +4250,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44515376-190E-446B-B19E-14E8B629D485}">
-  <dimension ref="B2:I31"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="350" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="313" customWidth="1"/>
+    <col min="3" max="3" width="1.42578125" style="313" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -4241,17 +4275,19 @@
       </c>
       <c r="C2" s="349"/>
       <c r="D2" s="352" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="350">
+      <c r="B3" s="372">
         <v>45350</v>
       </c>
-      <c r="D3" t="s">
-        <v>481</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="C3" s="373"/>
+      <c r="D3" s="374" t="s">
+        <v>502</v>
+      </c>
+      <c r="E3" s="374"/>
+      <c r="F3" s="375">
         <v>8500</v>
       </c>
       <c r="H3" s="3">
@@ -4260,32 +4296,36 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="350">
+      <c r="B4" s="366">
         <v>45544</v>
       </c>
-      <c r="D4" t="s">
-        <v>486</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="C4" s="367"/>
+      <c r="D4" s="368" t="s">
+        <v>503</v>
+      </c>
+      <c r="E4" s="369"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370">
         <v>15000</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H19" si="0">H3+F4-G4</f>
+        <f t="shared" ref="H4:H24" si="0">H3+F4-G4</f>
         <v>-6500</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="350">
+      <c r="B5" s="372">
         <v>45544</v>
       </c>
-      <c r="D5" t="s">
-        <v>498</v>
-      </c>
-      <c r="E5" s="296">
+      <c r="C5" s="373"/>
+      <c r="D5" s="374" t="s">
+        <v>487</v>
+      </c>
+      <c r="E5" s="376">
         <f>50/365*(B4-B3)%</f>
         <v>0.26575342465753421</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="375">
         <f>F3*E5</f>
         <v>2258.9041095890407</v>
       </c>
@@ -4295,416 +4335,332 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="350">
-        <v>45909</v>
-      </c>
-      <c r="D6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E6" s="296">
-        <f>50/365*9%</f>
-        <v>1.2328767123287671E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <f>G4*E6</f>
-        <v>184.93150684931507</v>
+      <c r="B6" s="366">
+        <v>45574</v>
+      </c>
+      <c r="C6" s="367"/>
+      <c r="D6" s="368" t="s">
+        <v>494</v>
+      </c>
+      <c r="E6" s="369"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="370">
+        <v>15000</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>-4056.1643835616442</v>
+        <v>-19241.095890410958</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="350">
-        <v>45574</v>
-      </c>
-      <c r="D7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="B7" s="366">
+        <v>45605</v>
+      </c>
+      <c r="C7" s="367"/>
+      <c r="D7" s="368" t="s">
+        <v>493</v>
+      </c>
+      <c r="E7" s="369"/>
+      <c r="F7" s="370"/>
+      <c r="G7" s="370">
         <v>15000</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>-19056.164383561645</v>
+        <v>-34241.095890410958</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="350">
-        <v>45909</v>
-      </c>
-      <c r="D8" t="s">
-        <v>500</v>
-      </c>
-      <c r="E8" s="296">
-        <f>50/365*9%</f>
-        <v>1.2328767123287671E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <f>G7*E8</f>
-        <v>184.93150684931507</v>
+      <c r="B8" s="366">
+        <v>45637</v>
+      </c>
+      <c r="C8" s="367"/>
+      <c r="D8" s="368" t="s">
+        <v>495</v>
+      </c>
+      <c r="E8" s="369"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="370">
+        <v>15000</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>-18871.232876712329</v>
+        <v>-49241.095890410958</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="350">
-        <v>45605</v>
-      </c>
-      <c r="D9" t="s">
-        <v>488</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="B9" s="366">
+        <v>45671</v>
+      </c>
+      <c r="C9" s="367"/>
+      <c r="D9" s="377" t="s">
+        <v>496</v>
+      </c>
+      <c r="E9" s="369"/>
+      <c r="F9" s="370"/>
+      <c r="G9" s="370">
         <v>15000</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>-33871.232876712325</v>
+        <v>-64241.095890410958</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="350">
-        <v>45606</v>
-      </c>
-      <c r="D10" t="s">
-        <v>501</v>
-      </c>
-      <c r="E10" s="296">
-        <f>50/365*9%</f>
-        <v>1.2328767123287671E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <f>G9*E10</f>
-        <v>184.93150684931507</v>
+      <c r="B10" s="366">
+        <v>45705</v>
+      </c>
+      <c r="C10" s="367"/>
+      <c r="D10" s="368" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" s="371"/>
+      <c r="F10" s="370"/>
+      <c r="G10" s="370">
+        <v>15000</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>-33686.301369863009</v>
+        <v>-79241.095890410958</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="350">
-        <v>45637</v>
-      </c>
-      <c r="D11" t="s">
-        <v>489</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="B11" s="362">
+        <v>45716</v>
+      </c>
+      <c r="C11" s="316"/>
+      <c r="D11" s="363" t="s">
+        <v>490</v>
+      </c>
+      <c r="E11" s="363"/>
+      <c r="F11" s="364">
         <v>15000</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>-48686.301369863009</v>
+        <v>-64241.095890410958</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="350">
-        <v>45638</v>
-      </c>
-      <c r="D12" t="s">
-        <v>500</v>
-      </c>
-      <c r="E12" s="296">
-        <f>50/365*12%</f>
-        <v>1.643835616438356E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <f>G11*E12</f>
-        <v>246.57534246575341</v>
+      <c r="B12" s="366">
+        <v>45721</v>
+      </c>
+      <c r="C12" s="367"/>
+      <c r="D12" s="368" t="s">
+        <v>498</v>
+      </c>
+      <c r="E12" s="369"/>
+      <c r="F12" s="370"/>
+      <c r="G12" s="370">
+        <v>15000</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>-48439.726027397257</v>
+        <v>-79241.095890410958</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="350">
-        <v>45671</v>
-      </c>
-      <c r="D13" t="s">
-        <v>490</v>
-      </c>
-      <c r="G13" s="3">
-        <v>15000</v>
+      <c r="B13" s="356">
+        <v>45722</v>
+      </c>
+      <c r="C13" s="357"/>
+      <c r="D13" s="283" t="s">
+        <v>485</v>
+      </c>
+      <c r="E13" s="283"/>
+      <c r="F13" s="281">
+        <v>455</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>-63439.726027397257</v>
+        <v>-78786.095890410958</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="350">
-        <v>45672</v>
-      </c>
-      <c r="D14" t="s">
-        <v>502</v>
-      </c>
-      <c r="E14" s="296">
-        <f>50/365*14%</f>
-        <v>1.9178082191780823E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <f>G13*E14</f>
-        <v>287.67123287671234</v>
+      <c r="B14" s="362">
+        <v>45746</v>
+      </c>
+      <c r="C14" s="316"/>
+      <c r="D14" s="363" t="s">
+        <v>491</v>
+      </c>
+      <c r="E14" s="363"/>
+      <c r="F14" s="364">
+        <v>15000</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="0"/>
-        <v>-63152.054794520547</v>
+        <v>-63786.095890410958</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="350">
-        <v>45705</v>
-      </c>
-      <c r="D15" t="s">
-        <v>491</v>
-      </c>
-      <c r="E15" s="296"/>
-      <c r="G15" s="3">
-        <v>15000</v>
+      <c r="B15" s="356">
+        <v>45750</v>
+      </c>
+      <c r="C15" s="357"/>
+      <c r="D15" s="283" t="s">
+        <v>485</v>
+      </c>
+      <c r="E15" s="283"/>
+      <c r="F15" s="281">
+        <v>315</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>-78152.054794520547</v>
+        <v>-63471.095890410958</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="350">
-        <v>45706</v>
-      </c>
-      <c r="D16" t="s">
-        <v>503</v>
-      </c>
-      <c r="E16" s="296">
-        <f>50/365*17%</f>
-        <v>2.3287671232876714E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <f>G15*E16</f>
-        <v>349.3150684931507</v>
+      <c r="B16" s="362">
+        <v>45777</v>
+      </c>
+      <c r="C16" s="316"/>
+      <c r="D16" s="363" t="s">
+        <v>492</v>
+      </c>
+      <c r="E16" s="363"/>
+      <c r="F16" s="364">
+        <v>15000</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>-77802.739726027401</v>
+        <v>-48471.095890410958</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="350">
-        <v>45716</v>
-      </c>
-      <c r="D17" t="s">
-        <v>492</v>
-      </c>
-      <c r="F17" s="3">
-        <v>15000</v>
+      <c r="B17" s="356">
+        <v>45782</v>
+      </c>
+      <c r="C17" s="357"/>
+      <c r="D17" s="283" t="s">
+        <v>485</v>
+      </c>
+      <c r="E17" s="283"/>
+      <c r="F17" s="281">
+        <v>495</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="0"/>
-        <v>-62802.739726027401</v>
+        <v>-47976.095890410958</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="350">
-        <v>45721</v>
-      </c>
-      <c r="D18" t="s">
-        <v>496</v>
-      </c>
-      <c r="G18" s="3">
-        <v>15000</v>
+      <c r="B18" s="356">
+        <v>45818</v>
+      </c>
+      <c r="C18" s="357"/>
+      <c r="D18" s="283" t="s">
+        <v>485</v>
+      </c>
+      <c r="E18" s="283"/>
+      <c r="F18" s="281">
+        <v>435</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="0"/>
-        <v>-77802.739726027401</v>
+        <v>-47541.095890410958</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="350">
-        <v>45722</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="356">
+        <v>45833</v>
+      </c>
+      <c r="C19" s="357"/>
+      <c r="D19" s="283" t="s">
         <v>485</v>
       </c>
-      <c r="F19" s="3">
-        <v>455</v>
-      </c>
+      <c r="E19" s="283"/>
+      <c r="F19" s="281">
+        <v>25</v>
+      </c>
+      <c r="G19" s="95"/>
       <c r="H19" s="3">
         <f t="shared" si="0"/>
-        <v>-77347.739726027401</v>
+        <v>-47516.095890410958</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="350">
-        <v>45746</v>
-      </c>
-      <c r="D20" t="s">
-        <v>493</v>
-      </c>
-      <c r="F20" s="3">
-        <v>15000</v>
-      </c>
+      <c r="D20" s="353" t="s">
+        <v>486</v>
+      </c>
+      <c r="E20" s="353"/>
+      <c r="F20" s="354">
+        <v>300</v>
+      </c>
+      <c r="G20" s="95"/>
       <c r="H20" s="3">
-        <f t="shared" ref="H20:H31" si="1">H19+F20-G20</f>
-        <v>-62347.739726027401</v>
+        <f t="shared" si="0"/>
+        <v>-47216.095890410958</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="350">
-        <v>45750</v>
-      </c>
-      <c r="D21" t="s">
-        <v>485</v>
-      </c>
-      <c r="F21" s="3">
-        <v>315</v>
-      </c>
+      <c r="D21" s="353" t="s">
+        <v>488</v>
+      </c>
+      <c r="E21" s="353"/>
+      <c r="F21" s="355">
+        <v>300</v>
+      </c>
+      <c r="G21" s="95"/>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
-        <v>-62032.739726027401</v>
+        <f t="shared" si="0"/>
+        <v>-46916.095890410958</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="350">
-        <v>45777</v>
-      </c>
-      <c r="D22" t="s">
-        <v>494</v>
-      </c>
-      <c r="F22" s="3">
-        <v>15000</v>
-      </c>
+      <c r="D22" s="353" t="s">
+        <v>489</v>
+      </c>
+      <c r="E22" s="353"/>
+      <c r="F22" s="355">
+        <v>150</v>
+      </c>
+      <c r="G22" s="95"/>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
-        <v>-47032.739726027401</v>
+        <f t="shared" si="0"/>
+        <v>-46766.095890410958</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="350">
-        <v>45782</v>
-      </c>
-      <c r="D23" t="s">
-        <v>485</v>
-      </c>
-      <c r="F23" s="3">
-        <v>495</v>
-      </c>
+      <c r="D23" s="353" t="s">
+        <v>500</v>
+      </c>
+      <c r="E23" s="353"/>
+      <c r="F23" s="354">
+        <v>6766.1</v>
+      </c>
+      <c r="G23" s="95"/>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
-        <v>-46537.739726027401</v>
+        <f t="shared" si="0"/>
+        <v>-39999.995890410959</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="350">
-        <v>45818</v>
-      </c>
-      <c r="D24" t="s">
-        <v>485</v>
-      </c>
-      <c r="F24" s="3">
-        <v>435</v>
-      </c>
+      <c r="D24" s="353"/>
+      <c r="E24" s="353"/>
+      <c r="F24" s="355"/>
+      <c r="G24" s="95"/>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
-        <v>-46102.739726027401</v>
+        <f t="shared" si="0"/>
+        <v>-39999.995890410959</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="356">
-        <v>45833</v>
-      </c>
-      <c r="C25" s="357"/>
-      <c r="D25" s="283" t="s">
-        <v>485</v>
-      </c>
-      <c r="E25" s="283"/>
-      <c r="F25" s="281">
-        <v>25</v>
-      </c>
-      <c r="G25" s="281"/>
-      <c r="H25" s="281">
-        <f t="shared" si="1"/>
-        <v>-46077.739726027401</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="D26" s="353" t="s">
-        <v>497</v>
-      </c>
-      <c r="E26" s="353"/>
-      <c r="F26" s="354">
-        <v>300</v>
-      </c>
-      <c r="G26" s="355"/>
-      <c r="H26" s="3">
-        <f t="shared" si="1"/>
-        <v>-45777.739726027401</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="D27" s="353" t="s">
-        <v>504</v>
-      </c>
-      <c r="E27" s="353"/>
-      <c r="F27" s="355">
-        <v>300</v>
-      </c>
-      <c r="G27" s="355"/>
-      <c r="H27" s="3">
-        <f t="shared" si="1"/>
-        <v>-45477.739726027401</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="D28" s="353" t="s">
-        <v>505</v>
-      </c>
-      <c r="E28" s="353"/>
-      <c r="F28" s="355">
-        <v>150</v>
-      </c>
-      <c r="G28" s="355"/>
-      <c r="H28" s="3">
-        <f t="shared" si="1"/>
-        <v>-45327.739726027401</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="D29" s="353"/>
-      <c r="E29" s="353"/>
-      <c r="F29" s="354"/>
-      <c r="G29" s="355"/>
-      <c r="H29" s="355">
-        <f t="shared" si="1"/>
-        <v>-45327.739726027401</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="D30" s="353"/>
-      <c r="E30" s="353"/>
-      <c r="F30" s="355"/>
-      <c r="G30" s="355"/>
-      <c r="H30" s="355">
-        <f t="shared" si="1"/>
-        <v>-45327.739726027401</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="350">
-        <v>45838</v>
-      </c>
-      <c r="D31" s="353" t="s">
-        <v>495</v>
-      </c>
-      <c r="E31" s="353"/>
-      <c r="F31" s="354">
-        <v>40000</v>
-      </c>
-      <c r="G31" s="355"/>
-      <c r="H31" s="355">
-        <f t="shared" si="1"/>
-        <v>-5327.739726027401</v>
+      <c r="B25" s="350">
+        <v>46012</v>
+      </c>
+      <c r="D25" s="365" t="s">
+        <v>499</v>
+      </c>
+      <c r="E25" s="353"/>
+      <c r="F25" s="354">
+        <f>H24*-1</f>
+        <v>39999.995890410959</v>
+      </c>
+      <c r="G25" s="95"/>
+      <c r="H25" s="355">
+        <f t="shared" ref="H14:H25" si="1">H24+F25-G25</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4977,10 +4933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J146" sqref="J146"/>
+    <sheetView topLeftCell="A170" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7336,6 +7292,30 @@
       <c r="E187" s="327">
         <f>E174*C185</f>
         <v>31326.781326781329</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" s="348">
+        <v>46012</v>
+      </c>
+      <c r="C189" s="326">
+        <v>6000</v>
+      </c>
+      <c r="D189" t="s">
+        <v>505</v>
+      </c>
+      <c r="E189" s="327">
+        <f>E167*C189</f>
+        <v>24242.424242424244</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="D190" t="s">
+        <v>504</v>
+      </c>
+      <c r="E190" s="327">
+        <f>E174*C189</f>
+        <v>36855.036855036858</v>
       </c>
     </row>
   </sheetData>
